--- a/371/UAT/MasterData/BOM list_01252018.xlsx
+++ b/371/UAT/MasterData/BOM list_01252018.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="21600" windowHeight="9045"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="21600" windowHeight="9045" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="All products" sheetId="1" r:id="rId1"/>
@@ -241,7 +241,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11234" uniqueCount="782">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11276" uniqueCount="783">
   <si>
     <t>Item number</t>
   </si>
@@ -2782,6 +2782,10 @@
   </si>
   <si>
     <t>Cost price(labor/overhead)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>ok</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -2789,11 +2793,12 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <numFmts count="4">
+  <numFmts count="5">
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="176" formatCode="0.0000"/>
     <numFmt numFmtId="177" formatCode="#,##0.0000\ &quot;€&quot;"/>
     <numFmt numFmtId="178" formatCode="0.000"/>
+    <numFmt numFmtId="179" formatCode="0.00000"/>
   </numFmts>
   <fonts count="24">
     <font>
@@ -3807,7 +3812,7 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="333">
+  <cellXfs count="334">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -4581,40 +4586,23 @@
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="43" fontId="23" fillId="12" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="177" fontId="8" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="37" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="12" fillId="6" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="6" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="177" fontId="8" fillId="0" borderId="41" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="8" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="6" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="6" borderId="50" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="6" borderId="51" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="177" fontId="8" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -4629,10 +4617,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="177" fontId="8" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="8" fillId="0" borderId="41" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="177" fontId="8" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -4644,19 +4632,88 @@
     <xf numFmtId="177" fontId="0" fillId="0" borderId="37" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="177" fontId="8" fillId="0" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="177" fontId="8" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="177" fontId="8" fillId="0" borderId="37" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="37" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="177" fontId="8" fillId="0" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="50" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="51" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="49" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="50" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="51" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="177" fontId="8" fillId="0" borderId="27" xfId="5" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="177" fontId="8" fillId="0" borderId="37" xfId="5" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="6" borderId="10" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="6" borderId="11" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="31" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="37" xfId="5" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="37" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="53" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="177" fontId="8" fillId="0" borderId="41" xfId="5" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="18" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="22" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="29" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="177" fontId="8" fillId="0" borderId="27" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="177" fontId="8" fillId="0" borderId="31" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="177" fontId="19" fillId="0" borderId="31" xfId="5" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="177" fontId="19" fillId="0" borderId="37" xfId="5" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="177" fontId="8" fillId="0" borderId="9" xfId="5" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -4674,61 +4731,12 @@
     <xf numFmtId="177" fontId="8" fillId="0" borderId="17" xfId="5" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="18" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="22" xfId="5" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="29" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="179" fontId="8" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="177" fontId="8" fillId="0" borderId="27" xfId="5" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="37" xfId="5" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="177" fontId="8" fillId="0" borderId="41" xfId="5" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="22" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="6" borderId="53" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="177" fontId="8" fillId="0" borderId="27" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="177" fontId="19" fillId="0" borderId="31" xfId="5" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="177" fontId="19" fillId="0" borderId="37" xfId="5" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="177" fontId="8" fillId="0" borderId="31" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="177" fontId="8" fillId="0" borderId="37" xfId="5" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="31" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="6" borderId="49" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="6" borderId="50" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="6" borderId="51" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="37" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="6">
     <cellStyle name="Comma" xfId="1" builtinId="3"/>
@@ -5963,11 +5971,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AE64"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="1" topLeftCell="G2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="AE10" sqref="AE10"/>
+      <selection pane="bottomRight" activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -6075,10 +6083,10 @@
       <c r="AB1" s="268" t="s">
         <v>726</v>
       </c>
-      <c r="AD1" s="332" t="s">
+      <c r="AD1" s="283" t="s">
         <v>780</v>
       </c>
-      <c r="AE1" s="332" t="s">
+      <c r="AE1" s="283" t="s">
         <v>781</v>
       </c>
     </row>
@@ -12212,12 +12220,12 @@
       <c r="B3" s="173" t="s">
         <v>216</v>
       </c>
-      <c r="C3" s="307" t="s">
+      <c r="C3" s="313" t="s">
         <v>687</v>
       </c>
-      <c r="D3" s="307"/>
-      <c r="E3" s="307"/>
-      <c r="F3" s="308"/>
+      <c r="D3" s="313"/>
+      <c r="E3" s="313"/>
+      <c r="F3" s="314"/>
       <c r="H3" s="172" t="b">
         <f>B4="CODE"</f>
         <v>1</v>
@@ -12265,7 +12273,7 @@
       <c r="E5" s="181">
         <v>0.74400000000000011</v>
       </c>
-      <c r="F5" s="309">
+      <c r="F5" s="327">
         <v>1.7986402387041773</v>
       </c>
       <c r="H5" s="172" t="b">
@@ -12290,7 +12298,7 @@
       <c r="E6" s="185">
         <v>0.63600000000000001</v>
       </c>
-      <c r="F6" s="310"/>
+      <c r="F6" s="328"/>
       <c r="H6" s="172" t="b">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -12313,7 +12321,7 @@
       <c r="E7" s="185">
         <v>2.2085E-2</v>
       </c>
-      <c r="F7" s="310"/>
+      <c r="F7" s="328"/>
       <c r="H7" s="172" t="b">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -12336,7 +12344,7 @@
       <c r="E8" s="185">
         <v>9.5700000000000004E-3</v>
       </c>
-      <c r="F8" s="310"/>
+      <c r="F8" s="328"/>
       <c r="H8" s="172" t="b">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -12359,7 +12367,7 @@
       <c r="E9" s="185">
         <v>2.9155E-2</v>
       </c>
-      <c r="F9" s="310"/>
+      <c r="F9" s="328"/>
       <c r="H9" s="172" t="b">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -12382,7 +12390,7 @@
       <c r="E10" s="185">
         <v>1.55E-2</v>
       </c>
-      <c r="F10" s="310"/>
+      <c r="F10" s="328"/>
       <c r="H10" s="172" t="b">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -12405,7 +12413,7 @@
       <c r="E11" s="185">
         <v>0.40193999999999996</v>
       </c>
-      <c r="F11" s="311"/>
+      <c r="F11" s="329"/>
       <c r="H11" s="172" t="b">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -12428,7 +12436,7 @@
       <c r="E12" s="185">
         <v>1.7954999999999999E-2</v>
       </c>
-      <c r="F12" s="311"/>
+      <c r="F12" s="329"/>
       <c r="H12" s="172" t="b">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -12451,7 +12459,7 @@
       <c r="E13" s="185">
         <v>0.113</v>
       </c>
-      <c r="F13" s="311"/>
+      <c r="F13" s="329"/>
       <c r="H13" s="172" t="b">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -12474,7 +12482,7 @@
       <c r="E14" s="189">
         <v>0.12059999999999998</v>
       </c>
-      <c r="F14" s="312"/>
+      <c r="F14" s="330"/>
       <c r="H14" s="172" t="b">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -12522,12 +12530,12 @@
       <c r="B17" s="173" t="s">
         <v>216</v>
       </c>
-      <c r="C17" s="307" t="s">
+      <c r="C17" s="313" t="s">
         <v>688</v>
       </c>
-      <c r="D17" s="307"/>
-      <c r="E17" s="307"/>
-      <c r="F17" s="308"/>
+      <c r="D17" s="313"/>
+      <c r="E17" s="313"/>
+      <c r="F17" s="314"/>
       <c r="H17" s="172" t="b">
         <f t="shared" si="0"/>
         <v>1</v>
@@ -12672,12 +12680,12 @@
       <c r="B25" s="173" t="s">
         <v>208</v>
       </c>
-      <c r="C25" s="307" t="s">
+      <c r="C25" s="313" t="s">
         <v>689</v>
       </c>
-      <c r="D25" s="307"/>
-      <c r="E25" s="307"/>
-      <c r="F25" s="308"/>
+      <c r="D25" s="313"/>
+      <c r="E25" s="313"/>
+      <c r="F25" s="314"/>
       <c r="H25" s="172" t="b">
         <f t="shared" si="0"/>
         <v>1</v>
@@ -12725,7 +12733,7 @@
       <c r="E27" s="181">
         <v>1.304</v>
       </c>
-      <c r="F27" s="309">
+      <c r="F27" s="327">
         <v>2.2385529830810329</v>
       </c>
       <c r="H27" s="172" t="b">
@@ -12750,7 +12758,7 @@
       <c r="E28" s="185">
         <v>0.63600000000000001</v>
       </c>
-      <c r="F28" s="310"/>
+      <c r="F28" s="328"/>
       <c r="H28" s="172" t="b">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -12773,7 +12781,7 @@
       <c r="E29" s="185">
         <v>1.5575E-2</v>
       </c>
-      <c r="F29" s="310"/>
+      <c r="F29" s="328"/>
       <c r="H29" s="172" t="b">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -12796,7 +12804,7 @@
       <c r="E30" s="185">
         <v>9.5700000000000004E-3</v>
       </c>
-      <c r="F30" s="310"/>
+      <c r="F30" s="328"/>
       <c r="H30" s="172" t="b">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -12819,7 +12827,7 @@
       <c r="E31" s="185">
         <v>1.26E-2</v>
       </c>
-      <c r="F31" s="310"/>
+      <c r="F31" s="328"/>
       <c r="H31" s="172" t="b">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -12842,7 +12850,7 @@
       <c r="E32" s="185">
         <v>1.55E-2</v>
       </c>
-      <c r="F32" s="310"/>
+      <c r="F32" s="328"/>
       <c r="H32" s="172" t="b">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -12865,7 +12873,7 @@
       <c r="E33" s="185">
         <v>0.40193999999999996</v>
       </c>
-      <c r="F33" s="311"/>
+      <c r="F33" s="329"/>
       <c r="H33" s="172" t="b">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -12888,7 +12896,7 @@
       <c r="E34" s="185">
         <v>1.7010000000000001E-2</v>
       </c>
-      <c r="F34" s="311"/>
+      <c r="F34" s="329"/>
       <c r="H34" s="172" t="b">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -12911,7 +12919,7 @@
       <c r="E35" s="189">
         <v>0.1017</v>
       </c>
-      <c r="F35" s="312"/>
+      <c r="F35" s="330"/>
       <c r="H35" s="172" t="b">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -12959,12 +12967,12 @@
       <c r="B38" s="173" t="s">
         <v>208</v>
       </c>
-      <c r="C38" s="307" t="s">
+      <c r="C38" s="313" t="s">
         <v>690</v>
       </c>
-      <c r="D38" s="307"/>
-      <c r="E38" s="307"/>
-      <c r="F38" s="308"/>
+      <c r="D38" s="313"/>
+      <c r="E38" s="313"/>
+      <c r="F38" s="314"/>
       <c r="H38" s="172" t="b">
         <f t="shared" si="0"/>
         <v>1</v>
@@ -13099,12 +13107,12 @@
       <c r="B46" s="173" t="s">
         <v>227</v>
       </c>
-      <c r="C46" s="307" t="s">
+      <c r="C46" s="313" t="s">
         <v>691</v>
       </c>
-      <c r="D46" s="307"/>
-      <c r="E46" s="307"/>
-      <c r="F46" s="308"/>
+      <c r="D46" s="313"/>
+      <c r="E46" s="313"/>
+      <c r="F46" s="314"/>
       <c r="H46" s="172" t="b">
         <f t="shared" si="0"/>
         <v>1</v>
@@ -13152,7 +13160,7 @@
       <c r="E48" s="180">
         <v>3.9804000000000004</v>
       </c>
-      <c r="F48" s="313">
+      <c r="F48" s="331">
         <v>0.94280000000000008</v>
       </c>
       <c r="H48" s="172" t="b">
@@ -13177,7 +13185,7 @@
       <c r="E49" s="184">
         <v>0.55649999999999999</v>
       </c>
-      <c r="F49" s="314"/>
+      <c r="F49" s="320"/>
       <c r="H49" s="172" t="b">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -13200,7 +13208,7 @@
       <c r="E50" s="188">
         <v>0.17710000000000001</v>
       </c>
-      <c r="F50" s="315"/>
+      <c r="F50" s="332"/>
       <c r="H50" s="172" t="b">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -13248,12 +13256,12 @@
       <c r="B53" s="173" t="s">
         <v>227</v>
       </c>
-      <c r="C53" s="307" t="s">
+      <c r="C53" s="313" t="s">
         <v>692</v>
       </c>
-      <c r="D53" s="307"/>
-      <c r="E53" s="307"/>
-      <c r="F53" s="308"/>
+      <c r="D53" s="313"/>
+      <c r="E53" s="313"/>
+      <c r="F53" s="314"/>
       <c r="H53" s="172" t="b">
         <f t="shared" si="0"/>
         <v>1</v>
@@ -13383,12 +13391,12 @@
       <c r="B61" s="173" t="s">
         <v>205</v>
       </c>
-      <c r="C61" s="307" t="s">
+      <c r="C61" s="313" t="s">
         <v>693</v>
       </c>
-      <c r="D61" s="307"/>
-      <c r="E61" s="307"/>
-      <c r="F61" s="308"/>
+      <c r="D61" s="313"/>
+      <c r="E61" s="313"/>
+      <c r="F61" s="314"/>
       <c r="H61" s="172" t="b">
         <f t="shared" si="0"/>
         <v>1</v>
@@ -13436,7 +13444,7 @@
       <c r="E63" s="180">
         <v>1.19784</v>
       </c>
-      <c r="F63" s="313">
+      <c r="F63" s="331">
         <v>0.75861069465267372</v>
       </c>
       <c r="H63" s="172" t="b">
@@ -13461,7 +13469,7 @@
       <c r="E64" s="184">
         <v>0.18285000000000001</v>
       </c>
-      <c r="F64" s="314"/>
+      <c r="F64" s="320"/>
       <c r="H64" s="172" t="b">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -13484,7 +13492,7 @@
       <c r="E65" s="211">
         <v>8.4100000000000008E-2</v>
       </c>
-      <c r="F65" s="316"/>
+      <c r="F65" s="322"/>
       <c r="H65" s="172" t="b">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -13507,7 +13515,7 @@
       <c r="E66" s="211">
         <v>7.9350000000000011E-3</v>
       </c>
-      <c r="F66" s="316"/>
+      <c r="F66" s="322"/>
       <c r="H66" s="172" t="b">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -13530,7 +13538,7 @@
       <c r="E67" s="211">
         <v>1.7325E-2</v>
       </c>
-      <c r="F67" s="316"/>
+      <c r="F67" s="322"/>
       <c r="H67" s="172" t="b">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -13553,7 +13561,7 @@
       <c r="E68" s="188">
         <v>2.7930000000000003E-2</v>
       </c>
-      <c r="F68" s="315"/>
+      <c r="F68" s="332"/>
       <c r="H68" s="172" t="b">
         <f t="shared" ref="H68:H131" si="2">B69="CODE"</f>
         <v>0</v>
@@ -13601,12 +13609,12 @@
       <c r="B71" s="173" t="s">
         <v>205</v>
       </c>
-      <c r="C71" s="307" t="s">
+      <c r="C71" s="313" t="s">
         <v>694</v>
       </c>
-      <c r="D71" s="307"/>
-      <c r="E71" s="307"/>
-      <c r="F71" s="308"/>
+      <c r="D71" s="313"/>
+      <c r="E71" s="313"/>
+      <c r="F71" s="314"/>
       <c r="H71" s="172" t="b">
         <f t="shared" si="2"/>
         <v>1</v>
@@ -13736,12 +13744,12 @@
       <c r="B79" s="173" t="s">
         <v>210</v>
       </c>
-      <c r="C79" s="307" t="s">
+      <c r="C79" s="313" t="s">
         <v>695</v>
       </c>
-      <c r="D79" s="307"/>
-      <c r="E79" s="307"/>
-      <c r="F79" s="308"/>
+      <c r="D79" s="313"/>
+      <c r="E79" s="313"/>
+      <c r="F79" s="314"/>
       <c r="H79" s="172" t="b">
         <f t="shared" si="2"/>
         <v>1</v>
@@ -13839,12 +13847,12 @@
       <c r="B84" s="173" t="s">
         <v>210</v>
       </c>
-      <c r="C84" s="307" t="s">
+      <c r="C84" s="313" t="s">
         <v>696</v>
       </c>
-      <c r="D84" s="307"/>
-      <c r="E84" s="307"/>
-      <c r="F84" s="308"/>
+      <c r="D84" s="313"/>
+      <c r="E84" s="313"/>
+      <c r="F84" s="314"/>
       <c r="H84" s="172" t="b">
         <f t="shared" si="2"/>
         <v>1</v>
@@ -13974,12 +13982,12 @@
       <c r="B92" s="173" t="s">
         <v>214</v>
       </c>
-      <c r="C92" s="307" t="s">
+      <c r="C92" s="313" t="s">
         <v>697</v>
       </c>
-      <c r="D92" s="307"/>
-      <c r="E92" s="307"/>
-      <c r="F92" s="308"/>
+      <c r="D92" s="313"/>
+      <c r="E92" s="313"/>
+      <c r="F92" s="314"/>
       <c r="H92" s="172" t="b">
         <f t="shared" si="2"/>
         <v>1</v>
@@ -14077,12 +14085,12 @@
       <c r="B97" s="173" t="s">
         <v>214</v>
       </c>
-      <c r="C97" s="307" t="s">
+      <c r="C97" s="313" t="s">
         <v>698</v>
       </c>
-      <c r="D97" s="307"/>
-      <c r="E97" s="307"/>
-      <c r="F97" s="308"/>
+      <c r="D97" s="313"/>
+      <c r="E97" s="313"/>
+      <c r="F97" s="314"/>
       <c r="H97" s="172" t="b">
         <f t="shared" si="2"/>
         <v>1</v>
@@ -14212,12 +14220,12 @@
       <c r="B105" s="173" t="s">
         <v>219</v>
       </c>
-      <c r="C105" s="307" t="s">
+      <c r="C105" s="313" t="s">
         <v>699</v>
       </c>
-      <c r="D105" s="307"/>
-      <c r="E105" s="307"/>
-      <c r="F105" s="308"/>
+      <c r="D105" s="313"/>
+      <c r="E105" s="313"/>
+      <c r="F105" s="314"/>
       <c r="H105" s="172" t="b">
         <f t="shared" si="2"/>
         <v>1</v>
@@ -14265,7 +14273,7 @@
       <c r="E107" s="181">
         <v>0.74400000000000011</v>
       </c>
-      <c r="F107" s="309">
+      <c r="F107" s="327">
         <v>1.7768315326130457</v>
       </c>
       <c r="H107" s="172" t="b">
@@ -14290,7 +14298,7 @@
       <c r="E108" s="185">
         <v>0.79499999999999993</v>
       </c>
-      <c r="F108" s="310"/>
+      <c r="F108" s="328"/>
       <c r="H108" s="172" t="b">
         <f t="shared" si="2"/>
         <v>0</v>
@@ -14313,7 +14321,7 @@
       <c r="E109" s="185">
         <v>2.2085E-2</v>
       </c>
-      <c r="F109" s="310"/>
+      <c r="F109" s="328"/>
       <c r="H109" s="172" t="b">
         <f t="shared" si="2"/>
         <v>0</v>
@@ -14336,7 +14344,7 @@
       <c r="E110" s="185">
         <v>9.5700000000000004E-3</v>
       </c>
-      <c r="F110" s="310"/>
+      <c r="F110" s="328"/>
       <c r="H110" s="172" t="b">
         <f t="shared" si="2"/>
         <v>0</v>
@@ -14359,7 +14367,7 @@
       <c r="E111" s="185">
         <v>2.9155E-2</v>
       </c>
-      <c r="F111" s="310"/>
+      <c r="F111" s="328"/>
       <c r="H111" s="172" t="b">
         <f t="shared" si="2"/>
         <v>0</v>
@@ -14382,7 +14390,7 @@
       <c r="E112" s="185">
         <v>1.55E-2</v>
       </c>
-      <c r="F112" s="310"/>
+      <c r="F112" s="328"/>
       <c r="H112" s="172" t="b">
         <f t="shared" si="2"/>
         <v>0</v>
@@ -14405,7 +14413,7 @@
       <c r="E113" s="185">
         <v>0.40193999999999996</v>
       </c>
-      <c r="F113" s="311"/>
+      <c r="F113" s="329"/>
       <c r="H113" s="172" t="b">
         <f t="shared" si="2"/>
         <v>0</v>
@@ -14428,7 +14436,7 @@
       <c r="E114" s="185">
         <v>1.6820999999999999E-2</v>
       </c>
-      <c r="F114" s="311"/>
+      <c r="F114" s="329"/>
       <c r="H114" s="172" t="b">
         <f t="shared" si="2"/>
         <v>0</v>
@@ -14451,7 +14459,7 @@
       <c r="E115" s="185">
         <v>9.9440000000000001E-2</v>
       </c>
-      <c r="F115" s="311"/>
+      <c r="F115" s="329"/>
       <c r="H115" s="172" t="b">
         <f t="shared" si="2"/>
         <v>0</v>
@@ -14474,7 +14482,7 @@
       <c r="E116" s="213">
         <v>6.8339999999999998E-2</v>
       </c>
-      <c r="F116" s="311"/>
+      <c r="F116" s="329"/>
       <c r="H116" s="172" t="b">
         <f t="shared" si="2"/>
         <v>0</v>
@@ -14497,7 +14505,7 @@
       <c r="E117" s="189">
         <v>1.83E-2</v>
       </c>
-      <c r="F117" s="312"/>
+      <c r="F117" s="330"/>
       <c r="H117" s="172" t="b">
         <f t="shared" si="2"/>
         <v>0</v>
@@ -14545,12 +14553,12 @@
       <c r="B120" s="173" t="s">
         <v>219</v>
       </c>
-      <c r="C120" s="307" t="s">
+      <c r="C120" s="313" t="s">
         <v>700</v>
       </c>
-      <c r="D120" s="307"/>
-      <c r="E120" s="307"/>
-      <c r="F120" s="308"/>
+      <c r="D120" s="313"/>
+      <c r="E120" s="313"/>
+      <c r="F120" s="314"/>
       <c r="H120" s="172" t="b">
         <f t="shared" si="2"/>
         <v>1</v>
@@ -14643,12 +14651,12 @@
       <c r="B125" s="173" t="s">
         <v>219</v>
       </c>
-      <c r="C125" s="307" t="s">
+      <c r="C125" s="313" t="s">
         <v>701</v>
       </c>
-      <c r="D125" s="307"/>
-      <c r="E125" s="307"/>
-      <c r="F125" s="308"/>
+      <c r="D125" s="313"/>
+      <c r="E125" s="313"/>
+      <c r="F125" s="314"/>
       <c r="H125" s="172" t="b">
         <f t="shared" si="2"/>
         <v>1</v>
@@ -14696,7 +14704,7 @@
       <c r="E127" s="181">
         <v>9.4515624999999999E-3</v>
       </c>
-      <c r="F127" s="309">
+      <c r="F127" s="327">
         <v>0.18638337220926357</v>
       </c>
       <c r="H127" s="172" t="b">
@@ -14721,7 +14729,7 @@
       <c r="E128" s="185">
         <v>2.9968750000000004E-3</v>
       </c>
-      <c r="F128" s="310"/>
+      <c r="F128" s="328"/>
       <c r="H128" s="172" t="b">
         <f t="shared" si="2"/>
         <v>0</v>
@@ -14744,7 +14752,7 @@
       <c r="E129" s="185">
         <v>2.9968750000000004E-3</v>
       </c>
-      <c r="F129" s="310"/>
+      <c r="F129" s="328"/>
       <c r="H129" s="172" t="b">
         <f t="shared" si="2"/>
         <v>0</v>
@@ -14767,7 +14775,7 @@
       <c r="E130" s="185">
         <v>4.0315625000000001E-2</v>
       </c>
-      <c r="F130" s="310"/>
+      <c r="F130" s="328"/>
       <c r="H130" s="172" t="b">
         <f t="shared" si="2"/>
         <v>0</v>
@@ -14790,7 +14798,7 @@
       <c r="E131" s="185">
         <v>3.5243124999999993E-2</v>
       </c>
-      <c r="F131" s="310"/>
+      <c r="F131" s="328"/>
       <c r="H131" s="172" t="b">
         <f t="shared" si="2"/>
         <v>0</v>
@@ -14813,7 +14821,7 @@
       <c r="E132" s="185">
         <v>0.15568750000000001</v>
       </c>
-      <c r="F132" s="310"/>
+      <c r="F132" s="328"/>
       <c r="H132" s="172" t="b">
         <f t="shared" ref="H132:H195" si="4">B133="CODE"</f>
         <v>0</v>
@@ -14836,7 +14844,7 @@
       <c r="E133" s="185">
         <v>4.259375E-2</v>
       </c>
-      <c r="F133" s="311"/>
+      <c r="F133" s="329"/>
       <c r="H133" s="172" t="b">
         <f t="shared" si="4"/>
         <v>0</v>
@@ -14859,7 +14867,7 @@
       <c r="E134" s="189">
         <v>6.0299999999999992E-2</v>
       </c>
-      <c r="F134" s="312"/>
+      <c r="F134" s="330"/>
       <c r="H134" s="172" t="b">
         <f t="shared" si="4"/>
         <v>0</v>
@@ -14902,12 +14910,12 @@
       <c r="B137" s="220" t="s">
         <v>196</v>
       </c>
-      <c r="C137" s="307" t="s">
+      <c r="C137" s="313" t="s">
         <v>197</v>
       </c>
-      <c r="D137" s="307"/>
-      <c r="E137" s="307"/>
-      <c r="F137" s="308"/>
+      <c r="D137" s="313"/>
+      <c r="E137" s="313"/>
+      <c r="F137" s="314"/>
       <c r="H137" s="172" t="b">
         <f t="shared" si="4"/>
         <v>1</v>
@@ -15040,12 +15048,12 @@
       <c r="B145" s="220" t="s">
         <v>61</v>
       </c>
-      <c r="C145" s="307" t="s">
+      <c r="C145" s="313" t="s">
         <v>703</v>
       </c>
-      <c r="D145" s="307"/>
-      <c r="E145" s="307"/>
-      <c r="F145" s="308"/>
+      <c r="D145" s="313"/>
+      <c r="E145" s="313"/>
+      <c r="F145" s="314"/>
       <c r="H145" s="172" t="b">
         <f t="shared" si="4"/>
         <v>1</v>
@@ -15093,7 +15101,7 @@
       <c r="E147" s="180">
         <v>24.407999999999998</v>
       </c>
-      <c r="F147" s="317">
+      <c r="F147" s="311">
         <v>0.97887075999999995</v>
       </c>
       <c r="H147" s="172" t="b">
@@ -15118,7 +15126,7 @@
       <c r="E148" s="188">
         <v>6.3769000000000006E-2</v>
       </c>
-      <c r="F148" s="318"/>
+      <c r="F148" s="316"/>
       <c r="H148" s="172" t="b">
         <f t="shared" si="4"/>
         <v>0</v>
@@ -15196,12 +15204,12 @@
       <c r="B154" s="220" t="s">
         <v>106</v>
       </c>
-      <c r="C154" s="307" t="s">
+      <c r="C154" s="313" t="s">
         <v>705</v>
       </c>
-      <c r="D154" s="307"/>
-      <c r="E154" s="307"/>
-      <c r="F154" s="308"/>
+      <c r="D154" s="313"/>
+      <c r="E154" s="313"/>
+      <c r="F154" s="314"/>
       <c r="H154" s="172" t="b">
         <f t="shared" si="4"/>
         <v>1</v>
@@ -15329,12 +15337,12 @@
       <c r="B162" s="220" t="s">
         <v>225</v>
       </c>
-      <c r="C162" s="307" t="s">
+      <c r="C162" s="313" t="s">
         <v>706</v>
       </c>
-      <c r="D162" s="307"/>
-      <c r="E162" s="307"/>
-      <c r="F162" s="308"/>
+      <c r="D162" s="313"/>
+      <c r="E162" s="313"/>
+      <c r="F162" s="314"/>
       <c r="H162" s="172" t="b">
         <f t="shared" si="4"/>
         <v>1</v>
@@ -15427,12 +15435,12 @@
       <c r="B167" s="173" t="s">
         <v>149</v>
       </c>
-      <c r="C167" s="307" t="s">
+      <c r="C167" s="313" t="s">
         <v>707</v>
       </c>
-      <c r="D167" s="307"/>
-      <c r="E167" s="307"/>
-      <c r="F167" s="308"/>
+      <c r="D167" s="313"/>
+      <c r="E167" s="313"/>
+      <c r="F167" s="314"/>
       <c r="H167" s="172" t="b">
         <f t="shared" si="4"/>
         <v>1</v>
@@ -15505,7 +15513,7 @@
       <c r="E170" s="184">
         <v>5.2500000000000009</v>
       </c>
-      <c r="F170" s="314"/>
+      <c r="F170" s="320"/>
       <c r="H170" s="172" t="b">
         <f t="shared" si="4"/>
         <v>0</v>
@@ -15528,7 +15536,7 @@
       <c r="E171" s="184">
         <v>5.2500000000000009</v>
       </c>
-      <c r="F171" s="314"/>
+      <c r="F171" s="320"/>
       <c r="H171" s="172" t="b">
         <f t="shared" si="4"/>
         <v>0</v>
@@ -15551,7 +15559,7 @@
       <c r="E172" s="184">
         <v>5.2500000000000009</v>
       </c>
-      <c r="F172" s="314"/>
+      <c r="F172" s="320"/>
       <c r="H172" s="172" t="b">
         <f t="shared" si="4"/>
         <v>0</v>
@@ -15574,7 +15582,7 @@
       <c r="E173" s="184">
         <v>7.0000000000000009</v>
       </c>
-      <c r="F173" s="314"/>
+      <c r="F173" s="320"/>
       <c r="H173" s="172" t="b">
         <f t="shared" si="4"/>
         <v>0</v>
@@ -15597,7 +15605,7 @@
       <c r="E174" s="188">
         <v>11.905019999999999</v>
       </c>
-      <c r="F174" s="320"/>
+      <c r="F174" s="321"/>
       <c r="H174" s="172" t="b">
         <f t="shared" si="4"/>
         <v>0</v>
@@ -15660,12 +15668,12 @@
       <c r="B178" s="173" t="s">
         <v>155</v>
       </c>
-      <c r="C178" s="321" t="s">
+      <c r="C178" s="318" t="s">
         <v>708</v>
       </c>
-      <c r="D178" s="307"/>
-      <c r="E178" s="307"/>
-      <c r="F178" s="308"/>
+      <c r="D178" s="313"/>
+      <c r="E178" s="313"/>
+      <c r="F178" s="314"/>
       <c r="H178" s="172" t="b">
         <f t="shared" si="4"/>
         <v>1</v>
@@ -15738,7 +15746,7 @@
       <c r="E181" s="184">
         <v>5.2500000000000009</v>
       </c>
-      <c r="F181" s="314"/>
+      <c r="F181" s="320"/>
       <c r="H181" s="172" t="b">
         <f t="shared" si="4"/>
         <v>0</v>
@@ -15761,7 +15769,7 @@
       <c r="E182" s="184">
         <v>5.2500000000000009</v>
       </c>
-      <c r="F182" s="314"/>
+      <c r="F182" s="320"/>
       <c r="H182" s="172" t="b">
         <f t="shared" si="4"/>
         <v>0</v>
@@ -15784,7 +15792,7 @@
       <c r="E183" s="184">
         <v>5.2500000000000009</v>
       </c>
-      <c r="F183" s="314"/>
+      <c r="F183" s="320"/>
       <c r="H183" s="172" t="b">
         <f t="shared" si="4"/>
         <v>0</v>
@@ -15807,7 +15815,7 @@
       <c r="E184" s="184">
         <v>7.0000000000000009</v>
       </c>
-      <c r="F184" s="314"/>
+      <c r="F184" s="320"/>
       <c r="H184" s="172" t="b">
         <f t="shared" si="4"/>
         <v>0</v>
@@ -15830,7 +15838,7 @@
       <c r="E185" s="188">
         <v>11.905019999999999</v>
       </c>
-      <c r="F185" s="320"/>
+      <c r="F185" s="321"/>
       <c r="H185" s="172" t="b">
         <f t="shared" si="4"/>
         <v>0</v>
@@ -15885,12 +15893,12 @@
       <c r="B189" s="173" t="s">
         <v>152</v>
       </c>
-      <c r="C189" s="321" t="s">
+      <c r="C189" s="318" t="s">
         <v>709</v>
       </c>
-      <c r="D189" s="307"/>
-      <c r="E189" s="307"/>
-      <c r="F189" s="308"/>
+      <c r="D189" s="313"/>
+      <c r="E189" s="313"/>
+      <c r="F189" s="314"/>
       <c r="H189" s="172" t="b">
         <f t="shared" si="4"/>
         <v>1</v>
@@ -15938,7 +15946,7 @@
       <c r="E191" s="238">
         <v>11.394996084573219</v>
       </c>
-      <c r="F191" s="322">
+      <c r="F191" s="323">
         <v>7.6727667186124809E-2</v>
       </c>
       <c r="H191" s="172" t="b">
@@ -15963,7 +15971,7 @@
       <c r="E192" s="239">
         <v>32.1</v>
       </c>
-      <c r="F192" s="323"/>
+      <c r="F192" s="325"/>
       <c r="H192" s="172" t="b">
         <f t="shared" si="4"/>
         <v>0</v>
@@ -15986,7 +15994,7 @@
       <c r="E193" s="240">
         <v>10.500000000000002</v>
       </c>
-      <c r="F193" s="323"/>
+      <c r="F193" s="325"/>
       <c r="H193" s="172" t="b">
         <f t="shared" si="4"/>
         <v>0</v>
@@ -16009,7 +16017,7 @@
       <c r="E194" s="240">
         <v>12.250000000000002</v>
       </c>
-      <c r="F194" s="323"/>
+      <c r="F194" s="325"/>
       <c r="H194" s="172" t="b">
         <f t="shared" si="4"/>
         <v>0</v>
@@ -16032,7 +16040,7 @@
       <c r="E195" s="242">
         <v>10.745846999999999</v>
       </c>
-      <c r="F195" s="324"/>
+      <c r="F195" s="326"/>
       <c r="H195" s="172" t="b">
         <f t="shared" si="4"/>
         <v>0</v>
@@ -16091,12 +16099,12 @@
       <c r="B199" s="173" t="s">
         <v>154</v>
       </c>
-      <c r="C199" s="321" t="s">
+      <c r="C199" s="318" t="s">
         <v>710</v>
       </c>
-      <c r="D199" s="307"/>
-      <c r="E199" s="307"/>
-      <c r="F199" s="308"/>
+      <c r="D199" s="313"/>
+      <c r="E199" s="313"/>
+      <c r="F199" s="314"/>
       <c r="H199" s="172" t="b">
         <f t="shared" si="6"/>
         <v>1</v>
@@ -16144,7 +16152,7 @@
       <c r="E201" s="238">
         <v>31.779</v>
       </c>
-      <c r="F201" s="322">
+      <c r="F201" s="323">
         <v>6.4509084849061996E-2</v>
       </c>
       <c r="H201" s="172" t="b">
@@ -16169,7 +16177,7 @@
       <c r="E202" s="239">
         <v>4.375</v>
       </c>
-      <c r="F202" s="323"/>
+      <c r="F202" s="325"/>
       <c r="H202" s="172" t="b">
         <f t="shared" si="6"/>
         <v>0</v>
@@ -16192,7 +16200,7 @@
       <c r="E203" s="240">
         <v>4.375</v>
       </c>
-      <c r="F203" s="323"/>
+      <c r="F203" s="325"/>
       <c r="H203" s="172" t="b">
         <f t="shared" si="6"/>
         <v>0</v>
@@ -16215,7 +16223,7 @@
       <c r="E204" s="240">
         <v>5.2500000000000009</v>
       </c>
-      <c r="F204" s="323"/>
+      <c r="F204" s="325"/>
       <c r="H204" s="172" t="b">
         <f t="shared" si="6"/>
         <v>0</v>
@@ -16238,7 +16246,7 @@
       <c r="E205" s="240">
         <v>5.2500000000000009</v>
       </c>
-      <c r="F205" s="323"/>
+      <c r="F205" s="325"/>
       <c r="H205" s="172" t="b">
         <f t="shared" si="6"/>
         <v>0</v>
@@ -16261,7 +16269,7 @@
       <c r="E206" s="240">
         <v>7.0000000000000009</v>
       </c>
-      <c r="F206" s="323"/>
+      <c r="F206" s="325"/>
       <c r="H206" s="172" t="b">
         <f t="shared" si="6"/>
         <v>0</v>
@@ -16284,7 +16292,7 @@
       <c r="E207" s="242">
         <v>9.7119900000000001</v>
       </c>
-      <c r="F207" s="324"/>
+      <c r="F207" s="326"/>
       <c r="H207" s="172" t="b">
         <f t="shared" si="6"/>
         <v>0</v>
@@ -16339,12 +16347,12 @@
       <c r="B211" s="173" t="s">
         <v>163</v>
       </c>
-      <c r="C211" s="321" t="s">
+      <c r="C211" s="318" t="s">
         <v>711</v>
       </c>
-      <c r="D211" s="307"/>
-      <c r="E211" s="307"/>
-      <c r="F211" s="308"/>
+      <c r="D211" s="313"/>
+      <c r="E211" s="313"/>
+      <c r="F211" s="314"/>
       <c r="H211" s="172" t="b">
         <f t="shared" si="6"/>
         <v>1</v>
@@ -16417,7 +16425,7 @@
       <c r="E214" s="184">
         <v>11.5</v>
       </c>
-      <c r="F214" s="314"/>
+      <c r="F214" s="320"/>
       <c r="H214" s="172" t="b">
         <f t="shared" si="6"/>
         <v>0</v>
@@ -16440,7 +16448,7 @@
       <c r="E215" s="188">
         <v>13.958216999999999</v>
       </c>
-      <c r="F215" s="320"/>
+      <c r="F215" s="321"/>
       <c r="H215" s="172" t="b">
         <f t="shared" si="6"/>
         <v>0</v>
@@ -16495,12 +16503,12 @@
       <c r="B219" s="173" t="s">
         <v>158</v>
       </c>
-      <c r="C219" s="321" t="s">
+      <c r="C219" s="318" t="s">
         <v>712</v>
       </c>
-      <c r="D219" s="307"/>
-      <c r="E219" s="307"/>
-      <c r="F219" s="308"/>
+      <c r="D219" s="313"/>
+      <c r="E219" s="313"/>
+      <c r="F219" s="314"/>
       <c r="H219" s="172" t="b">
         <f t="shared" si="6"/>
         <v>1</v>
@@ -16548,7 +16556,7 @@
       <c r="E221" s="238">
         <v>17.092494126859826</v>
       </c>
-      <c r="F221" s="322">
+      <c r="F221" s="323">
         <v>9.3666751306851717E-2</v>
       </c>
       <c r="H221" s="172" t="b">
@@ -16573,7 +16581,7 @@
       <c r="E222" s="245">
         <v>21.4</v>
       </c>
-      <c r="F222" s="325"/>
+      <c r="F222" s="324"/>
       <c r="H222" s="172" t="b">
         <f t="shared" si="6"/>
         <v>0</v>
@@ -16596,7 +16604,7 @@
       <c r="E223" s="239">
         <v>3.5000000000000004</v>
       </c>
-      <c r="F223" s="323"/>
+      <c r="F223" s="325"/>
       <c r="H223" s="172" t="b">
         <f t="shared" si="6"/>
         <v>0</v>
@@ -16619,7 +16627,7 @@
       <c r="E224" s="240">
         <v>8.75</v>
       </c>
-      <c r="F224" s="323"/>
+      <c r="F224" s="325"/>
       <c r="H224" s="172" t="b">
         <f t="shared" si="6"/>
         <v>0</v>
@@ -16642,7 +16650,7 @@
       <c r="E225" s="240">
         <v>7.8750000000000009</v>
       </c>
-      <c r="F225" s="323"/>
+      <c r="F225" s="325"/>
       <c r="H225" s="172" t="b">
         <f t="shared" si="6"/>
         <v>0</v>
@@ -16665,7 +16673,7 @@
       <c r="E226" s="240">
         <v>7.0000000000000009</v>
       </c>
-      <c r="F226" s="323"/>
+      <c r="F226" s="325"/>
       <c r="H226" s="172" t="b">
         <f t="shared" si="6"/>
         <v>0</v>
@@ -16688,7 +16696,7 @@
       <c r="E227" s="246">
         <v>26.400000000000002</v>
       </c>
-      <c r="F227" s="323"/>
+      <c r="F227" s="325"/>
       <c r="H227" s="172" t="b">
         <f t="shared" si="6"/>
         <v>0</v>
@@ -16711,7 +16719,7 @@
       <c r="E228" s="242">
         <v>8.4588300000000007</v>
       </c>
-      <c r="F228" s="324"/>
+      <c r="F228" s="326"/>
       <c r="H228" s="172" t="b">
         <f t="shared" si="6"/>
         <v>0</v>
@@ -16766,12 +16774,12 @@
       <c r="B232" s="173" t="s">
         <v>159</v>
       </c>
-      <c r="C232" s="321" t="s">
+      <c r="C232" s="318" t="s">
         <v>713</v>
       </c>
-      <c r="D232" s="307"/>
-      <c r="E232" s="307"/>
-      <c r="F232" s="308"/>
+      <c r="D232" s="313"/>
+      <c r="E232" s="313"/>
+      <c r="F232" s="314"/>
       <c r="H232" s="172" t="b">
         <f t="shared" si="6"/>
         <v>1</v>
@@ -16819,7 +16827,7 @@
       <c r="E234" s="238">
         <v>17.092494126859826</v>
       </c>
-      <c r="F234" s="322">
+      <c r="F234" s="323">
         <v>0.14847073346712203</v>
       </c>
       <c r="H234" s="172" t="b">
@@ -16844,7 +16852,7 @@
       <c r="E235" s="245">
         <v>21.4</v>
       </c>
-      <c r="F235" s="325"/>
+      <c r="F235" s="324"/>
       <c r="H235" s="172" t="b">
         <f t="shared" si="6"/>
         <v>0</v>
@@ -16867,7 +16875,7 @@
       <c r="E236" s="239">
         <v>3.5000000000000004</v>
       </c>
-      <c r="F236" s="323"/>
+      <c r="F236" s="325"/>
       <c r="H236" s="172" t="b">
         <f t="shared" si="6"/>
         <v>0</v>
@@ -16890,7 +16898,7 @@
       <c r="E237" s="240">
         <v>8.75</v>
       </c>
-      <c r="F237" s="323"/>
+      <c r="F237" s="325"/>
       <c r="H237" s="172" t="b">
         <f t="shared" si="6"/>
         <v>0</v>
@@ -16913,7 +16921,7 @@
       <c r="E238" s="240">
         <v>7.8750000000000009</v>
       </c>
-      <c r="F238" s="323"/>
+      <c r="F238" s="325"/>
       <c r="H238" s="172" t="b">
         <f t="shared" si="6"/>
         <v>0</v>
@@ -16936,7 +16944,7 @@
       <c r="E239" s="240">
         <v>7.0000000000000009</v>
       </c>
-      <c r="F239" s="323"/>
+      <c r="F239" s="325"/>
       <c r="H239" s="172" t="b">
         <f t="shared" si="6"/>
         <v>0</v>
@@ -16959,7 +16967,7 @@
       <c r="E240" s="246">
         <v>26.400000000000002</v>
       </c>
-      <c r="F240" s="323"/>
+      <c r="F240" s="325"/>
       <c r="H240" s="172" t="b">
         <f t="shared" si="6"/>
         <v>0</v>
@@ -16982,7 +16990,7 @@
       <c r="E241" s="246">
         <v>62.5</v>
       </c>
-      <c r="F241" s="323"/>
+      <c r="F241" s="325"/>
       <c r="H241" s="172" t="b">
         <f t="shared" si="6"/>
         <v>0</v>
@@ -17005,7 +17013,7 @@
       <c r="E242" s="242">
         <v>8.4588300000000007</v>
       </c>
-      <c r="F242" s="324"/>
+      <c r="F242" s="326"/>
       <c r="H242" s="172" t="b">
         <f t="shared" si="6"/>
         <v>0</v>
@@ -17048,12 +17056,12 @@
       <c r="B245" s="173" t="s">
         <v>156</v>
       </c>
-      <c r="C245" s="321" t="s">
+      <c r="C245" s="318" t="s">
         <v>714</v>
       </c>
-      <c r="D245" s="307"/>
-      <c r="E245" s="307"/>
-      <c r="F245" s="308"/>
+      <c r="D245" s="313"/>
+      <c r="E245" s="313"/>
+      <c r="F245" s="314"/>
       <c r="H245" s="172" t="b">
         <f t="shared" si="6"/>
         <v>1</v>
@@ -17149,7 +17157,7 @@
       <c r="E249" s="184">
         <v>10.500000000000002</v>
       </c>
-      <c r="F249" s="314"/>
+      <c r="F249" s="320"/>
       <c r="H249" s="172" t="b">
         <f t="shared" si="6"/>
         <v>0</v>
@@ -17172,7 +17180,7 @@
       <c r="E250" s="184">
         <v>12.250000000000002</v>
       </c>
-      <c r="F250" s="314"/>
+      <c r="F250" s="320"/>
       <c r="H250" s="172" t="b">
         <f t="shared" si="6"/>
         <v>0</v>
@@ -17195,7 +17203,7 @@
       <c r="E251" s="184">
         <v>0</v>
       </c>
-      <c r="F251" s="314"/>
+      <c r="F251" s="320"/>
       <c r="H251" s="172" t="b">
         <f t="shared" si="6"/>
         <v>0</v>
@@ -17218,7 +17226,7 @@
       <c r="E252" s="184">
         <v>0</v>
       </c>
-      <c r="F252" s="314"/>
+      <c r="F252" s="320"/>
       <c r="H252" s="172" t="b">
         <f t="shared" si="6"/>
         <v>0</v>
@@ -17241,7 +17249,7 @@
       <c r="E253" s="211">
         <v>4.8499999999999996</v>
       </c>
-      <c r="F253" s="316"/>
+      <c r="F253" s="322"/>
       <c r="H253" s="172" t="b">
         <f t="shared" si="6"/>
         <v>0</v>
@@ -17264,7 +17272,7 @@
       <c r="E254" s="188">
         <v>16.573499999999999</v>
       </c>
-      <c r="F254" s="320"/>
+      <c r="F254" s="321"/>
       <c r="H254" s="172" t="b">
         <f t="shared" si="6"/>
         <v>0</v>
@@ -17319,12 +17327,12 @@
       <c r="B258" s="173" t="s">
         <v>157</v>
       </c>
-      <c r="C258" s="321" t="s">
+      <c r="C258" s="318" t="s">
         <v>715</v>
       </c>
-      <c r="D258" s="307"/>
-      <c r="E258" s="307"/>
-      <c r="F258" s="308"/>
+      <c r="D258" s="313"/>
+      <c r="E258" s="313"/>
+      <c r="F258" s="314"/>
       <c r="H258" s="172" t="b">
         <f t="shared" si="6"/>
         <v>1</v>
@@ -17420,7 +17428,7 @@
       <c r="E262" s="184">
         <v>7.8750000000000009</v>
       </c>
-      <c r="F262" s="314"/>
+      <c r="F262" s="320"/>
       <c r="H262" s="172" t="b">
         <f t="shared" si="8"/>
         <v>0</v>
@@ -17443,7 +17451,7 @@
       <c r="E263" s="184">
         <v>7.8750000000000009</v>
       </c>
-      <c r="F263" s="314"/>
+      <c r="F263" s="320"/>
       <c r="H263" s="172" t="b">
         <f t="shared" si="8"/>
         <v>0</v>
@@ -17466,7 +17474,7 @@
       <c r="E264" s="184">
         <v>7.0000000000000009</v>
       </c>
-      <c r="F264" s="314"/>
+      <c r="F264" s="320"/>
       <c r="H264" s="172" t="b">
         <f t="shared" si="8"/>
         <v>0</v>
@@ -17489,7 +17497,7 @@
       <c r="E265" s="211">
         <v>11.16</v>
       </c>
-      <c r="F265" s="316"/>
+      <c r="F265" s="322"/>
       <c r="H265" s="172" t="b">
         <f t="shared" si="8"/>
         <v>0</v>
@@ -17512,7 +17520,7 @@
       <c r="E266" s="188">
         <v>15.144749999999998</v>
       </c>
-      <c r="F266" s="320"/>
+      <c r="F266" s="321"/>
       <c r="H266" s="172" t="b">
         <f t="shared" si="8"/>
         <v>0</v>
@@ -17566,12 +17574,12 @@
       <c r="B270" s="220" t="s">
         <v>162</v>
       </c>
-      <c r="C270" s="321" t="s">
+      <c r="C270" s="318" t="s">
         <v>716</v>
       </c>
-      <c r="D270" s="307"/>
-      <c r="E270" s="307"/>
-      <c r="F270" s="308"/>
+      <c r="D270" s="313"/>
+      <c r="E270" s="313"/>
+      <c r="F270" s="314"/>
       <c r="H270" s="172" t="b">
         <f t="shared" si="8"/>
         <v>1</v>
@@ -17713,7 +17721,7 @@
       <c r="E276" s="184">
         <v>4.4275000000000002</v>
       </c>
-      <c r="F276" s="314"/>
+      <c r="F276" s="320"/>
       <c r="H276" s="172" t="b">
         <f t="shared" si="8"/>
         <v>0</v>
@@ -17736,7 +17744,7 @@
       <c r="E277" s="184">
         <v>1.6800000000000002</v>
       </c>
-      <c r="F277" s="314"/>
+      <c r="F277" s="320"/>
       <c r="H277" s="172" t="b">
         <f t="shared" si="8"/>
         <v>0</v>
@@ -17759,7 +17767,7 @@
       <c r="E278" s="184">
         <v>4.375</v>
       </c>
-      <c r="F278" s="314"/>
+      <c r="F278" s="320"/>
       <c r="H278" s="172" t="b">
         <f t="shared" si="8"/>
         <v>0</v>
@@ -17782,7 +17790,7 @@
       <c r="E279" s="188">
         <v>89.500060000000005</v>
       </c>
-      <c r="F279" s="320"/>
+      <c r="F279" s="321"/>
       <c r="H279" s="172" t="b">
         <f t="shared" si="8"/>
         <v>0</v>
@@ -17834,12 +17842,12 @@
       <c r="B283" s="220" t="s">
         <v>153</v>
       </c>
-      <c r="C283" s="321" t="s">
+      <c r="C283" s="318" t="s">
         <v>717</v>
       </c>
-      <c r="D283" s="307"/>
-      <c r="E283" s="307"/>
-      <c r="F283" s="308"/>
+      <c r="D283" s="313"/>
+      <c r="E283" s="313"/>
+      <c r="F283" s="314"/>
       <c r="H283" s="172" t="b">
         <f t="shared" si="8"/>
         <v>1</v>
@@ -17958,7 +17966,7 @@
       <c r="E288" s="188">
         <v>69.370840000000001</v>
       </c>
-      <c r="F288" s="320"/>
+      <c r="F288" s="321"/>
       <c r="H288" s="172" t="b">
         <f t="shared" si="8"/>
         <v>0</v>
@@ -18012,12 +18020,12 @@
       <c r="B292" s="220" t="s">
         <v>151</v>
       </c>
-      <c r="C292" s="321" t="s">
+      <c r="C292" s="318" t="s">
         <v>718</v>
       </c>
-      <c r="D292" s="307"/>
-      <c r="E292" s="307"/>
-      <c r="F292" s="308"/>
+      <c r="D292" s="313"/>
+      <c r="E292" s="313"/>
+      <c r="F292" s="314"/>
       <c r="H292" s="172" t="b">
         <f t="shared" si="8"/>
         <v>1</v>
@@ -18136,7 +18144,7 @@
       <c r="E297" s="184">
         <v>5.2500000000000009</v>
       </c>
-      <c r="F297" s="314"/>
+      <c r="F297" s="320"/>
       <c r="H297" s="172" t="b">
         <f t="shared" si="8"/>
         <v>0</v>
@@ -18159,7 +18167,7 @@
       <c r="E298" s="184">
         <v>7.0000000000000009</v>
       </c>
-      <c r="F298" s="314"/>
+      <c r="F298" s="320"/>
       <c r="H298" s="172" t="b">
         <f t="shared" si="8"/>
         <v>0</v>
@@ -18182,7 +18190,7 @@
       <c r="E299" s="188">
         <v>69.681919999999991</v>
       </c>
-      <c r="F299" s="320"/>
+      <c r="F299" s="321"/>
       <c r="H299" s="172" t="b">
         <f t="shared" si="8"/>
         <v>0</v>
@@ -18234,12 +18242,12 @@
       <c r="B303" s="220" t="s">
         <v>160</v>
       </c>
-      <c r="C303" s="321" t="s">
+      <c r="C303" s="318" t="s">
         <v>719</v>
       </c>
-      <c r="D303" s="307"/>
-      <c r="E303" s="307"/>
-      <c r="F303" s="308"/>
+      <c r="D303" s="313"/>
+      <c r="E303" s="313"/>
+      <c r="F303" s="314"/>
       <c r="H303" s="172" t="b">
         <f t="shared" si="8"/>
         <v>1</v>
@@ -18358,7 +18366,7 @@
       <c r="E308" s="184">
         <v>5.2500000000000009</v>
       </c>
-      <c r="F308" s="314"/>
+      <c r="F308" s="320"/>
       <c r="H308" s="172" t="b">
         <f t="shared" si="8"/>
         <v>0</v>
@@ -18381,7 +18389,7 @@
       <c r="E309" s="184">
         <v>7.0000000000000009</v>
       </c>
-      <c r="F309" s="314"/>
+      <c r="F309" s="320"/>
       <c r="H309" s="172" t="b">
         <f t="shared" si="8"/>
         <v>0</v>
@@ -18404,7 +18412,7 @@
       <c r="E310" s="211">
         <v>26.400000000000002</v>
       </c>
-      <c r="F310" s="316"/>
+      <c r="F310" s="322"/>
       <c r="H310" s="172" t="b">
         <f t="shared" si="8"/>
         <v>0</v>
@@ -18427,7 +18435,7 @@
       <c r="E311" s="188">
         <v>69.681919999999991</v>
       </c>
-      <c r="F311" s="320"/>
+      <c r="F311" s="321"/>
       <c r="H311" s="172" t="b">
         <f t="shared" si="8"/>
         <v>0</v>
@@ -18479,12 +18487,12 @@
       <c r="B315" s="220" t="s">
         <v>161</v>
       </c>
-      <c r="C315" s="321" t="s">
+      <c r="C315" s="318" t="s">
         <v>720</v>
       </c>
-      <c r="D315" s="307"/>
-      <c r="E315" s="307"/>
-      <c r="F315" s="308"/>
+      <c r="D315" s="313"/>
+      <c r="E315" s="313"/>
+      <c r="F315" s="314"/>
       <c r="H315" s="172" t="b">
         <f t="shared" si="8"/>
         <v>1</v>
@@ -18603,7 +18611,7 @@
       <c r="E320" s="184">
         <v>5.2500000000000009</v>
       </c>
-      <c r="F320" s="314"/>
+      <c r="F320" s="320"/>
       <c r="H320" s="172" t="b">
         <f t="shared" si="8"/>
         <v>0</v>
@@ -18626,7 +18634,7 @@
       <c r="E321" s="184">
         <v>7.0000000000000009</v>
       </c>
-      <c r="F321" s="314"/>
+      <c r="F321" s="320"/>
       <c r="H321" s="172" t="b">
         <f t="shared" si="8"/>
         <v>0</v>
@@ -18649,7 +18657,7 @@
       <c r="E322" s="211">
         <v>26.400000000000002</v>
       </c>
-      <c r="F322" s="316"/>
+      <c r="F322" s="322"/>
       <c r="H322" s="172" t="b">
         <f t="shared" si="8"/>
         <v>0</v>
@@ -18672,7 +18680,7 @@
       <c r="E323" s="211">
         <v>73.25</v>
       </c>
-      <c r="F323" s="316"/>
+      <c r="F323" s="322"/>
       <c r="H323" s="172" t="b">
         <f t="shared" si="8"/>
         <v>0</v>
@@ -18695,7 +18703,7 @@
       <c r="E324" s="188">
         <v>69.681919999999991</v>
       </c>
-      <c r="F324" s="320"/>
+      <c r="F324" s="321"/>
       <c r="H324" s="172" t="b">
         <f t="shared" ref="H324:H387" si="10">B325="CODE"</f>
         <v>0</v>
@@ -18737,12 +18745,12 @@
       <c r="B327" s="220" t="s">
         <v>130</v>
       </c>
-      <c r="C327" s="307" t="s">
+      <c r="C327" s="313" t="s">
         <v>721</v>
       </c>
-      <c r="D327" s="307"/>
-      <c r="E327" s="307"/>
-      <c r="F327" s="308"/>
+      <c r="D327" s="313"/>
+      <c r="E327" s="313"/>
+      <c r="F327" s="314"/>
       <c r="H327" s="172" t="b">
         <f t="shared" si="10"/>
         <v>1</v>
@@ -18790,7 +18798,7 @@
       <c r="E329" s="253">
         <v>2.0966792795614722</v>
       </c>
-      <c r="F329" s="317">
+      <c r="F329" s="311">
         <v>0.60927039716765752</v>
       </c>
       <c r="H329" s="172" t="b">
@@ -18815,7 +18823,7 @@
       <c r="E330" s="255">
         <v>0.40250000000000002</v>
       </c>
-      <c r="F330" s="327"/>
+      <c r="F330" s="315"/>
       <c r="H330" s="172" t="b">
         <f t="shared" si="10"/>
         <v>0</v>
@@ -18838,7 +18846,7 @@
       <c r="E331" s="255">
         <v>8.0500000000000002E-2</v>
       </c>
-      <c r="F331" s="327"/>
+      <c r="F331" s="315"/>
       <c r="H331" s="172" t="b">
         <f t="shared" si="10"/>
         <v>0</v>
@@ -18861,7 +18869,7 @@
       <c r="E332" s="255">
         <v>9.4500000000000001E-2</v>
       </c>
-      <c r="F332" s="327"/>
+      <c r="F332" s="315"/>
       <c r="H332" s="172" t="b">
         <f t="shared" si="10"/>
         <v>0</v>
@@ -18884,7 +18892,7 @@
       <c r="E333" s="255">
         <v>0.31000000000000005</v>
       </c>
-      <c r="F333" s="327"/>
+      <c r="F333" s="315"/>
       <c r="H333" s="172" t="b">
         <f t="shared" si="10"/>
         <v>0</v>
@@ -18907,7 +18915,7 @@
       <c r="E334" s="255">
         <v>0.18080000000000002</v>
       </c>
-      <c r="F334" s="327"/>
+      <c r="F334" s="315"/>
       <c r="H334" s="172" t="b">
         <f t="shared" si="10"/>
         <v>0</v>
@@ -18930,7 +18938,7 @@
       <c r="E335" s="257">
         <v>4.3E-3</v>
       </c>
-      <c r="F335" s="327"/>
+      <c r="F335" s="315"/>
       <c r="H335" s="172" t="b">
         <f t="shared" si="10"/>
         <v>0</v>
@@ -18953,7 +18961,7 @@
       <c r="E336" s="259">
         <v>14.134</v>
       </c>
-      <c r="F336" s="318"/>
+      <c r="F336" s="316"/>
       <c r="H336" s="172" t="b">
         <f t="shared" si="10"/>
         <v>0</v>
@@ -19006,12 +19014,12 @@
       <c r="B340" s="220" t="s">
         <v>132</v>
       </c>
-      <c r="C340" s="321" t="s">
+      <c r="C340" s="318" t="s">
         <v>722</v>
       </c>
-      <c r="D340" s="307"/>
-      <c r="E340" s="307"/>
-      <c r="F340" s="308"/>
+      <c r="D340" s="313"/>
+      <c r="E340" s="313"/>
+      <c r="F340" s="314"/>
       <c r="H340" s="172" t="b">
         <f t="shared" si="10"/>
         <v>1</v>
@@ -19059,7 +19067,7 @@
       <c r="E342" s="253">
         <v>103.23866452623335</v>
       </c>
-      <c r="F342" s="317">
+      <c r="F342" s="311">
         <v>0.23470166452623334</v>
       </c>
       <c r="H342" s="172" t="b">
@@ -19084,7 +19092,7 @@
       <c r="E343" s="255">
         <v>20.125</v>
       </c>
-      <c r="F343" s="327"/>
+      <c r="F343" s="315"/>
       <c r="H343" s="172" t="b">
         <f t="shared" si="10"/>
         <v>0</v>
@@ -19107,7 +19115,7 @@
       <c r="E344" s="255">
         <v>4.0250000000000004</v>
       </c>
-      <c r="F344" s="327"/>
+      <c r="F344" s="315"/>
       <c r="H344" s="172" t="b">
         <f t="shared" si="10"/>
         <v>0</v>
@@ -19130,7 +19138,7 @@
       <c r="E345" s="255">
         <v>4.7249999999999996</v>
       </c>
-      <c r="F345" s="327"/>
+      <c r="F345" s="315"/>
       <c r="H345" s="172" t="b">
         <f t="shared" si="10"/>
         <v>0</v>
@@ -19153,7 +19161,7 @@
       <c r="E346" s="255">
         <v>62.657999999999994</v>
       </c>
-      <c r="F346" s="327"/>
+      <c r="F346" s="315"/>
       <c r="H346" s="172" t="b">
         <f t="shared" si="10"/>
         <v>0</v>
@@ -19176,7 +19184,7 @@
       <c r="E347" s="255">
         <v>15.5</v>
       </c>
-      <c r="F347" s="327"/>
+      <c r="F347" s="315"/>
       <c r="H347" s="172" t="b">
         <f t="shared" si="10"/>
         <v>0</v>
@@ -19199,7 +19207,7 @@
       <c r="E348" s="259">
         <v>24.43</v>
       </c>
-      <c r="F348" s="318"/>
+      <c r="F348" s="316"/>
       <c r="H348" s="172" t="b">
         <f t="shared" si="10"/>
         <v>0</v>
@@ -19241,12 +19249,12 @@
       <c r="B351" s="220" t="s">
         <v>239</v>
       </c>
-      <c r="C351" s="328" t="s">
+      <c r="C351" s="308" t="s">
         <v>240</v>
       </c>
-      <c r="D351" s="329"/>
-      <c r="E351" s="329"/>
-      <c r="F351" s="330"/>
+      <c r="D351" s="309"/>
+      <c r="E351" s="309"/>
+      <c r="F351" s="310"/>
       <c r="H351" s="172" t="b">
         <f t="shared" si="10"/>
         <v>1</v>
@@ -19294,7 +19302,7 @@
       <c r="E353" s="180">
         <v>1395</v>
       </c>
-      <c r="F353" s="317">
+      <c r="F353" s="311">
         <v>3.1328770609715613</v>
       </c>
       <c r="H353" s="172" t="b">
@@ -19319,7 +19327,7 @@
       <c r="E354" s="188">
         <v>20.590500000000002</v>
       </c>
-      <c r="F354" s="326"/>
+      <c r="F354" s="312"/>
       <c r="H354" s="172" t="b">
         <f t="shared" si="10"/>
         <v>0</v>
@@ -19374,12 +19382,12 @@
       <c r="B358" s="220" t="s">
         <v>242</v>
       </c>
-      <c r="C358" s="307" t="s">
+      <c r="C358" s="313" t="s">
         <v>243</v>
       </c>
-      <c r="D358" s="307"/>
-      <c r="E358" s="307"/>
-      <c r="F358" s="308"/>
+      <c r="D358" s="313"/>
+      <c r="E358" s="313"/>
+      <c r="F358" s="314"/>
       <c r="H358" s="172" t="b">
         <f t="shared" si="10"/>
         <v>1</v>
@@ -19427,7 +19435,7 @@
       <c r="E360" s="253">
         <v>74.289599999999993</v>
       </c>
-      <c r="F360" s="317">
+      <c r="F360" s="311">
         <v>2.8574917167861131</v>
       </c>
       <c r="H360" s="172" t="b">
@@ -19452,7 +19460,7 @@
       <c r="E361" s="255">
         <v>5.5124999999999993</v>
       </c>
-      <c r="F361" s="327"/>
+      <c r="F361" s="315"/>
       <c r="H361" s="172" t="b">
         <f t="shared" si="10"/>
         <v>0</v>
@@ -19475,7 +19483,7 @@
       <c r="E362" s="255">
         <v>314.16000000000003</v>
       </c>
-      <c r="F362" s="327"/>
+      <c r="F362" s="315"/>
       <c r="H362" s="172" t="b">
         <f t="shared" si="10"/>
         <v>0</v>
@@ -19498,7 +19506,7 @@
       <c r="E363" s="255">
         <v>65.100000000000009</v>
       </c>
-      <c r="F363" s="327"/>
+      <c r="F363" s="315"/>
       <c r="H363" s="172" t="b">
         <f t="shared" si="10"/>
         <v>0</v>
@@ -19521,7 +19529,7 @@
       <c r="E364" s="255">
         <v>171.95000000000002</v>
       </c>
-      <c r="F364" s="327"/>
+      <c r="F364" s="315"/>
       <c r="H364" s="172" t="b">
         <f t="shared" si="10"/>
         <v>0</v>
@@ -19544,7 +19552,7 @@
       <c r="E365" s="259">
         <v>3.7396800000000003</v>
       </c>
-      <c r="F365" s="318"/>
+      <c r="F365" s="316"/>
       <c r="H365" s="172" t="b">
         <f t="shared" si="10"/>
         <v>0</v>
@@ -19607,12 +19615,12 @@
       <c r="B369" s="220" t="s">
         <v>244</v>
       </c>
-      <c r="C369" s="328" t="s">
+      <c r="C369" s="308" t="s">
         <v>245</v>
       </c>
-      <c r="D369" s="329"/>
-      <c r="E369" s="329"/>
-      <c r="F369" s="330"/>
+      <c r="D369" s="309"/>
+      <c r="E369" s="309"/>
+      <c r="F369" s="310"/>
       <c r="H369" s="172" t="b">
         <f t="shared" si="10"/>
         <v>1</v>
@@ -19660,7 +19668,7 @@
       <c r="E371" s="180">
         <v>13.514999999999999</v>
       </c>
-      <c r="F371" s="317">
+      <c r="F371" s="311">
         <v>2.7209002527707562</v>
       </c>
       <c r="H371" s="172" t="b">
@@ -19685,7 +19693,7 @@
       <c r="E372" s="188">
         <v>0.47859000000000002</v>
       </c>
-      <c r="F372" s="326"/>
+      <c r="F372" s="312"/>
       <c r="H372" s="172" t="b">
         <f t="shared" si="10"/>
         <v>0</v>
@@ -19738,12 +19746,12 @@
       <c r="B376" s="173" t="s">
         <v>246</v>
       </c>
-      <c r="C376" s="307" t="s">
+      <c r="C376" s="313" t="s">
         <v>247</v>
       </c>
-      <c r="D376" s="307"/>
-      <c r="E376" s="307"/>
-      <c r="F376" s="308"/>
+      <c r="D376" s="313"/>
+      <c r="E376" s="313"/>
+      <c r="F376" s="314"/>
       <c r="H376" s="172" t="b">
         <f t="shared" si="10"/>
         <v>1</v>
@@ -19791,7 +19799,7 @@
       <c r="E378" s="253">
         <v>12.657300000000001</v>
       </c>
-      <c r="F378" s="317">
+      <c r="F378" s="311">
         <v>1.5553549889135256</v>
       </c>
       <c r="H378" s="172" t="b">
@@ -19816,7 +19824,7 @@
       <c r="E379" s="184">
         <v>0.18921000000000002</v>
       </c>
-      <c r="F379" s="327"/>
+      <c r="F379" s="315"/>
       <c r="H379" s="172" t="b">
         <f t="shared" si="10"/>
         <v>0</v>
@@ -19839,7 +19847,7 @@
       <c r="E380" s="266">
         <v>48.8</v>
       </c>
-      <c r="F380" s="327"/>
+      <c r="F380" s="315"/>
       <c r="H380" s="172" t="b">
         <f t="shared" si="10"/>
         <v>0</v>
@@ -19862,7 +19870,7 @@
       <c r="E381" s="259">
         <v>8.5</v>
       </c>
-      <c r="F381" s="331"/>
+      <c r="F381" s="317"/>
       <c r="H381" s="172" t="b">
         <f t="shared" si="10"/>
         <v>0</v>
@@ -19915,12 +19923,12 @@
       <c r="B385" s="173" t="s">
         <v>248</v>
       </c>
-      <c r="C385" s="328" t="s">
+      <c r="C385" s="308" t="s">
         <v>249</v>
       </c>
-      <c r="D385" s="329"/>
-      <c r="E385" s="329"/>
-      <c r="F385" s="330"/>
+      <c r="D385" s="309"/>
+      <c r="E385" s="309"/>
+      <c r="F385" s="310"/>
       <c r="H385" s="172" t="b">
         <f t="shared" si="10"/>
         <v>1</v>
@@ -19968,7 +19976,7 @@
       <c r="E387" s="180">
         <v>22.64</v>
       </c>
-      <c r="F387" s="317">
+      <c r="F387" s="311">
         <v>12.361538461538462</v>
       </c>
       <c r="H387" s="172" t="b">
@@ -19993,7 +20001,7 @@
       <c r="E388" s="188">
         <v>9.5</v>
       </c>
-      <c r="F388" s="326"/>
+      <c r="F388" s="312"/>
       <c r="H388" s="172" t="b">
         <f t="shared" ref="H388:H389" si="12">B389="CODE"</f>
         <v>0</v>
@@ -20024,14 +20032,54 @@
     </row>
   </sheetData>
   <mergeCells count="68">
-    <mergeCell ref="C385:F385"/>
-    <mergeCell ref="F387:F388"/>
-    <mergeCell ref="C358:F358"/>
-    <mergeCell ref="F360:F365"/>
-    <mergeCell ref="C369:F369"/>
-    <mergeCell ref="F371:F372"/>
-    <mergeCell ref="C376:F376"/>
-    <mergeCell ref="F378:F381"/>
+    <mergeCell ref="C71:F71"/>
+    <mergeCell ref="C3:F3"/>
+    <mergeCell ref="F5:F14"/>
+    <mergeCell ref="C17:F17"/>
+    <mergeCell ref="C25:F25"/>
+    <mergeCell ref="F27:F35"/>
+    <mergeCell ref="C38:F38"/>
+    <mergeCell ref="C46:F46"/>
+    <mergeCell ref="F48:F50"/>
+    <mergeCell ref="C53:F53"/>
+    <mergeCell ref="C61:F61"/>
+    <mergeCell ref="F63:F68"/>
+    <mergeCell ref="F147:F148"/>
+    <mergeCell ref="C79:F79"/>
+    <mergeCell ref="C84:F84"/>
+    <mergeCell ref="C92:F92"/>
+    <mergeCell ref="C97:F97"/>
+    <mergeCell ref="C105:F105"/>
+    <mergeCell ref="F107:F117"/>
+    <mergeCell ref="C120:F120"/>
+    <mergeCell ref="C125:F125"/>
+    <mergeCell ref="F127:F134"/>
+    <mergeCell ref="C137:F137"/>
+    <mergeCell ref="C145:F145"/>
+    <mergeCell ref="F213:F215"/>
+    <mergeCell ref="C154:F154"/>
+    <mergeCell ref="C162:F162"/>
+    <mergeCell ref="C167:F167"/>
+    <mergeCell ref="F169:F174"/>
+    <mergeCell ref="C178:F178"/>
+    <mergeCell ref="F180:F185"/>
+    <mergeCell ref="C189:F189"/>
+    <mergeCell ref="F191:F195"/>
+    <mergeCell ref="C199:F199"/>
+    <mergeCell ref="F201:F207"/>
+    <mergeCell ref="C211:F211"/>
+    <mergeCell ref="F285:F288"/>
+    <mergeCell ref="C219:F219"/>
+    <mergeCell ref="F221:F228"/>
+    <mergeCell ref="C232:F232"/>
+    <mergeCell ref="F234:F242"/>
+    <mergeCell ref="C245:F245"/>
+    <mergeCell ref="F247:F254"/>
+    <mergeCell ref="C258:F258"/>
+    <mergeCell ref="F260:F266"/>
+    <mergeCell ref="C270:F270"/>
+    <mergeCell ref="F272:F279"/>
+    <mergeCell ref="C283:F283"/>
     <mergeCell ref="F353:F354"/>
     <mergeCell ref="C292:F292"/>
     <mergeCell ref="F294:F299"/>
@@ -20044,54 +20092,14 @@
     <mergeCell ref="C340:F340"/>
     <mergeCell ref="F342:F348"/>
     <mergeCell ref="C351:F351"/>
-    <mergeCell ref="F285:F288"/>
-    <mergeCell ref="C219:F219"/>
-    <mergeCell ref="F221:F228"/>
-    <mergeCell ref="C232:F232"/>
-    <mergeCell ref="F234:F242"/>
-    <mergeCell ref="C245:F245"/>
-    <mergeCell ref="F247:F254"/>
-    <mergeCell ref="C258:F258"/>
-    <mergeCell ref="F260:F266"/>
-    <mergeCell ref="C270:F270"/>
-    <mergeCell ref="F272:F279"/>
-    <mergeCell ref="C283:F283"/>
-    <mergeCell ref="F213:F215"/>
-    <mergeCell ref="C154:F154"/>
-    <mergeCell ref="C162:F162"/>
-    <mergeCell ref="C167:F167"/>
-    <mergeCell ref="F169:F174"/>
-    <mergeCell ref="C178:F178"/>
-    <mergeCell ref="F180:F185"/>
-    <mergeCell ref="C189:F189"/>
-    <mergeCell ref="F191:F195"/>
-    <mergeCell ref="C199:F199"/>
-    <mergeCell ref="F201:F207"/>
-    <mergeCell ref="C211:F211"/>
-    <mergeCell ref="F147:F148"/>
-    <mergeCell ref="C79:F79"/>
-    <mergeCell ref="C84:F84"/>
-    <mergeCell ref="C92:F92"/>
-    <mergeCell ref="C97:F97"/>
-    <mergeCell ref="C105:F105"/>
-    <mergeCell ref="F107:F117"/>
-    <mergeCell ref="C120:F120"/>
-    <mergeCell ref="C125:F125"/>
-    <mergeCell ref="F127:F134"/>
-    <mergeCell ref="C137:F137"/>
-    <mergeCell ref="C145:F145"/>
-    <mergeCell ref="C71:F71"/>
-    <mergeCell ref="C3:F3"/>
-    <mergeCell ref="F5:F14"/>
-    <mergeCell ref="C17:F17"/>
-    <mergeCell ref="C25:F25"/>
-    <mergeCell ref="F27:F35"/>
-    <mergeCell ref="C38:F38"/>
-    <mergeCell ref="C46:F46"/>
-    <mergeCell ref="F48:F50"/>
-    <mergeCell ref="C53:F53"/>
-    <mergeCell ref="C61:F61"/>
-    <mergeCell ref="F63:F68"/>
+    <mergeCell ref="C385:F385"/>
+    <mergeCell ref="F387:F388"/>
+    <mergeCell ref="C358:F358"/>
+    <mergeCell ref="F360:F365"/>
+    <mergeCell ref="C369:F369"/>
+    <mergeCell ref="F371:F372"/>
+    <mergeCell ref="C376:F376"/>
+    <mergeCell ref="F378:F381"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0" footer="0"/>
@@ -27784,11 +27792,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AD565"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="D504" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane xSplit="2" ySplit="1" topLeftCell="C474" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="E523" sqref="E523"/>
+      <selection pane="bottomRight" activeCell="S506" sqref="S506"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -27852,13 +27860,13 @@
       <c r="B2" s="20" t="s">
         <v>216</v>
       </c>
-      <c r="C2" s="286" t="str">
+      <c r="C2" s="284" t="str">
         <f>VLOOKUP(A2,'All products'!A:B,2,0)</f>
         <v>ADHEPOX-SPFM (A+B 2KG)</v>
       </c>
-      <c r="D2" s="286"/>
-      <c r="E2" s="286"/>
-      <c r="F2" s="287"/>
+      <c r="D2" s="284"/>
+      <c r="E2" s="284"/>
+      <c r="F2" s="285"/>
       <c r="G2" s="21">
         <v>1</v>
       </c>
@@ -28594,7 +28602,7 @@
       <c r="C15" s="42" t="s">
         <v>313</v>
       </c>
-      <c r="D15" s="43">
+      <c r="D15" s="333">
         <f>I2/AA2</f>
         <v>5.8823529411764705E-2</v>
       </c>
@@ -28602,7 +28610,9 @@
         <f t="shared" si="1"/>
         <v>28.886249434780062</v>
       </c>
-      <c r="F15" s="45"/>
+      <c r="F15" s="45" t="s">
+        <v>782</v>
+      </c>
       <c r="G15" s="32"/>
       <c r="H15" s="32" t="str">
         <f>VLOOKUP(B15,'Full Item list'!A:B,2,0)</f>
@@ -28691,13 +28701,13 @@
       <c r="B18" s="20" t="s">
         <v>217</v>
       </c>
-      <c r="C18" s="286" t="str">
+      <c r="C18" s="284" t="str">
         <f>VLOOKUP(A18,'All products'!A:B,2,0)</f>
         <v>ADHEPOX-SPFM (A+B 5KG)</v>
       </c>
-      <c r="D18" s="286"/>
-      <c r="E18" s="286"/>
-      <c r="F18" s="287"/>
+      <c r="D18" s="284"/>
+      <c r="E18" s="284"/>
+      <c r="F18" s="285"/>
       <c r="G18" s="21">
         <v>1</v>
       </c>
@@ -29437,7 +29447,7 @@
       <c r="C31" s="42" t="s">
         <v>313</v>
       </c>
-      <c r="D31" s="43">
+      <c r="D31" s="333">
         <f>I18/AA18</f>
         <v>0.125</v>
       </c>
@@ -29445,7 +29455,9 @@
         <f t="shared" si="3"/>
         <v>61.383280048907629</v>
       </c>
-      <c r="F31" s="45"/>
+      <c r="F31" s="45" t="s">
+        <v>782</v>
+      </c>
       <c r="G31" s="32"/>
       <c r="H31" s="32" t="str">
         <f>VLOOKUP(B31,'Full Item list'!A:B,2,0)</f>
@@ -29534,13 +29546,13 @@
       <c r="B34" s="20" t="s">
         <v>218</v>
       </c>
-      <c r="C34" s="286" t="str">
+      <c r="C34" s="284" t="str">
         <f>VLOOKUP(A34,'All products'!A:B,2,0)</f>
         <v>ADHEPOX-SPFM (A+B 10KG)</v>
       </c>
-      <c r="D34" s="286"/>
-      <c r="E34" s="286"/>
-      <c r="F34" s="287"/>
+      <c r="D34" s="284"/>
+      <c r="E34" s="284"/>
+      <c r="F34" s="285"/>
       <c r="G34" s="21">
         <v>1</v>
       </c>
@@ -30280,7 +30292,7 @@
       <c r="C47" s="42" t="s">
         <v>313</v>
       </c>
-      <c r="D47" s="43">
+      <c r="D47" s="333">
         <f>I34/AA34</f>
         <v>0.2</v>
       </c>
@@ -30288,7 +30300,9 @@
         <f t="shared" si="5"/>
         <v>98.213248078252207</v>
       </c>
-      <c r="F47" s="45"/>
+      <c r="F47" s="45" t="s">
+        <v>782</v>
+      </c>
       <c r="G47" s="32"/>
       <c r="H47" s="32" t="str">
         <f>VLOOKUP(B47,'Full Item list'!A:B,2,0)</f>
@@ -30378,13 +30392,13 @@
       <c r="B50" s="20" t="s">
         <v>208</v>
       </c>
-      <c r="C50" s="286" t="str">
+      <c r="C50" s="284" t="str">
         <f>VLOOKUP(A50,'All products'!A:B,2,0)</f>
         <v>TECNOPOX-P (A+B 2KG)</v>
       </c>
-      <c r="D50" s="286"/>
-      <c r="E50" s="286"/>
-      <c r="F50" s="287"/>
+      <c r="D50" s="284"/>
+      <c r="E50" s="284"/>
+      <c r="F50" s="285"/>
       <c r="G50" s="21">
         <v>1</v>
       </c>
@@ -30482,7 +30496,7 @@
         <f t="shared" ref="E52:E62" si="7">O52*D52</f>
         <v>1.3250222617987535</v>
       </c>
-      <c r="F52" s="295"/>
+      <c r="F52" s="290"/>
       <c r="G52" s="32"/>
       <c r="H52" s="32" t="str">
         <f>VLOOKUP(B52,'Full Item list'!A:B,2,0)</f>
@@ -30541,7 +30555,7 @@
         <f t="shared" si="7"/>
         <v>1.1326803205699019</v>
       </c>
-      <c r="F53" s="296"/>
+      <c r="F53" s="291"/>
       <c r="G53" s="36"/>
       <c r="H53" s="36" t="str">
         <f>VLOOKUP(B53,'Full Item list'!A:B,2,0)</f>
@@ -30600,7 +30614,7 @@
         <f t="shared" si="7"/>
         <v>3.7773820124666076E-2</v>
       </c>
-      <c r="F54" s="296"/>
+      <c r="F54" s="291"/>
       <c r="G54" s="36"/>
       <c r="H54" s="36" t="str">
         <f>VLOOKUP(B54,'Full Item list'!A:B,2,0)</f>
@@ -30659,7 +30673,7 @@
         <f t="shared" si="7"/>
         <v>1.659839715048976E-2</v>
       </c>
-      <c r="F55" s="296"/>
+      <c r="F55" s="291"/>
       <c r="G55" s="36"/>
       <c r="H55" s="36" t="str">
         <f>VLOOKUP(B55,'Full Item list'!A:B,2,0)</f>
@@ -30718,7 +30732,7 @@
         <f t="shared" si="7"/>
         <v>5.0365093499554765E-2</v>
       </c>
-      <c r="F56" s="296"/>
+      <c r="F56" s="291"/>
       <c r="G56" s="36"/>
       <c r="H56" s="36" t="str">
         <f>VLOOKUP(B56,'Full Item list'!A:B,2,0)</f>
@@ -30777,7 +30791,7 @@
         <f t="shared" si="7"/>
         <v>3.2352626892252899E-2</v>
       </c>
-      <c r="F57" s="296"/>
+      <c r="F57" s="291"/>
       <c r="G57" s="36"/>
       <c r="H57" s="36" t="str">
         <f>VLOOKUP(B57,'Full Item list'!A:B,2,0)</f>
@@ -30836,7 +30850,7 @@
         <f t="shared" si="7"/>
         <v>0.71583259127337484</v>
       </c>
-      <c r="F58" s="297"/>
+      <c r="F58" s="292"/>
       <c r="G58" s="37"/>
       <c r="H58" s="37" t="str">
         <f>VLOOKUP(B58,'Full Item list'!A:B,2,0)</f>
@@ -30895,7 +30909,7 @@
         <f t="shared" si="7"/>
         <v>3.0293855743544078E-2</v>
       </c>
-      <c r="F59" s="297"/>
+      <c r="F59" s="292"/>
       <c r="G59" s="37"/>
       <c r="H59" s="37" t="str">
         <f>VLOOKUP(B59,'Full Item list'!A:B,2,0)</f>
@@ -30954,7 +30968,7 @@
         <f t="shared" si="7"/>
         <v>0.1811219946571683</v>
       </c>
-      <c r="F60" s="298"/>
+      <c r="F60" s="293"/>
       <c r="G60" s="37"/>
       <c r="H60" s="37" t="str">
         <f>VLOOKUP(B60,'Full Item list'!A:B,2,0)</f>
@@ -31065,7 +31079,7 @@
       <c r="C62" s="42" t="s">
         <v>313</v>
       </c>
-      <c r="D62" s="43">
+      <c r="D62" s="333">
         <f>I50/AA50</f>
         <v>5.8823529411764705E-2</v>
       </c>
@@ -31073,7 +31087,9 @@
         <f t="shared" si="7"/>
         <v>28.886249434780062</v>
       </c>
-      <c r="F62" s="45"/>
+      <c r="F62" s="45" t="s">
+        <v>782</v>
+      </c>
       <c r="G62" s="32"/>
       <c r="H62" s="32" t="str">
         <f>VLOOKUP(B62,'Full Item list'!A:B,2,0)</f>
@@ -31162,13 +31178,13 @@
       <c r="B65" s="20" t="s">
         <v>209</v>
       </c>
-      <c r="C65" s="286" t="str">
+      <c r="C65" s="284" t="str">
         <f>VLOOKUP(A65,'All products'!A:B,2,0)</f>
         <v>TECNOPOX-P (A+B 5KG)</v>
       </c>
-      <c r="D65" s="286"/>
-      <c r="E65" s="286"/>
-      <c r="F65" s="287"/>
+      <c r="D65" s="284"/>
+      <c r="E65" s="284"/>
+      <c r="F65" s="285"/>
       <c r="G65" s="21">
         <v>1</v>
       </c>
@@ -31266,7 +31282,7 @@
         <f t="shared" ref="E67:E77" si="9">O67*D67</f>
         <v>3.3125556544968839</v>
       </c>
-      <c r="F67" s="295"/>
+      <c r="F67" s="290"/>
       <c r="G67" s="32"/>
       <c r="H67" s="32" t="str">
         <f>VLOOKUP(B67,'Full Item list'!A:B,2,0)</f>
@@ -31325,7 +31341,7 @@
         <f t="shared" si="9"/>
         <v>2.8317008014247551</v>
       </c>
-      <c r="F68" s="296"/>
+      <c r="F68" s="291"/>
       <c r="G68" s="36"/>
       <c r="H68" s="36" t="str">
         <f>VLOOKUP(B68,'Full Item list'!A:B,2,0)</f>
@@ -31384,7 +31400,7 @@
         <f t="shared" si="9"/>
         <v>9.4434550311665186E-2</v>
       </c>
-      <c r="F69" s="296"/>
+      <c r="F69" s="291"/>
       <c r="G69" s="36"/>
       <c r="H69" s="36" t="str">
         <f>VLOOKUP(B69,'Full Item list'!A:B,2,0)</f>
@@ -31443,7 +31459,7 @@
         <f t="shared" si="9"/>
         <v>4.1495992876224401E-2</v>
       </c>
-      <c r="F70" s="296"/>
+      <c r="F70" s="291"/>
       <c r="G70" s="36"/>
       <c r="H70" s="36" t="str">
         <f>VLOOKUP(B70,'Full Item list'!A:B,2,0)</f>
@@ -31502,7 +31518,7 @@
         <f t="shared" si="9"/>
         <v>0.12591273374888692</v>
       </c>
-      <c r="F71" s="296"/>
+      <c r="F71" s="291"/>
       <c r="G71" s="36"/>
       <c r="H71" s="36" t="str">
         <f>VLOOKUP(B71,'Full Item list'!A:B,2,0)</f>
@@ -31561,7 +31577,7 @@
         <f t="shared" si="9"/>
         <v>8.0881567230632237E-2</v>
       </c>
-      <c r="F72" s="296"/>
+      <c r="F72" s="291"/>
       <c r="G72" s="36"/>
       <c r="H72" s="36" t="str">
         <f>VLOOKUP(B72,'Full Item list'!A:B,2,0)</f>
@@ -31620,7 +31636,7 @@
         <f t="shared" si="9"/>
         <v>1.7895814781834369</v>
       </c>
-      <c r="F73" s="297"/>
+      <c r="F73" s="292"/>
       <c r="G73" s="37"/>
       <c r="H73" s="37" t="str">
         <f>VLOOKUP(B73,'Full Item list'!A:B,2,0)</f>
@@ -31679,7 +31695,7 @@
         <f t="shared" si="9"/>
         <v>7.5734639358860198E-2</v>
       </c>
-      <c r="F74" s="297"/>
+      <c r="F74" s="292"/>
       <c r="G74" s="37"/>
       <c r="H74" s="37" t="str">
         <f>VLOOKUP(B74,'Full Item list'!A:B,2,0)</f>
@@ -31738,7 +31754,7 @@
         <f t="shared" si="9"/>
         <v>0.45280498664292079</v>
       </c>
-      <c r="F75" s="298"/>
+      <c r="F75" s="293"/>
       <c r="G75" s="37"/>
       <c r="H75" s="37" t="str">
         <f>VLOOKUP(B75,'Full Item list'!A:B,2,0)</f>
@@ -31849,7 +31865,7 @@
       <c r="C77" s="42" t="s">
         <v>313</v>
       </c>
-      <c r="D77" s="43">
+      <c r="D77" s="333">
         <f>I65/AA65</f>
         <v>0.125</v>
       </c>
@@ -31857,7 +31873,9 @@
         <f t="shared" si="9"/>
         <v>61.383280048907629</v>
       </c>
-      <c r="F77" s="45"/>
+      <c r="F77" s="45" t="s">
+        <v>782</v>
+      </c>
       <c r="G77" s="32"/>
       <c r="H77" s="32" t="str">
         <f>VLOOKUP(B77,'Full Item list'!A:B,2,0)</f>
@@ -31946,13 +31964,13 @@
       <c r="B80" s="20" t="s">
         <v>224</v>
       </c>
-      <c r="C80" s="286" t="str">
+      <c r="C80" s="284" t="str">
         <f>VLOOKUP(A80,'All products'!A:B,2,0)</f>
         <v>TECNOPOX-S (A+B 10KG)</v>
       </c>
-      <c r="D80" s="286"/>
-      <c r="E80" s="286"/>
-      <c r="F80" s="287"/>
+      <c r="D80" s="284"/>
+      <c r="E80" s="284"/>
+      <c r="F80" s="285"/>
       <c r="G80" s="21">
         <v>1</v>
       </c>
@@ -32050,7 +32068,7 @@
         <f>O82*D82</f>
         <v>7.9608000000000008</v>
       </c>
-      <c r="F82" s="299"/>
+      <c r="F82" s="286"/>
       <c r="G82" s="32"/>
       <c r="H82" s="32" t="str">
         <f>VLOOKUP(B82,'Full Item list'!A:B,2,0)</f>
@@ -32109,7 +32127,7 @@
         <f>O83*D83</f>
         <v>1.113</v>
       </c>
-      <c r="F83" s="289"/>
+      <c r="F83" s="287"/>
       <c r="G83" s="36"/>
       <c r="H83" s="36" t="str">
         <f>VLOOKUP(B83,'Full Item list'!A:B,2,0)</f>
@@ -32168,7 +32186,7 @@
         <f>O84*D84</f>
         <v>0.35420000000000001</v>
       </c>
-      <c r="F84" s="300"/>
+      <c r="F84" s="289"/>
       <c r="G84" s="37"/>
       <c r="H84" s="37" t="str">
         <f>VLOOKUP(B84,'Full Item list'!A:B,2,0)</f>
@@ -32279,7 +32297,7 @@
       <c r="C86" s="42" t="s">
         <v>313</v>
       </c>
-      <c r="D86" s="43">
+      <c r="D86" s="333">
         <f>I80/AA80</f>
         <v>0.125</v>
       </c>
@@ -32287,7 +32305,9 @@
         <f>O86*D86</f>
         <v>61.383280048907629</v>
       </c>
-      <c r="F86" s="45"/>
+      <c r="F86" s="45" t="s">
+        <v>782</v>
+      </c>
       <c r="G86" s="32"/>
       <c r="H86" s="32" t="str">
         <f>VLOOKUP(B86,'Full Item list'!A:B,2,0)</f>
@@ -32377,13 +32397,13 @@
       <c r="B89" s="20" t="s">
         <v>227</v>
       </c>
-      <c r="C89" s="286" t="str">
+      <c r="C89" s="284" t="str">
         <f>VLOOKUP(A89,'All products'!A:B,2,0)</f>
         <v>TECNOPOX-S (A+B 5KG)</v>
       </c>
-      <c r="D89" s="286"/>
-      <c r="E89" s="286"/>
-      <c r="F89" s="287"/>
+      <c r="D89" s="284"/>
+      <c r="E89" s="284"/>
+      <c r="F89" s="285"/>
       <c r="G89" s="21">
         <v>1</v>
       </c>
@@ -32481,7 +32501,7 @@
         <f>O91*D91</f>
         <v>3.9804000000000004</v>
       </c>
-      <c r="F91" s="299"/>
+      <c r="F91" s="286"/>
       <c r="G91" s="32"/>
       <c r="H91" s="32" t="str">
         <f>VLOOKUP(B91,'Full Item list'!A:B,2,0)</f>
@@ -32540,7 +32560,7 @@
         <f>O92*D92</f>
         <v>0.55649999999999999</v>
       </c>
-      <c r="F92" s="289"/>
+      <c r="F92" s="287"/>
       <c r="G92" s="36"/>
       <c r="H92" s="36" t="str">
         <f>VLOOKUP(B92,'Full Item list'!A:B,2,0)</f>
@@ -32599,7 +32619,7 @@
         <f>O93*D93</f>
         <v>0.17710000000000001</v>
       </c>
-      <c r="F93" s="300"/>
+      <c r="F93" s="289"/>
       <c r="G93" s="37"/>
       <c r="H93" s="37" t="str">
         <f>VLOOKUP(B93,'Full Item list'!A:B,2,0)</f>
@@ -32708,7 +32728,7 @@
       <c r="C95" s="42" t="s">
         <v>313</v>
       </c>
-      <c r="D95" s="43">
+      <c r="D95" s="333">
         <f>I89/AA89</f>
         <v>0.1</v>
       </c>
@@ -32716,7 +32736,9 @@
         <f>O95*D95</f>
         <v>49.106624039126103</v>
       </c>
-      <c r="F95" s="45"/>
+      <c r="F95" s="45" t="s">
+        <v>782</v>
+      </c>
       <c r="G95" s="32"/>
       <c r="H95" s="32" t="str">
         <f>VLOOKUP(B95,'Full Item list'!A:B,2,0)</f>
@@ -32806,13 +32828,13 @@
       <c r="B98" s="20" t="s">
         <v>205</v>
       </c>
-      <c r="C98" s="286" t="str">
+      <c r="C98" s="284" t="str">
         <f>VLOOKUP(A98,'All products'!A:B,2,0)</f>
         <v>TECNOPOX-ANCLAJES (A+B 2KG)</v>
       </c>
-      <c r="D98" s="286"/>
-      <c r="E98" s="286"/>
-      <c r="F98" s="287"/>
+      <c r="D98" s="284"/>
+      <c r="E98" s="284"/>
+      <c r="F98" s="285"/>
       <c r="G98" s="21">
         <v>1</v>
       </c>
@@ -32910,7 +32932,7 @@
         <f t="shared" ref="E100:E107" si="14">O100*D100</f>
         <v>1.19784</v>
       </c>
-      <c r="F100" s="299"/>
+      <c r="F100" s="286"/>
       <c r="G100" s="32"/>
       <c r="H100" s="32" t="str">
         <f>VLOOKUP(B100,'Full Item list'!A:B,2,0)</f>
@@ -32969,7 +32991,7 @@
         <f t="shared" si="14"/>
         <v>0.18285000000000001</v>
       </c>
-      <c r="F101" s="289"/>
+      <c r="F101" s="287"/>
       <c r="G101" s="36"/>
       <c r="H101" s="36" t="str">
         <f>VLOOKUP(B101,'Full Item list'!A:B,2,0)</f>
@@ -33028,7 +33050,7 @@
         <f t="shared" si="14"/>
         <v>8.4100000000000008E-2</v>
       </c>
-      <c r="F102" s="291"/>
+      <c r="F102" s="288"/>
       <c r="G102" s="36"/>
       <c r="H102" s="36" t="str">
         <f>VLOOKUP(B102,'Full Item list'!A:B,2,0)</f>
@@ -33087,7 +33109,7 @@
         <f t="shared" si="14"/>
         <v>7.9350000000000011E-3</v>
       </c>
-      <c r="F103" s="291"/>
+      <c r="F103" s="288"/>
       <c r="G103" s="36"/>
       <c r="H103" s="36" t="str">
         <f>VLOOKUP(B103,'Full Item list'!A:B,2,0)</f>
@@ -33144,7 +33166,7 @@
         <f t="shared" si="14"/>
         <v>1.7325E-2</v>
       </c>
-      <c r="F104" s="291"/>
+      <c r="F104" s="288"/>
       <c r="G104" s="36"/>
       <c r="H104" s="36" t="str">
         <f>VLOOKUP(B104,'Full Item list'!A:B,2,0)</f>
@@ -33201,7 +33223,7 @@
         <f t="shared" si="14"/>
         <v>2.7930000000000003E-2</v>
       </c>
-      <c r="F105" s="300"/>
+      <c r="F105" s="289"/>
       <c r="G105" s="37"/>
       <c r="H105" s="37" t="str">
         <f>VLOOKUP(B105,'Full Item list'!A:B,2,0)</f>
@@ -33310,7 +33332,7 @@
       <c r="C107" s="42" t="s">
         <v>313</v>
       </c>
-      <c r="D107" s="43">
+      <c r="D107" s="333">
         <f>I98/AA98</f>
         <v>0.2</v>
       </c>
@@ -33318,7 +33340,9 @@
         <f t="shared" si="14"/>
         <v>98.213248078252207</v>
       </c>
-      <c r="F107" s="45"/>
+      <c r="F107" s="45" t="s">
+        <v>782</v>
+      </c>
       <c r="G107" s="32"/>
       <c r="H107" s="32" t="str">
         <f>VLOOKUP(B107,'Full Item list'!A:B,2,0)</f>
@@ -33407,13 +33431,13 @@
       <c r="B110" s="20" t="s">
         <v>206</v>
       </c>
-      <c r="C110" s="286" t="str">
+      <c r="C110" s="284" t="str">
         <f>VLOOKUP(A110,'All products'!A:B,2,0)</f>
         <v>TECNOPOX-ANCLAJES (A+B 7KG)</v>
       </c>
-      <c r="D110" s="286"/>
-      <c r="E110" s="286"/>
-      <c r="F110" s="287"/>
+      <c r="D110" s="284"/>
+      <c r="E110" s="284"/>
+      <c r="F110" s="285"/>
       <c r="G110" s="21">
         <v>1</v>
       </c>
@@ -33511,7 +33535,7 @@
         <f t="shared" ref="E112:E119" si="16">O112*D112</f>
         <v>4.1903448275862081</v>
       </c>
-      <c r="F112" s="299"/>
+      <c r="F112" s="286"/>
       <c r="G112" s="32"/>
       <c r="H112" s="32" t="str">
         <f>VLOOKUP(B112,'Full Item list'!A:B,2,0)</f>
@@ -33570,7 +33594,7 @@
         <f t="shared" si="16"/>
         <v>0.63965517241379322</v>
       </c>
-      <c r="F113" s="289"/>
+      <c r="F113" s="287"/>
       <c r="G113" s="36"/>
       <c r="H113" s="36" t="str">
         <f>VLOOKUP(B113,'Full Item list'!A:B,2,0)</f>
@@ -33629,7 +33653,7 @@
         <f t="shared" si="16"/>
         <v>0.29420289855072462</v>
       </c>
-      <c r="F114" s="291"/>
+      <c r="F114" s="288"/>
       <c r="G114" s="36"/>
       <c r="H114" s="36" t="str">
         <f>VLOOKUP(B114,'Full Item list'!A:B,2,0)</f>
@@ -33688,7 +33712,7 @@
         <f t="shared" si="16"/>
         <v>2.7758620689655178E-2</v>
       </c>
-      <c r="F115" s="291"/>
+      <c r="F115" s="288"/>
       <c r="G115" s="36"/>
       <c r="H115" s="36" t="str">
         <f>VLOOKUP(B115,'Full Item list'!A:B,2,0)</f>
@@ -33745,7 +33769,7 @@
         <f t="shared" si="16"/>
         <v>6.060719640179911E-2</v>
       </c>
-      <c r="F116" s="291"/>
+      <c r="F116" s="288"/>
       <c r="G116" s="36"/>
       <c r="H116" s="36" t="str">
         <f>VLOOKUP(B116,'Full Item list'!A:B,2,0)</f>
@@ -33802,7 +33826,7 @@
         <f t="shared" si="16"/>
         <v>9.7706146926536744E-2</v>
       </c>
-      <c r="F117" s="300"/>
+      <c r="F117" s="289"/>
       <c r="G117" s="37"/>
       <c r="H117" s="37" t="str">
         <f>VLOOKUP(B117,'Full Item list'!A:B,2,0)</f>
@@ -33911,7 +33935,7 @@
       <c r="C119" s="42" t="s">
         <v>313</v>
       </c>
-      <c r="D119" s="43">
+      <c r="D119" s="333">
         <f>I110/AA110</f>
         <v>0.16666666666666666</v>
       </c>
@@ -33919,7 +33943,9 @@
         <f t="shared" si="16"/>
         <v>81.844373398543496</v>
       </c>
-      <c r="F119" s="45"/>
+      <c r="F119" s="45" t="s">
+        <v>782</v>
+      </c>
       <c r="G119" s="32"/>
       <c r="H119" s="32" t="str">
         <f>VLOOKUP(B119,'Full Item list'!A:B,2,0)</f>
@@ -34008,13 +34034,13 @@
       <c r="B122" s="20" t="s">
         <v>207</v>
       </c>
-      <c r="C122" s="286" t="str">
+      <c r="C122" s="284" t="str">
         <f>VLOOKUP(A122,'All products'!A:B,2,0)</f>
         <v>TECNOPOX-ANCLAJES (A+B 14KG)</v>
       </c>
-      <c r="D122" s="286"/>
-      <c r="E122" s="286"/>
-      <c r="F122" s="287"/>
+      <c r="D122" s="284"/>
+      <c r="E122" s="284"/>
+      <c r="F122" s="285"/>
       <c r="G122" s="21">
         <v>1</v>
       </c>
@@ -34112,7 +34138,7 @@
         <f t="shared" ref="E124:E131" si="18">O124*D124</f>
         <v>8.3806896551724162</v>
       </c>
-      <c r="F124" s="299"/>
+      <c r="F124" s="286"/>
       <c r="G124" s="32"/>
       <c r="H124" s="32" t="str">
         <f>VLOOKUP(B124,'Full Item list'!A:B,2,0)</f>
@@ -34171,7 +34197,7 @@
         <f t="shared" si="18"/>
         <v>1.2793103448275864</v>
       </c>
-      <c r="F125" s="289"/>
+      <c r="F125" s="287"/>
       <c r="G125" s="36"/>
       <c r="H125" s="36" t="str">
         <f>VLOOKUP(B125,'Full Item list'!A:B,2,0)</f>
@@ -34230,7 +34256,7 @@
         <f t="shared" si="18"/>
         <v>0.58840579710144925</v>
       </c>
-      <c r="F126" s="291"/>
+      <c r="F126" s="288"/>
       <c r="G126" s="36"/>
       <c r="H126" s="36" t="str">
         <f>VLOOKUP(B126,'Full Item list'!A:B,2,0)</f>
@@ -34289,7 +34315,7 @@
         <f t="shared" si="18"/>
         <v>5.5517241379310356E-2</v>
       </c>
-      <c r="F127" s="291"/>
+      <c r="F127" s="288"/>
       <c r="G127" s="36"/>
       <c r="H127" s="36" t="str">
         <f>VLOOKUP(B127,'Full Item list'!A:B,2,0)</f>
@@ -34346,7 +34372,7 @@
         <f t="shared" si="18"/>
         <v>0.12121439280359822</v>
       </c>
-      <c r="F128" s="291"/>
+      <c r="F128" s="288"/>
       <c r="G128" s="36"/>
       <c r="H128" s="36" t="str">
         <f>VLOOKUP(B128,'Full Item list'!A:B,2,0)</f>
@@ -34403,7 +34429,7 @@
         <f t="shared" si="18"/>
         <v>0.19541229385307349</v>
       </c>
-      <c r="F129" s="300"/>
+      <c r="F129" s="289"/>
       <c r="G129" s="37"/>
       <c r="H129" s="37" t="str">
         <f>VLOOKUP(B129,'Full Item list'!A:B,2,0)</f>
@@ -34512,7 +34538,7 @@
       <c r="C131" s="42" t="s">
         <v>313</v>
       </c>
-      <c r="D131" s="43">
+      <c r="D131" s="333">
         <f>I122/AA122</f>
         <v>0.14285714285714285</v>
       </c>
@@ -34520,7 +34546,9 @@
         <f t="shared" si="18"/>
         <v>70.152320055894435</v>
       </c>
-      <c r="F131" s="45"/>
+      <c r="F131" s="45" t="s">
+        <v>782</v>
+      </c>
       <c r="G131" s="32"/>
       <c r="H131" s="32" t="str">
         <f>VLOOKUP(B131,'Full Item list'!A:B,2,0)</f>
@@ -34610,13 +34638,13 @@
       <c r="B134" s="20" t="s">
         <v>210</v>
       </c>
-      <c r="C134" s="286" t="str">
+      <c r="C134" s="284" t="str">
         <f>VLOOKUP(A134,'All products'!A:B,2,0)</f>
         <v>TECNOPOX-IN (A+B 2KG)</v>
       </c>
-      <c r="D134" s="286"/>
-      <c r="E134" s="286"/>
-      <c r="F134" s="287"/>
+      <c r="D134" s="284"/>
+      <c r="E134" s="284"/>
+      <c r="F134" s="285"/>
       <c r="G134" s="21">
         <v>1</v>
       </c>
@@ -34831,7 +34859,7 @@
       <c r="C138" s="42" t="s">
         <v>313</v>
       </c>
-      <c r="D138" s="43">
+      <c r="D138" s="333">
         <f>I134/AA134</f>
         <v>0.02</v>
       </c>
@@ -34839,7 +34867,9 @@
         <f>O138*D138</f>
         <v>9.8213248078252207</v>
       </c>
-      <c r="F138" s="45"/>
+      <c r="F138" s="45" t="s">
+        <v>782</v>
+      </c>
       <c r="G138" s="32"/>
       <c r="H138" s="32" t="str">
         <f>VLOOKUP(B138,'Full Item list'!A:B,2,0)</f>
@@ -34928,13 +34958,13 @@
       <c r="B141" s="20" t="s">
         <v>211</v>
       </c>
-      <c r="C141" s="286" t="str">
+      <c r="C141" s="284" t="str">
         <f>VLOOKUP(A141,'All products'!A:B,2,0)</f>
         <v>TECNOPOX-IN (A+B 5KG)</v>
       </c>
-      <c r="D141" s="286"/>
-      <c r="E141" s="286"/>
-      <c r="F141" s="287"/>
+      <c r="D141" s="284"/>
+      <c r="E141" s="284"/>
+      <c r="F141" s="285"/>
       <c r="G141" s="21">
         <v>1</v>
       </c>
@@ -35151,7 +35181,7 @@
       <c r="C145" s="42" t="s">
         <v>313</v>
       </c>
-      <c r="D145" s="43">
+      <c r="D145" s="333">
         <f>I141/AA141</f>
         <v>0.02</v>
       </c>
@@ -35159,7 +35189,9 @@
         <f>O145*D145</f>
         <v>9.8213248078252207</v>
       </c>
-      <c r="F145" s="45"/>
+      <c r="F145" s="45" t="s">
+        <v>782</v>
+      </c>
       <c r="G145" s="32"/>
       <c r="H145" s="32" t="str">
         <f>VLOOKUP(B145,'Full Item list'!A:B,2,0)</f>
@@ -35248,13 +35280,13 @@
       <c r="B148" s="20" t="s">
         <v>212</v>
       </c>
-      <c r="C148" s="286" t="str">
+      <c r="C148" s="284" t="str">
         <f>VLOOKUP(A148,'All products'!A:B,2,0)</f>
         <v>TECNOPOX-IN (A+B 1KG)</v>
       </c>
-      <c r="D148" s="286"/>
-      <c r="E148" s="286"/>
-      <c r="F148" s="287"/>
+      <c r="D148" s="284"/>
+      <c r="E148" s="284"/>
+      <c r="F148" s="285"/>
       <c r="G148" s="21">
         <v>1</v>
       </c>
@@ -35464,7 +35496,7 @@
       <c r="C152" s="42" t="s">
         <v>313</v>
       </c>
-      <c r="D152" s="43">
+      <c r="D152" s="333">
         <f>I148/AA148</f>
         <v>0.02</v>
       </c>
@@ -35472,7 +35504,9 @@
         <f>O152*D152</f>
         <v>9.8213248078252207</v>
       </c>
-      <c r="F152" s="45"/>
+      <c r="F152" s="45" t="s">
+        <v>782</v>
+      </c>
       <c r="G152" s="32"/>
       <c r="H152" s="32" t="str">
         <f>VLOOKUP(B152,'Full Item list'!A:B,2,0)</f>
@@ -35561,13 +35595,13 @@
       <c r="B155" s="20" t="s">
         <v>213</v>
       </c>
-      <c r="C155" s="286" t="str">
+      <c r="C155" s="284" t="str">
         <f>VLOOKUP(A155,'All products'!A:B,2,0)</f>
         <v>TECNOPOX-FL (A+B 2KG)</v>
       </c>
-      <c r="D155" s="286"/>
-      <c r="E155" s="286"/>
-      <c r="F155" s="287"/>
+      <c r="D155" s="284"/>
+      <c r="E155" s="284"/>
+      <c r="F155" s="285"/>
       <c r="G155" s="21">
         <v>1</v>
       </c>
@@ -35776,7 +35810,7 @@
       <c r="C159" s="42" t="s">
         <v>313</v>
       </c>
-      <c r="D159" s="43">
+      <c r="D159" s="333">
         <f>I155/AA155</f>
         <v>4.3478260869565216E-2</v>
       </c>
@@ -35784,7 +35818,9 @@
         <f>O159*D159</f>
         <v>21.35070610396787</v>
       </c>
-      <c r="F159" s="45"/>
+      <c r="F159" s="45" t="s">
+        <v>782</v>
+      </c>
       <c r="G159" s="32"/>
       <c r="H159" s="32" t="str">
         <f>VLOOKUP(B159,'Full Item list'!A:B,2,0)</f>
@@ -35874,13 +35910,13 @@
       <c r="B162" s="20" t="s">
         <v>214</v>
       </c>
-      <c r="C162" s="286" t="str">
+      <c r="C162" s="284" t="str">
         <f>VLOOKUP(A162,'All products'!A:B,2,0)</f>
         <v>TECNOPOX-FL (A+B 5KG)</v>
       </c>
-      <c r="D162" s="286"/>
-      <c r="E162" s="286"/>
-      <c r="F162" s="287"/>
+      <c r="D162" s="284"/>
+      <c r="E162" s="284"/>
+      <c r="F162" s="285"/>
       <c r="G162" s="21">
         <v>1</v>
       </c>
@@ -36089,7 +36125,7 @@
       <c r="C166" s="42" t="s">
         <v>313</v>
       </c>
-      <c r="D166" s="43">
+      <c r="D166" s="333">
         <f>I162/AA162</f>
         <v>8.3333333333333329E-2</v>
       </c>
@@ -36097,7 +36133,9 @@
         <f>O166*D166</f>
         <v>40.922186699271748</v>
       </c>
-      <c r="F166" s="45"/>
+      <c r="F166" s="45" t="s">
+        <v>782</v>
+      </c>
       <c r="G166" s="32"/>
       <c r="H166" s="32" t="str">
         <f>VLOOKUP(B166,'Full Item list'!A:B,2,0)</f>
@@ -36186,13 +36224,13 @@
       <c r="B169" s="20" t="s">
         <v>215</v>
       </c>
-      <c r="C169" s="286" t="str">
+      <c r="C169" s="284" t="str">
         <f>VLOOKUP(A169,'All products'!A:B,2,0)</f>
         <v>TECNOPOX-FL (A+B 10KG)</v>
       </c>
-      <c r="D169" s="286"/>
-      <c r="E169" s="286"/>
-      <c r="F169" s="287"/>
+      <c r="D169" s="284"/>
+      <c r="E169" s="284"/>
+      <c r="F169" s="285"/>
       <c r="G169" s="21">
         <v>1</v>
       </c>
@@ -36401,7 +36439,7 @@
       <c r="C173" s="42" t="s">
         <v>313</v>
       </c>
-      <c r="D173" s="43">
+      <c r="D173" s="333">
         <f>I169/AA169</f>
         <v>0.13333333333333333</v>
       </c>
@@ -36409,7 +36447,9 @@
         <f>O173*D173</f>
         <v>65.4754987188348</v>
       </c>
-      <c r="F173" s="45"/>
+      <c r="F173" s="45" t="s">
+        <v>782</v>
+      </c>
       <c r="G173" s="32"/>
       <c r="H173" s="32" t="str">
         <f>VLOOKUP(B173,'Full Item list'!A:B,2,0)</f>
@@ -36499,13 +36539,13 @@
       <c r="B176" s="20" t="s">
         <v>219</v>
       </c>
-      <c r="C176" s="286" t="str">
+      <c r="C176" s="284" t="str">
         <f>VLOOKUP(A176,'All products'!A:B,2,0)</f>
         <v>TECNOPROT-EPOX (A+B 5KG)</v>
       </c>
-      <c r="D176" s="286"/>
-      <c r="E176" s="286"/>
-      <c r="F176" s="287"/>
+      <c r="D176" s="284"/>
+      <c r="E176" s="284"/>
+      <c r="F176" s="285"/>
       <c r="G176" s="21">
         <v>1</v>
       </c>
@@ -36603,7 +36643,7 @@
         <f t="shared" ref="E178:E198" si="27">O178*D178</f>
         <v>1.1903523859045642</v>
       </c>
-      <c r="F178" s="295"/>
+      <c r="F178" s="290"/>
       <c r="G178" s="32"/>
       <c r="H178" s="32" t="str">
         <f>VLOOKUP(B178,'Full Item list'!A:B,2,0)</f>
@@ -36662,7 +36702,7 @@
         <f t="shared" si="27"/>
         <v>1.2719491220351185</v>
       </c>
-      <c r="F179" s="296"/>
+      <c r="F179" s="291"/>
       <c r="G179" s="36"/>
       <c r="H179" s="36" t="str">
         <f>VLOOKUP(B179,'Full Item list'!A:B,2,0)</f>
@@ -36721,7 +36761,7 @@
         <f t="shared" si="27"/>
         <v>3.3934642614295428E-2</v>
       </c>
-      <c r="F180" s="296"/>
+      <c r="F180" s="291"/>
       <c r="G180" s="36"/>
       <c r="H180" s="36" t="str">
         <f>VLOOKUP(B180,'Full Item list'!A:B,2,0)</f>
@@ -36780,7 +36820,7 @@
         <f t="shared" si="27"/>
         <v>1.4911403543858247E-2</v>
       </c>
-      <c r="F181" s="296"/>
+      <c r="F181" s="291"/>
       <c r="G181" s="36"/>
       <c r="H181" s="36" t="str">
         <f>VLOOKUP(B181,'Full Item list'!A:B,2,0)</f>
@@ -36839,7 +36879,7 @@
         <f t="shared" si="27"/>
         <v>4.5246190152393909E-2</v>
       </c>
-      <c r="F182" s="296"/>
+      <c r="F182" s="291"/>
       <c r="G182" s="36"/>
       <c r="H182" s="36" t="str">
         <f>VLOOKUP(B182,'Full Item list'!A:B,2,0)</f>
@@ -36898,7 +36938,7 @@
         <f t="shared" si="27"/>
         <v>2.90644374225031E-2</v>
       </c>
-      <c r="F183" s="296"/>
+      <c r="F183" s="291"/>
       <c r="G183" s="36"/>
       <c r="H183" s="36" t="str">
         <f>VLOOKUP(B183,'Full Item list'!A:B,2,0)</f>
@@ -36957,7 +36997,7 @@
         <f t="shared" si="27"/>
         <v>0.64307827686892527</v>
       </c>
-      <c r="F184" s="297"/>
+      <c r="F184" s="292"/>
       <c r="G184" s="37"/>
       <c r="H184" s="37" t="str">
         <f>VLOOKUP(B184,'Full Item list'!A:B,2,0)</f>
@@ -37016,7 +37056,7 @@
         <f t="shared" si="27"/>
         <v>2.6912523499060041E-2</v>
       </c>
-      <c r="F185" s="297"/>
+      <c r="F185" s="292"/>
       <c r="G185" s="37"/>
       <c r="H185" s="37" t="str">
         <f>VLOOKUP(B185,'Full Item list'!A:B,2,0)</f>
@@ -37075,7 +37115,7 @@
         <f t="shared" si="27"/>
         <v>0.15909763609455624</v>
       </c>
-      <c r="F186" s="297"/>
+      <c r="F186" s="292"/>
       <c r="G186" s="37"/>
       <c r="H186" s="37" t="str">
         <f>VLOOKUP(B186,'Full Item list'!A:B,2,0)</f>
@@ -37134,7 +37174,7 @@
         <f t="shared" si="27"/>
         <v>0.10933962641494341</v>
       </c>
-      <c r="F187" s="297"/>
+      <c r="F187" s="292"/>
       <c r="G187" s="37"/>
       <c r="H187" s="37" t="str">
         <f>VLOOKUP(B187,'Full Item list'!A:B,2,0)</f>
@@ -37193,7 +37233,7 @@
         <f t="shared" si="27"/>
         <v>2.951881924723011E-2</v>
       </c>
-      <c r="F188" s="298"/>
+      <c r="F188" s="293"/>
       <c r="G188" s="37"/>
       <c r="H188" s="37" t="str">
         <f>VLOOKUP(B188,'Full Item list'!A:B,2,0)</f>
@@ -37311,7 +37351,7 @@
         <f t="shared" si="27"/>
         <v>1.5121895124195034E-2</v>
       </c>
-      <c r="F190" s="295"/>
+      <c r="F190" s="290"/>
       <c r="G190" s="32"/>
       <c r="H190" s="32" t="str">
         <f>VLOOKUP(B190,'Full Item list'!A:B,2,0)</f>
@@ -37368,7 +37408,7 @@
         <f t="shared" si="27"/>
         <v>4.7948082076716943E-3</v>
       </c>
-      <c r="F191" s="296"/>
+      <c r="F191" s="291"/>
       <c r="G191" s="36"/>
       <c r="H191" s="36" t="str">
         <f>VLOOKUP(B191,'Full Item list'!A:B,2,0)</f>
@@ -37425,7 +37465,7 @@
         <f t="shared" si="27"/>
         <v>4.7948082076716943E-3</v>
       </c>
-      <c r="F192" s="296"/>
+      <c r="F192" s="291"/>
       <c r="G192" s="36"/>
       <c r="H192" s="36" t="str">
         <f>VLOOKUP(B192,'Full Item list'!A:B,2,0)</f>
@@ -37482,7 +37522,7 @@
         <f t="shared" si="27"/>
         <v>5.8973641054357838E-2</v>
       </c>
-      <c r="F193" s="296"/>
+      <c r="F193" s="291"/>
       <c r="G193" s="36"/>
       <c r="H193" s="36" t="str">
         <f>VLOOKUP(B193,'Full Item list'!A:B,2,0)</f>
@@ -37539,7 +37579,7 @@
         <f t="shared" si="27"/>
         <v>5.2697892084316626E-2</v>
       </c>
-      <c r="F194" s="296"/>
+      <c r="F194" s="291"/>
       <c r="G194" s="36"/>
       <c r="H194" s="36" t="str">
         <f>VLOOKUP(B194,'Full Item list'!A:B,2,0)</f>
@@ -37596,7 +37636,7 @@
         <f t="shared" si="27"/>
         <v>0.24909003639854413</v>
       </c>
-      <c r="F195" s="296"/>
+      <c r="F195" s="291"/>
       <c r="G195" s="36"/>
       <c r="H195" s="36" t="str">
         <f>VLOOKUP(B195,'Full Item list'!A:B,2,0)</f>
@@ -37653,7 +37693,7 @@
         <f t="shared" si="27"/>
         <v>7.3657053717851292E-2</v>
       </c>
-      <c r="F196" s="297"/>
+      <c r="F196" s="292"/>
       <c r="G196" s="37"/>
       <c r="H196" s="37" t="str">
         <f>VLOOKUP(B196,'Full Item list'!A:B,2,0)</f>
@@ -37710,7 +37750,7 @@
         <f t="shared" si="27"/>
         <v>9.6476140954361814E-2</v>
       </c>
-      <c r="F197" s="298"/>
+      <c r="F197" s="293"/>
       <c r="G197" s="37"/>
       <c r="H197" s="37" t="str">
         <f>VLOOKUP(B197,'Full Item list'!A:B,2,0)</f>
@@ -37762,7 +37802,7 @@
       <c r="C198" s="42" t="s">
         <v>313</v>
       </c>
-      <c r="D198" s="43">
+      <c r="D198" s="333">
         <f>I176/AA176</f>
         <v>0.2</v>
       </c>
@@ -37770,7 +37810,9 @@
         <f t="shared" si="27"/>
         <v>98.213248078252207</v>
       </c>
-      <c r="F198" s="45"/>
+      <c r="F198" s="45" t="s">
+        <v>782</v>
+      </c>
       <c r="G198" s="32"/>
       <c r="H198" s="32" t="str">
         <f>VLOOKUP(B198,'Full Item list'!A:B,2,0)</f>
@@ -37860,13 +37902,13 @@
       <c r="B201" s="66" t="s">
         <v>196</v>
       </c>
-      <c r="C201" s="286" t="str">
+      <c r="C201" s="284" t="str">
         <f>VLOOKUP(A201,'All products'!A:B,2,0)</f>
         <v>TECNOPINT</v>
       </c>
-      <c r="D201" s="286"/>
-      <c r="E201" s="286"/>
-      <c r="F201" s="287"/>
+      <c r="D201" s="284"/>
+      <c r="E201" s="284"/>
+      <c r="F201" s="285"/>
       <c r="G201" s="21">
         <v>1</v>
       </c>
@@ -38019,7 +38061,7 @@
       <c r="C204" s="42" t="s">
         <v>313</v>
       </c>
-      <c r="D204" s="43">
+      <c r="D204" s="333">
         <f>I201/AA201</f>
         <v>1.2500000000000001E-2</v>
       </c>
@@ -38027,7 +38069,9 @@
         <f>O204*D204</f>
         <v>6.1383280048907629</v>
       </c>
-      <c r="F204" s="45"/>
+      <c r="F204" s="45" t="s">
+        <v>782</v>
+      </c>
       <c r="G204" s="32"/>
       <c r="H204" s="32" t="str">
         <f>VLOOKUP(B204,'Full Item list'!A:B,2,0)</f>
@@ -38116,13 +38160,13 @@
       <c r="B207" s="66" t="s">
         <v>43</v>
       </c>
-      <c r="C207" s="286" t="str">
+      <c r="C207" s="284" t="str">
         <f>VLOOKUP(A207,'All products'!A:B,2,0)</f>
         <v>TECNOACRY (5KG)</v>
       </c>
-      <c r="D207" s="286"/>
-      <c r="E207" s="286"/>
-      <c r="F207" s="287"/>
+      <c r="D207" s="284"/>
+      <c r="E207" s="284"/>
+      <c r="F207" s="285"/>
       <c r="G207" s="21">
         <v>1</v>
       </c>
@@ -38220,7 +38264,7 @@
         <f>O209*D209</f>
         <v>4.8815999999999997</v>
       </c>
-      <c r="F209" s="283"/>
+      <c r="F209" s="300"/>
       <c r="G209" s="32"/>
       <c r="H209" s="32" t="str">
         <f>VLOOKUP(B209,'Full Item list'!A:B,2,0)</f>
@@ -38279,7 +38323,7 @@
         <f>O210*D210</f>
         <v>1.2753799999999999E-2</v>
       </c>
-      <c r="F210" s="285"/>
+      <c r="F210" s="303"/>
       <c r="G210" s="37"/>
       <c r="H210" s="37" t="str">
         <f>VLOOKUP(B210,'Full Item list'!A:B,2,0)</f>
@@ -38328,7 +38372,7 @@
       <c r="C211" s="42" t="s">
         <v>313</v>
       </c>
-      <c r="D211" s="43">
+      <c r="D211" s="333">
         <f>I207/AA207</f>
         <v>0.05</v>
       </c>
@@ -38336,7 +38380,9 @@
         <f>O211*D211</f>
         <v>24.553312019563052</v>
       </c>
-      <c r="F211" s="45"/>
+      <c r="F211" s="45" t="s">
+        <v>782</v>
+      </c>
       <c r="G211" s="32"/>
       <c r="H211" s="32" t="str">
         <f>VLOOKUP(B211,'Full Item list'!A:B,2,0)</f>
@@ -38426,13 +38472,13 @@
       <c r="B214" s="66" t="s">
         <v>61</v>
       </c>
-      <c r="C214" s="286" t="str">
+      <c r="C214" s="284" t="str">
         <f>VLOOKUP(A214,'All products'!A:B,2,0)</f>
         <v>TECNOACRY (25KG)</v>
       </c>
-      <c r="D214" s="286"/>
-      <c r="E214" s="286"/>
-      <c r="F214" s="287"/>
+      <c r="D214" s="284"/>
+      <c r="E214" s="284"/>
+      <c r="F214" s="285"/>
       <c r="G214" s="21">
         <v>1</v>
       </c>
@@ -38530,7 +38576,7 @@
         <f>O216*D216</f>
         <v>24.407999999999998</v>
       </c>
-      <c r="F216" s="283"/>
+      <c r="F216" s="300"/>
       <c r="G216" s="32"/>
       <c r="H216" s="32" t="str">
         <f>VLOOKUP(B216,'Full Item list'!A:B,2,0)</f>
@@ -38589,7 +38635,7 @@
         <f>O217*D217</f>
         <v>6.3769000000000006E-2</v>
       </c>
-      <c r="F217" s="285"/>
+      <c r="F217" s="303"/>
       <c r="G217" s="37"/>
       <c r="H217" s="37" t="str">
         <f>VLOOKUP(B217,'Full Item list'!A:B,2,0)</f>
@@ -38638,7 +38684,7 @@
       <c r="C218" s="42" t="s">
         <v>313</v>
       </c>
-      <c r="D218" s="43">
+      <c r="D218" s="333">
         <f>I214/AA214</f>
         <v>7.6923076923076927E-2</v>
       </c>
@@ -38646,7 +38692,9 @@
         <f>O218*D218</f>
         <v>37.77432618394316</v>
       </c>
-      <c r="F218" s="45"/>
+      <c r="F218" s="45" t="s">
+        <v>782</v>
+      </c>
       <c r="G218" s="32"/>
       <c r="H218" s="32" t="str">
         <f>VLOOKUP(B218,'Full Item list'!A:B,2,0)</f>
@@ -38735,13 +38783,13 @@
       <c r="B221" s="66" t="s">
         <v>63</v>
       </c>
-      <c r="C221" s="286" t="str">
+      <c r="C221" s="284" t="str">
         <f>VLOOKUP(A221,'All products'!A:B,2,0)</f>
         <v>TECNOACRY (200KG)</v>
       </c>
-      <c r="D221" s="286"/>
-      <c r="E221" s="286"/>
-      <c r="F221" s="287"/>
+      <c r="D221" s="284"/>
+      <c r="E221" s="284"/>
+      <c r="F221" s="285"/>
       <c r="G221" s="21">
         <v>1</v>
       </c>
@@ -38845,7 +38893,7 @@
         <f>O223*D223</f>
         <v>195.26399999999998</v>
       </c>
-      <c r="F223" s="283"/>
+      <c r="F223" s="300"/>
       <c r="G223" s="32"/>
       <c r="H223" s="32" t="str">
         <f>VLOOKUP(B223,'Full Item list'!A:B,2,0)</f>
@@ -38904,7 +38952,7 @@
         <f>O224*D224</f>
         <v>0.51015199999999994</v>
       </c>
-      <c r="F224" s="285"/>
+      <c r="F224" s="303"/>
       <c r="G224" s="37"/>
       <c r="H224" s="37" t="str">
         <f>VLOOKUP(B224,'Full Item list'!A:B,2,0)</f>
@@ -38953,7 +39001,7 @@
       <c r="C225" s="42" t="s">
         <v>313</v>
       </c>
-      <c r="D225" s="43">
+      <c r="D225" s="333">
         <f>I221/AA221</f>
         <v>0.33333333333333331</v>
       </c>
@@ -38961,7 +39009,9 @@
         <f>O225*D225</f>
         <v>163.68874679708699</v>
       </c>
-      <c r="F225" s="45"/>
+      <c r="F225" s="45" t="s">
+        <v>782</v>
+      </c>
       <c r="G225" s="32"/>
       <c r="H225" s="32" t="str">
         <f>VLOOKUP(B225,'Full Item list'!A:B,2,0)</f>
@@ -39050,13 +39100,13 @@
       <c r="B228" s="66" t="s">
         <v>104</v>
       </c>
-      <c r="C228" s="286" t="str">
+      <c r="C228" s="284" t="str">
         <f>VLOOKUP(A228,'All products'!A:B,2,0)</f>
         <v>TECNODIL-R (5L)</v>
       </c>
-      <c r="D228" s="286"/>
-      <c r="E228" s="286"/>
-      <c r="F228" s="287"/>
+      <c r="D228" s="284"/>
+      <c r="E228" s="284"/>
+      <c r="F228" s="285"/>
       <c r="G228" s="21">
         <v>1</v>
       </c>
@@ -39213,7 +39263,7 @@
       <c r="C231" s="42" t="s">
         <v>313</v>
       </c>
-      <c r="D231" s="43">
+      <c r="D231" s="333">
         <f>I228/AA228</f>
         <v>3.3206106870229006E-2</v>
       </c>
@@ -39221,7 +39271,9 @@
         <f>O231*D231</f>
         <v>16.306398058793782</v>
       </c>
-      <c r="F231" s="45"/>
+      <c r="F231" s="45" t="s">
+        <v>782</v>
+      </c>
       <c r="G231" s="32"/>
       <c r="H231" s="32" t="str">
         <f>VLOOKUP(B231,'Full Item list'!A:B,2,0)</f>
@@ -39310,13 +39362,13 @@
       <c r="B234" s="66" t="s">
         <v>105</v>
       </c>
-      <c r="C234" s="286" t="str">
+      <c r="C234" s="284" t="str">
         <f>VLOOKUP(A234,'All products'!A:B,2,0)</f>
         <v>TECNODIL-R (10L)</v>
       </c>
-      <c r="D234" s="286"/>
-      <c r="E234" s="286"/>
-      <c r="F234" s="287"/>
+      <c r="D234" s="284"/>
+      <c r="E234" s="284"/>
+      <c r="F234" s="285"/>
       <c r="G234" s="21">
         <v>1</v>
       </c>
@@ -39473,7 +39525,7 @@
       <c r="C237" s="42" t="s">
         <v>313</v>
       </c>
-      <c r="D237" s="43">
+      <c r="D237" s="333">
         <f>I234/AA234</f>
         <v>4.9714285714285711E-2</v>
       </c>
@@ -39481,7 +39533,9 @@
         <f>O237*D237</f>
         <v>24.413007379451262</v>
       </c>
-      <c r="F237" s="45"/>
+      <c r="F237" s="45" t="s">
+        <v>782</v>
+      </c>
       <c r="G237" s="32"/>
       <c r="H237" s="32" t="str">
         <f>VLOOKUP(B237,'Full Item list'!A:B,2,0)</f>
@@ -39571,13 +39625,13 @@
       <c r="B240" s="66" t="s">
         <v>106</v>
       </c>
-      <c r="C240" s="286" t="str">
+      <c r="C240" s="284" t="str">
         <f>VLOOKUP(A240,'All products'!A:B,2,0)</f>
         <v>TECNODIL-R (25L)</v>
       </c>
-      <c r="D240" s="286"/>
-      <c r="E240" s="286"/>
-      <c r="F240" s="287"/>
+      <c r="D240" s="284"/>
+      <c r="E240" s="284"/>
+      <c r="F240" s="285"/>
       <c r="G240" s="21">
         <v>1</v>
       </c>
@@ -39728,7 +39782,7 @@
       <c r="C243" s="42" t="s">
         <v>313</v>
       </c>
-      <c r="D243" s="43">
+      <c r="D243" s="333">
         <f>I240/AA240</f>
         <v>8.3333333333333329E-2</v>
       </c>
@@ -39736,7 +39790,9 @@
         <f>O243*D243</f>
         <v>40.922186699271748</v>
       </c>
-      <c r="F243" s="45"/>
+      <c r="F243" s="45" t="s">
+        <v>782</v>
+      </c>
       <c r="G243" s="32"/>
       <c r="H243" s="32" t="str">
         <f>VLOOKUP(B243,'Full Item list'!A:B,2,0)</f>
@@ -39826,13 +39882,13 @@
       <c r="B246" s="66" t="s">
         <v>225</v>
       </c>
-      <c r="C246" s="286" t="str">
+      <c r="C246" s="284" t="str">
         <f>VLOOKUP(A246,'All products'!A:B,2,0)</f>
         <v>AGENTE TIXOTRÓPICO (10KG)</v>
       </c>
-      <c r="D246" s="286"/>
-      <c r="E246" s="286"/>
-      <c r="F246" s="287"/>
+      <c r="D246" s="284"/>
+      <c r="E246" s="284"/>
+      <c r="F246" s="285"/>
       <c r="G246" s="21">
         <v>1</v>
       </c>
@@ -39982,7 +40038,7 @@
       <c r="C249" s="42" t="s">
         <v>313</v>
       </c>
-      <c r="D249" s="43">
+      <c r="D249" s="333">
         <f>I246/AA246</f>
         <v>0.04</v>
       </c>
@@ -39990,7 +40046,9 @@
         <f>O249*D249</f>
         <v>19.642649615650441</v>
       </c>
-      <c r="F249" s="45"/>
+      <c r="F249" s="45" t="s">
+        <v>782</v>
+      </c>
       <c r="G249" s="32"/>
       <c r="H249" s="32" t="str">
         <f>VLOOKUP(B249,'Full Item list'!A:B,2,0)</f>
@@ -40079,13 +40137,13 @@
       <c r="B252" s="66" t="s">
         <v>226</v>
       </c>
-      <c r="C252" s="286" t="str">
+      <c r="C252" s="284" t="str">
         <f>VLOOKUP(A252,'All products'!A:B,2,0)</f>
         <v>AGENTE TIXOTRÓPICO (20KG)</v>
       </c>
-      <c r="D252" s="286"/>
-      <c r="E252" s="286"/>
-      <c r="F252" s="287"/>
+      <c r="D252" s="284"/>
+      <c r="E252" s="284"/>
+      <c r="F252" s="285"/>
       <c r="G252" s="21">
         <v>1</v>
       </c>
@@ -40235,7 +40293,7 @@
       <c r="C255" s="42" t="s">
         <v>313</v>
       </c>
-      <c r="D255" s="43">
+      <c r="D255" s="333">
         <f>I252/AA252</f>
         <v>0.02</v>
       </c>
@@ -40243,7 +40301,9 @@
         <f>O255*D255</f>
         <v>9.8213248078252207</v>
       </c>
-      <c r="F255" s="45"/>
+      <c r="F255" s="45" t="s">
+        <v>782</v>
+      </c>
       <c r="G255" s="32"/>
       <c r="H255" s="32" t="str">
         <f>VLOOKUP(B255,'Full Item list'!A:B,2,0)</f>
@@ -40333,13 +40393,13 @@
       <c r="B258" s="20" t="s">
         <v>149</v>
       </c>
-      <c r="C258" s="286" t="str">
+      <c r="C258" s="284" t="str">
         <f>VLOOKUP(A258,'All products'!A:B,2,0)</f>
         <v>TECNOGROUT-N (25KG)</v>
       </c>
-      <c r="D258" s="286"/>
-      <c r="E258" s="286"/>
-      <c r="F258" s="287"/>
+      <c r="D258" s="284"/>
+      <c r="E258" s="284"/>
+      <c r="F258" s="285"/>
       <c r="G258" s="21">
         <v>1</v>
       </c>
@@ -40543,13 +40603,13 @@
       <c r="B263" s="20" t="s">
         <v>502</v>
       </c>
-      <c r="C263" s="286" t="str">
+      <c r="C263" s="284" t="str">
         <f>VLOOKUP(A263,'All products'!A:B,2,0)</f>
         <v>TECNOGROUT-N (KG)</v>
       </c>
-      <c r="D263" s="286"/>
-      <c r="E263" s="286"/>
-      <c r="F263" s="287"/>
+      <c r="D263" s="284"/>
+      <c r="E263" s="284"/>
+      <c r="F263" s="285"/>
       <c r="G263" s="21">
         <f>Q263</f>
         <v>1013.8</v>
@@ -40655,7 +40715,7 @@
         <f t="shared" ref="E265:E271" si="38">O265*D265</f>
         <v>36</v>
       </c>
-      <c r="F265" s="288"/>
+      <c r="F265" s="294"/>
       <c r="G265" s="36"/>
       <c r="H265" s="36" t="str">
         <f>VLOOKUP(B265,'Full Item list'!A:B,2,0)</f>
@@ -40718,7 +40778,7 @@
         <f t="shared" si="38"/>
         <v>5.2500000000000009</v>
       </c>
-      <c r="F266" s="289"/>
+      <c r="F266" s="287"/>
       <c r="G266" s="36"/>
       <c r="H266" s="36" t="str">
         <f>VLOOKUP(B266,'Full Item list'!A:B,2,0)</f>
@@ -40781,7 +40841,7 @@
         <f t="shared" si="38"/>
         <v>5.2500000000000009</v>
       </c>
-      <c r="F267" s="289"/>
+      <c r="F267" s="287"/>
       <c r="G267" s="36"/>
       <c r="H267" s="36" t="str">
         <f>VLOOKUP(B267,'Full Item list'!A:B,2,0)</f>
@@ -40844,7 +40904,7 @@
         <f t="shared" si="38"/>
         <v>4.8</v>
       </c>
-      <c r="F268" s="289"/>
+      <c r="F268" s="287"/>
       <c r="G268" s="36"/>
       <c r="H268" s="36" t="str">
         <f>VLOOKUP(B268,'Full Item list'!A:B,2,0)</f>
@@ -40907,7 +40967,7 @@
         <f t="shared" si="38"/>
         <v>7.0000000000000009</v>
       </c>
-      <c r="F269" s="289"/>
+      <c r="F269" s="287"/>
       <c r="G269" s="36"/>
       <c r="H269" s="36" t="str">
         <f>VLOOKUP(B269,'Full Item list'!A:B,2,0)</f>
@@ -40970,7 +41030,7 @@
         <f t="shared" ca="1" si="38"/>
         <v>11.904932831691932</v>
       </c>
-      <c r="F270" s="290"/>
+      <c r="F270" s="295"/>
       <c r="G270" s="36"/>
       <c r="H270" s="36" t="str">
         <f>VLOOKUP(B270,'Full Item list'!A:B,2,0)</f>
@@ -41028,7 +41088,7 @@
       <c r="C271" s="42" t="s">
         <v>312</v>
       </c>
-      <c r="D271" s="43">
+      <c r="D271" s="333">
         <f>G263/AA258</f>
         <v>0.25345000000000001</v>
       </c>
@@ -41036,7 +41096,9 @@
         <f t="shared" si="38"/>
         <v>124.46073862716511</v>
       </c>
-      <c r="F271" s="45"/>
+      <c r="F271" s="45" t="s">
+        <v>782</v>
+      </c>
       <c r="G271" s="32"/>
       <c r="H271" s="32" t="str">
         <f>VLOOKUP(B271,'Full Item list'!A:B,2,0)</f>
@@ -41126,13 +41188,13 @@
       <c r="B274" s="20" t="s">
         <v>155</v>
       </c>
-      <c r="C274" s="286" t="str">
+      <c r="C274" s="284" t="str">
         <f>VLOOKUP(A274,'All products'!A:B,2,0)</f>
         <v>TECNOGROUT-SR (25KG)</v>
       </c>
-      <c r="D274" s="286"/>
-      <c r="E274" s="286"/>
-      <c r="F274" s="287"/>
+      <c r="D274" s="284"/>
+      <c r="E274" s="284"/>
+      <c r="F274" s="285"/>
       <c r="G274" s="21">
         <v>1</v>
       </c>
@@ -41362,13 +41424,13 @@
       <c r="B280" s="20" t="s">
         <v>574</v>
       </c>
-      <c r="C280" s="286" t="str">
+      <c r="C280" s="284" t="str">
         <f>VLOOKUP(A280,'All products'!A:B,2,0)</f>
         <v>TECNOGROUT-SR (KG)</v>
       </c>
-      <c r="D280" s="286"/>
-      <c r="E280" s="286"/>
-      <c r="F280" s="287"/>
+      <c r="D280" s="284"/>
+      <c r="E280" s="284"/>
+      <c r="F280" s="285"/>
       <c r="G280" s="21">
         <f>Q280</f>
         <v>1013.8</v>
@@ -41474,7 +41536,7 @@
         <f t="shared" ref="E282:E288" si="42">O282*D282</f>
         <v>36</v>
       </c>
-      <c r="F282" s="288"/>
+      <c r="F282" s="294"/>
       <c r="H282" s="36" t="str">
         <f>VLOOKUP(B282,'Full Item list'!A:B,2,0)</f>
         <v>CE-080</v>
@@ -41532,7 +41594,7 @@
         <f t="shared" si="42"/>
         <v>5.2500000000000009</v>
       </c>
-      <c r="F283" s="289"/>
+      <c r="F283" s="287"/>
       <c r="H283" s="36" t="str">
         <f>VLOOKUP(B283,'Full Item list'!A:B,2,0)</f>
         <v>FS-550</v>
@@ -41590,7 +41652,7 @@
         <f t="shared" si="42"/>
         <v>5.2500000000000009</v>
       </c>
-      <c r="F284" s="289"/>
+      <c r="F284" s="287"/>
       <c r="H284" s="36" t="str">
         <f>VLOOKUP(B284,'Full Item list'!A:B,2,0)</f>
         <v>FS-560</v>
@@ -41648,7 +41710,7 @@
         <f t="shared" si="42"/>
         <v>4.8</v>
       </c>
-      <c r="F285" s="289"/>
+      <c r="F285" s="287"/>
       <c r="H285" s="36" t="str">
         <f>VLOOKUP(B285,'Full Item list'!A:B,2,0)</f>
         <v>FS-570</v>
@@ -41706,7 +41768,7 @@
         <f t="shared" si="42"/>
         <v>7.0000000000000009</v>
       </c>
-      <c r="F286" s="289"/>
+      <c r="F286" s="287"/>
       <c r="H286" s="36" t="str">
         <f>VLOOKUP(B286,'Full Item list'!A:B,2,0)</f>
         <v>FS-580</v>
@@ -41764,7 +41826,7 @@
         <f t="shared" ca="1" si="42"/>
         <v>11.904932831691932</v>
       </c>
-      <c r="F287" s="290"/>
+      <c r="F287" s="295"/>
       <c r="H287" s="36" t="str">
         <f>VLOOKUP(B287,'Full Item list'!A:B,2,0)</f>
         <v>SPMO001</v>
@@ -41817,7 +41879,7 @@
       <c r="C288" s="42" t="s">
         <v>312</v>
       </c>
-      <c r="D288" s="43">
+      <c r="D288" s="333">
         <f>G280/AA274</f>
         <v>0.25345000000000001</v>
       </c>
@@ -41825,7 +41887,9 @@
         <f t="shared" si="42"/>
         <v>124.46073862716511</v>
       </c>
-      <c r="F288" s="45"/>
+      <c r="F288" s="45" t="s">
+        <v>782</v>
+      </c>
       <c r="G288" s="32"/>
       <c r="H288" s="32" t="str">
         <f>VLOOKUP(B288,'Full Item list'!A:B,2,0)</f>
@@ -41915,13 +41979,13 @@
       <c r="B291" s="20" t="s">
         <v>152</v>
       </c>
-      <c r="C291" s="286" t="str">
+      <c r="C291" s="284" t="str">
         <f>VLOOKUP(A291,'All products'!A:B,2,0)</f>
         <v>TECNOGROUT-N/PR (25KG)</v>
       </c>
-      <c r="D291" s="286"/>
-      <c r="E291" s="286"/>
-      <c r="F291" s="287"/>
+      <c r="D291" s="284"/>
+      <c r="E291" s="284"/>
+      <c r="F291" s="285"/>
       <c r="G291" s="21">
         <v>1</v>
       </c>
@@ -42128,13 +42192,13 @@
       <c r="B296" s="20" t="s">
         <v>575</v>
       </c>
-      <c r="C296" s="292" t="str">
+      <c r="C296" s="305" t="str">
         <f>VLOOKUP(A296,'All products'!A:B,2,0)</f>
         <v>TECNOGROUT-N/PR (KG)</v>
       </c>
-      <c r="D296" s="293"/>
-      <c r="E296" s="293"/>
-      <c r="F296" s="294"/>
+      <c r="D296" s="306"/>
+      <c r="E296" s="306"/>
+      <c r="F296" s="307"/>
       <c r="G296" s="21">
         <f>Q296</f>
         <v>1003.43</v>
@@ -42240,7 +42304,7 @@
         <f t="shared" ref="E298:E303" si="45">O298*D298</f>
         <v>11.555</v>
       </c>
-      <c r="F298" s="301"/>
+      <c r="F298" s="296"/>
       <c r="H298" s="36" t="str">
         <f>VLOOKUP(B298,'Full Item list'!A:B,2,0)</f>
         <v>CE-070</v>
@@ -42298,7 +42362,7 @@
         <f t="shared" si="45"/>
         <v>30</v>
       </c>
-      <c r="F299" s="302"/>
+      <c r="F299" s="297"/>
       <c r="H299" s="36" t="str">
         <f>VLOOKUP(B299,'Full Item list'!A:B,2,0)</f>
         <v>CE-080</v>
@@ -42356,7 +42420,7 @@
         <f t="shared" si="45"/>
         <v>10.500000000000002</v>
       </c>
-      <c r="F300" s="302"/>
+      <c r="F300" s="297"/>
       <c r="H300" s="36" t="str">
         <f>VLOOKUP(B300,'Full Item list'!A:B,2,0)</f>
         <v>FS-550</v>
@@ -42414,7 +42478,7 @@
         <f t="shared" si="45"/>
         <v>12.250000000000002</v>
       </c>
-      <c r="F301" s="302"/>
+      <c r="F301" s="297"/>
       <c r="H301" s="36" t="str">
         <f>VLOOKUP(B301,'Full Item list'!A:B,2,0)</f>
         <v>FS-560</v>
@@ -42472,7 +42536,7 @@
         <f t="shared" ca="1" si="45"/>
         <v>10.745768319132457</v>
       </c>
-      <c r="F302" s="303"/>
+      <c r="F302" s="298"/>
       <c r="H302" s="36" t="str">
         <f>VLOOKUP(B302,'Full Item list'!A:B,2,0)</f>
         <v>SPMO001</v>
@@ -42525,7 +42589,7 @@
       <c r="C303" s="42" t="s">
         <v>312</v>
       </c>
-      <c r="D303" s="43">
+      <c r="D303" s="333">
         <f>G296/AA291</f>
         <v>0.25085750000000001</v>
       </c>
@@ -42533,7 +42597,9 @@
         <f t="shared" si="45"/>
         <v>123.18764939895077</v>
       </c>
-      <c r="F303" s="45"/>
+      <c r="F303" s="45" t="s">
+        <v>782</v>
+      </c>
       <c r="G303" s="32"/>
       <c r="H303" s="32" t="str">
         <f>VLOOKUP(B303,'Full Item list'!A:B,2,0)</f>
@@ -42623,13 +42689,13 @@
       <c r="B306" s="20" t="s">
         <v>154</v>
       </c>
-      <c r="C306" s="286" t="str">
+      <c r="C306" s="284" t="str">
         <f>VLOOKUP(A306,'All products'!A:B,2,0)</f>
         <v>TECNOGROUT-N/GR (25KG)</v>
       </c>
-      <c r="D306" s="286"/>
-      <c r="E306" s="286"/>
-      <c r="F306" s="287"/>
+      <c r="D306" s="284"/>
+      <c r="E306" s="284"/>
+      <c r="F306" s="285"/>
       <c r="G306" s="21">
         <v>1</v>
       </c>
@@ -42836,13 +42902,13 @@
       <c r="B311" s="20" t="s">
         <v>576</v>
       </c>
-      <c r="C311" s="286" t="str">
+      <c r="C311" s="284" t="str">
         <f>VLOOKUP(A311,'All products'!A:B,2,0)</f>
         <v>TECNOGROUT-N/GR (KG)</v>
       </c>
-      <c r="D311" s="286"/>
-      <c r="E311" s="286"/>
-      <c r="F311" s="287"/>
+      <c r="D311" s="284"/>
+      <c r="E311" s="284"/>
+      <c r="F311" s="285"/>
       <c r="G311" s="21">
         <f>Q311</f>
         <v>1053.0999999999999</v>
@@ -42948,7 +43014,7 @@
         <f t="shared" ref="E313:E320" si="48">O313*D313</f>
         <v>30</v>
       </c>
-      <c r="F313" s="301"/>
+      <c r="F313" s="296"/>
       <c r="H313" s="36" t="str">
         <f>VLOOKUP(B313,'Full Item list'!A:B,2,0)</f>
         <v>CE-080</v>
@@ -43006,7 +43072,7 @@
         <f t="shared" si="48"/>
         <v>4.375</v>
       </c>
-      <c r="F314" s="302"/>
+      <c r="F314" s="297"/>
       <c r="H314" s="36" t="str">
         <f>VLOOKUP(B314,'Full Item list'!A:B,2,0)</f>
         <v>FS-550</v>
@@ -43064,7 +43130,7 @@
         <f t="shared" si="48"/>
         <v>4.375</v>
       </c>
-      <c r="F315" s="302"/>
+      <c r="F315" s="297"/>
       <c r="H315" s="36" t="str">
         <f>VLOOKUP(B315,'Full Item list'!A:B,2,0)</f>
         <v>FS-560</v>
@@ -43122,7 +43188,7 @@
         <f t="shared" si="48"/>
         <v>4.8</v>
       </c>
-      <c r="F316" s="302"/>
+      <c r="F316" s="297"/>
       <c r="H316" s="36" t="str">
         <f>VLOOKUP(B316,'Full Item list'!A:B,2,0)</f>
         <v>FS-570</v>
@@ -43180,7 +43246,7 @@
         <f t="shared" si="48"/>
         <v>5.2500000000000009</v>
       </c>
-      <c r="F317" s="302"/>
+      <c r="F317" s="297"/>
       <c r="H317" s="36" t="str">
         <f>VLOOKUP(B317,'Full Item list'!A:B,2,0)</f>
         <v>FS-580</v>
@@ -43238,7 +43304,7 @@
         <f t="shared" si="48"/>
         <v>7.0000000000000009</v>
       </c>
-      <c r="F318" s="302"/>
+      <c r="F318" s="297"/>
       <c r="H318" s="36" t="str">
         <f>VLOOKUP(B318,'Full Item list'!A:B,2,0)</f>
         <v>FS-590</v>
@@ -43296,7 +43362,7 @@
         <f t="shared" ca="1" si="48"/>
         <v>9.7119188890118409</v>
       </c>
-      <c r="F319" s="303"/>
+      <c r="F319" s="298"/>
       <c r="H319" s="36" t="str">
         <f>VLOOKUP(B319,'Full Item list'!A:B,2,0)</f>
         <v>SPMO001</v>
@@ -43349,7 +43415,7 @@
       <c r="C320" s="42" t="s">
         <v>312</v>
       </c>
-      <c r="D320" s="43">
+      <c r="D320" s="333">
         <f>G311/AA306</f>
         <v>0.26327499999999998</v>
       </c>
@@ -43357,7 +43423,9 @@
         <f t="shared" si="48"/>
         <v>129.28546443900925</v>
       </c>
-      <c r="F320" s="45"/>
+      <c r="F320" s="45" t="s">
+        <v>782</v>
+      </c>
       <c r="G320" s="32"/>
       <c r="H320" s="32" t="str">
         <f>VLOOKUP(B320,'Full Item list'!A:B,2,0)</f>
@@ -43447,13 +43515,13 @@
       <c r="B323" s="20" t="s">
         <v>163</v>
       </c>
-      <c r="C323" s="286" t="str">
+      <c r="C323" s="284" t="str">
         <f>VLOOKUP(A323,'All products'!A:B,2,0)</f>
         <v>TECNOGROUT-IN (20KG)</v>
       </c>
-      <c r="D323" s="286"/>
-      <c r="E323" s="286"/>
-      <c r="F323" s="287"/>
+      <c r="D323" s="284"/>
+      <c r="E323" s="284"/>
+      <c r="F323" s="285"/>
       <c r="G323" s="21">
         <v>1</v>
       </c>
@@ -43660,13 +43728,13 @@
       <c r="B328" s="20" t="s">
         <v>577</v>
       </c>
-      <c r="C328" s="286" t="str">
+      <c r="C328" s="284" t="str">
         <f>VLOOKUP(A328,'All products'!A:B,2,0)</f>
         <v>TECNOGROUT-IN (KG)</v>
       </c>
-      <c r="D328" s="286"/>
-      <c r="E328" s="286"/>
-      <c r="F328" s="287"/>
+      <c r="D328" s="284"/>
+      <c r="E328" s="284"/>
+      <c r="F328" s="285"/>
       <c r="G328" s="21">
         <f>Q328</f>
         <v>1005.13</v>
@@ -43772,7 +43840,7 @@
         <f>O330*D330</f>
         <v>80</v>
       </c>
-      <c r="F330" s="288"/>
+      <c r="F330" s="294"/>
       <c r="H330" s="36" t="str">
         <f>VLOOKUP(B330,'Full Item list'!A:B,2,0)</f>
         <v>CE-080</v>
@@ -43830,7 +43898,7 @@
         <f>O331*D331</f>
         <v>11.5</v>
       </c>
-      <c r="F331" s="289"/>
+      <c r="F331" s="287"/>
       <c r="H331" s="36" t="str">
         <f>VLOOKUP(B331,'Full Item list'!A:B,2,0)</f>
         <v>FS-540</v>
@@ -43888,7 +43956,7 @@
         <f ca="1">O332*D332</f>
         <v>13.958218296713978</v>
       </c>
-      <c r="F332" s="290"/>
+      <c r="F332" s="295"/>
       <c r="H332" s="36" t="str">
         <f>VLOOKUP(B332,'Full Item list'!A:B,2,0)</f>
         <v>SPMO003</v>
@@ -43941,7 +44009,7 @@
       <c r="C333" s="42" t="s">
         <v>312</v>
       </c>
-      <c r="D333" s="43">
+      <c r="D333" s="333">
         <f>G328/AA323</f>
         <v>0.25128250000000002</v>
       </c>
@@ -43949,7 +44017,9 @@
         <f>O333*D333</f>
         <v>123.39635255111706</v>
       </c>
-      <c r="F333" s="45"/>
+      <c r="F333" s="45" t="s">
+        <v>782</v>
+      </c>
       <c r="G333" s="32"/>
       <c r="H333" s="32" t="str">
         <f>VLOOKUP(B333,'Full Item list'!A:B,2,0)</f>
@@ -44039,13 +44109,13 @@
       <c r="B336" s="20" t="s">
         <v>578</v>
       </c>
-      <c r="C336" s="286" t="str">
+      <c r="C336" s="284" t="str">
         <f>VLOOKUP(A336,'All products'!A:B,2,0)</f>
         <v>FERROGROUT-A (25KG)</v>
       </c>
-      <c r="D336" s="286"/>
-      <c r="E336" s="286"/>
-      <c r="F336" s="287"/>
+      <c r="D336" s="284"/>
+      <c r="E336" s="284"/>
+      <c r="F336" s="285"/>
       <c r="G336" s="21">
         <v>1</v>
       </c>
@@ -44252,13 +44322,13 @@
       <c r="B341" s="20" t="s">
         <v>579</v>
       </c>
-      <c r="C341" s="286" t="str">
+      <c r="C341" s="284" t="str">
         <f>VLOOKUP(A341,'All products'!A:B,2,0)</f>
         <v>FERROGROUT-A (KG)</v>
       </c>
-      <c r="D341" s="286"/>
-      <c r="E341" s="286"/>
-      <c r="F341" s="287"/>
+      <c r="D341" s="284"/>
+      <c r="E341" s="284"/>
+      <c r="F341" s="285"/>
       <c r="G341" s="21">
         <f>Q341</f>
         <v>1072.7</v>
@@ -44361,7 +44431,7 @@
         <f t="shared" ref="E343:E351" si="51">O343*D343</f>
         <v>17.3325</v>
       </c>
-      <c r="F343" s="301"/>
+      <c r="F343" s="296"/>
       <c r="H343" s="36" t="str">
         <f>VLOOKUP(B343,'Full Item list'!A:B,2,0)</f>
         <v>CE-070</v>
@@ -44419,7 +44489,7 @@
         <f t="shared" si="51"/>
         <v>20</v>
       </c>
-      <c r="F344" s="306"/>
+      <c r="F344" s="299"/>
       <c r="H344" s="36" t="str">
         <f>VLOOKUP(B344,'Full Item list'!A:B,2,0)</f>
         <v>CE-080</v>
@@ -44477,7 +44547,7 @@
         <f t="shared" si="51"/>
         <v>3.5000000000000004</v>
       </c>
-      <c r="F345" s="302"/>
+      <c r="F345" s="297"/>
       <c r="H345" s="36" t="str">
         <f>VLOOKUP(B345,'Full Item list'!A:B,2,0)</f>
         <v>FS-550</v>
@@ -44535,7 +44605,7 @@
         <f t="shared" si="51"/>
         <v>8.75</v>
       </c>
-      <c r="F346" s="302"/>
+      <c r="F346" s="297"/>
       <c r="H346" s="36" t="str">
         <f>VLOOKUP(B346,'Full Item list'!A:B,2,0)</f>
         <v>FS-560</v>
@@ -44593,7 +44663,7 @@
         <f t="shared" si="51"/>
         <v>7.2</v>
       </c>
-      <c r="F347" s="302"/>
+      <c r="F347" s="297"/>
       <c r="H347" s="36" t="str">
         <f>VLOOKUP(B347,'Full Item list'!A:B,2,0)</f>
         <v>FS-570</v>
@@ -44651,7 +44721,7 @@
         <f t="shared" si="51"/>
         <v>7.0000000000000009</v>
       </c>
-      <c r="F348" s="302"/>
+      <c r="F348" s="297"/>
       <c r="H348" s="36" t="str">
         <f>VLOOKUP(B348,'Full Item list'!A:B,2,0)</f>
         <v>FS-580</v>
@@ -44709,7 +44779,7 @@
         <f t="shared" si="51"/>
         <v>26.400000000000002</v>
       </c>
-      <c r="F349" s="302"/>
+      <c r="F349" s="297"/>
       <c r="H349" s="36" t="str">
         <f>VLOOKUP(B349,'Full Item list'!A:B,2,0)</f>
         <v>FL-010</v>
@@ -44768,7 +44838,7 @@
         <f t="shared" ca="1" si="51"/>
         <v>8.4587680646232162</v>
       </c>
-      <c r="F350" s="303"/>
+      <c r="F350" s="298"/>
       <c r="H350" s="36" t="str">
         <f>VLOOKUP(B350,'Full Item list'!A:B,2,0)</f>
         <v>SPMO001</v>
@@ -44821,7 +44891,7 @@
       <c r="C351" s="42" t="s">
         <v>312</v>
       </c>
-      <c r="D351" s="43">
+      <c r="D351" s="333">
         <f>G341/AA336</f>
         <v>1.0727</v>
       </c>
@@ -44829,7 +44899,9 @@
         <f t="shared" si="51"/>
         <v>526.76675606770573</v>
       </c>
-      <c r="F351" s="45"/>
+      <c r="F351" s="45" t="s">
+        <v>782</v>
+      </c>
       <c r="G351" s="32"/>
       <c r="H351" s="32" t="str">
         <f>VLOOKUP(B351,'Full Item list'!A:B,2,0)</f>
@@ -44919,13 +44991,13 @@
       <c r="B354" s="20" t="s">
         <v>159</v>
       </c>
-      <c r="C354" s="286" t="str">
+      <c r="C354" s="284" t="str">
         <f>VLOOKUP(A354,'All products'!A:B,2,0)</f>
         <v>FERROGROUT-A NEGRO (25KG)</v>
       </c>
-      <c r="D354" s="286"/>
-      <c r="E354" s="286"/>
-      <c r="F354" s="287"/>
+      <c r="D354" s="284"/>
+      <c r="E354" s="284"/>
+      <c r="F354" s="285"/>
       <c r="G354" s="21">
         <v>1</v>
       </c>
@@ -45132,13 +45204,13 @@
       <c r="B359" s="20" t="s">
         <v>580</v>
       </c>
-      <c r="C359" s="286" t="str">
+      <c r="C359" s="284" t="str">
         <f>VLOOKUP(A359,'All products'!A:B,2,0)</f>
         <v>FERROGROUT-A NEGRO (KG)</v>
       </c>
-      <c r="D359" s="286"/>
-      <c r="E359" s="286"/>
-      <c r="F359" s="287"/>
+      <c r="D359" s="284"/>
+      <c r="E359" s="284"/>
+      <c r="F359" s="285"/>
       <c r="G359" s="21">
         <f>Q359</f>
         <v>1097.7</v>
@@ -45247,7 +45319,7 @@
         <f t="shared" ref="E361:E370" si="53">O361*D361</f>
         <v>17.3325</v>
       </c>
-      <c r="F361" s="301"/>
+      <c r="F361" s="296"/>
       <c r="H361" s="36" t="str">
         <f>VLOOKUP(B361,'Full Item list'!A:B,2,0)</f>
         <v>CE-070</v>
@@ -45305,7 +45377,7 @@
         <f t="shared" si="53"/>
         <v>20</v>
       </c>
-      <c r="F362" s="306"/>
+      <c r="F362" s="299"/>
       <c r="H362" s="36" t="str">
         <f>VLOOKUP(B362,'Full Item list'!A:B,2,0)</f>
         <v>CE-080</v>
@@ -45363,7 +45435,7 @@
         <f t="shared" si="53"/>
         <v>3.5000000000000004</v>
       </c>
-      <c r="F363" s="302"/>
+      <c r="F363" s="297"/>
       <c r="H363" s="36" t="str">
         <f>VLOOKUP(B363,'Full Item list'!A:B,2,0)</f>
         <v>FS-550</v>
@@ -45421,7 +45493,7 @@
         <f t="shared" si="53"/>
         <v>8.75</v>
       </c>
-      <c r="F364" s="302"/>
+      <c r="F364" s="297"/>
       <c r="H364" s="36" t="str">
         <f>VLOOKUP(B364,'Full Item list'!A:B,2,0)</f>
         <v>FS-560</v>
@@ -45479,7 +45551,7 @@
         <f t="shared" si="53"/>
         <v>7.2</v>
       </c>
-      <c r="F365" s="302"/>
+      <c r="F365" s="297"/>
       <c r="H365" s="36" t="str">
         <f>VLOOKUP(B365,'Full Item list'!A:B,2,0)</f>
         <v>FS-570</v>
@@ -45537,7 +45609,7 @@
         <f t="shared" si="53"/>
         <v>7.0000000000000009</v>
       </c>
-      <c r="F366" s="302"/>
+      <c r="F366" s="297"/>
       <c r="H366" s="36" t="str">
         <f>VLOOKUP(B366,'Full Item list'!A:B,2,0)</f>
         <v>FS-580</v>
@@ -45595,7 +45667,7 @@
         <f t="shared" si="53"/>
         <v>26.400000000000002</v>
       </c>
-      <c r="F367" s="302"/>
+      <c r="F367" s="297"/>
       <c r="H367" s="36" t="str">
         <f>VLOOKUP(B367,'Full Item list'!A:B,2,0)</f>
         <v>FL-010</v>
@@ -45654,7 +45726,7 @@
         <f t="shared" si="53"/>
         <v>73.25</v>
       </c>
-      <c r="F368" s="302"/>
+      <c r="F368" s="297"/>
       <c r="H368" s="36" t="str">
         <f>VLOOKUP(B368,'Full Item list'!A:B,2,0)</f>
         <v>PG-470</v>
@@ -45714,7 +45786,7 @@
         <f t="shared" ca="1" si="53"/>
         <v>8.4587680646232162</v>
       </c>
-      <c r="F369" s="303"/>
+      <c r="F369" s="298"/>
       <c r="H369" s="36" t="str">
         <f>VLOOKUP(B369,'Full Item list'!A:B,2,0)</f>
         <v>SPMO001</v>
@@ -45767,7 +45839,7 @@
       <c r="C370" s="42" t="s">
         <v>312</v>
       </c>
-      <c r="D370" s="43">
+      <c r="D370" s="333">
         <f>G359/AA354</f>
         <v>1.0977000000000001</v>
       </c>
@@ -45775,7 +45847,9 @@
         <f t="shared" si="53"/>
         <v>539.04341207748735</v>
       </c>
-      <c r="F370" s="45"/>
+      <c r="F370" s="45" t="s">
+        <v>782</v>
+      </c>
       <c r="G370" s="32"/>
       <c r="H370" s="32" t="str">
         <f>VLOOKUP(B370,'Full Item list'!A:B,2,0)</f>
@@ -45865,13 +45939,13 @@
       <c r="B373" s="20" t="s">
         <v>581</v>
       </c>
-      <c r="C373" s="286" t="str">
+      <c r="C373" s="284" t="str">
         <f>VLOOKUP(A373,'All products'!A:B,2,0)</f>
         <v>TECNOGROUT-K (25KG)</v>
       </c>
-      <c r="D373" s="286"/>
-      <c r="E373" s="286"/>
-      <c r="F373" s="287"/>
+      <c r="D373" s="284"/>
+      <c r="E373" s="284"/>
+      <c r="F373" s="285"/>
       <c r="G373" s="21">
         <v>1</v>
       </c>
@@ -46078,13 +46152,13 @@
       <c r="B378" s="20" t="s">
         <v>582</v>
       </c>
-      <c r="C378" s="286" t="str">
+      <c r="C378" s="284" t="str">
         <f>VLOOKUP(A378,'All products'!A:B,2,0)</f>
         <v>TECNOGROUT-K (KG)</v>
       </c>
-      <c r="D378" s="286"/>
-      <c r="E378" s="286"/>
-      <c r="F378" s="287"/>
+      <c r="D378" s="284"/>
+      <c r="E378" s="284"/>
+      <c r="F378" s="285"/>
       <c r="G378" s="21">
         <f>Q378</f>
         <v>1026.3</v>
@@ -46190,7 +46264,7 @@
         <f t="shared" ref="E380:E388" si="55">O380*D380</f>
         <v>30</v>
       </c>
-      <c r="F380" s="288"/>
+      <c r="F380" s="294"/>
       <c r="G380" s="36"/>
       <c r="H380" s="36" t="str">
         <f>VLOOKUP(B380,'Full Item list'!A:B,2,0)</f>
@@ -46249,7 +46323,7 @@
         <f t="shared" si="55"/>
         <v>16.177</v>
       </c>
-      <c r="F381" s="288"/>
+      <c r="F381" s="294"/>
       <c r="G381" s="36"/>
       <c r="H381" s="36" t="str">
         <f>VLOOKUP(B381,'Full Item list'!A:B,2,0)</f>
@@ -46308,7 +46382,7 @@
         <f t="shared" si="55"/>
         <v>10.500000000000002</v>
       </c>
-      <c r="F382" s="289"/>
+      <c r="F382" s="287"/>
       <c r="G382" s="36"/>
       <c r="H382" s="36" t="str">
         <f>VLOOKUP(B382,'Full Item list'!A:B,2,0)</f>
@@ -46367,7 +46441,7 @@
         <f t="shared" si="55"/>
         <v>12.250000000000002</v>
       </c>
-      <c r="F383" s="289"/>
+      <c r="F383" s="287"/>
       <c r="G383" s="36"/>
       <c r="H383" s="36" t="str">
         <f>VLOOKUP(B383,'Full Item list'!A:B,2,0)</f>
@@ -46426,7 +46500,7 @@
         <f t="shared" si="55"/>
         <v>0</v>
       </c>
-      <c r="F384" s="289"/>
+      <c r="F384" s="287"/>
       <c r="G384" s="36"/>
       <c r="H384" s="36" t="str">
         <f>VLOOKUP(B384,'Full Item list'!A:B,2,0)</f>
@@ -46485,7 +46559,7 @@
         <f t="shared" si="55"/>
         <v>0</v>
       </c>
-      <c r="F385" s="289"/>
+      <c r="F385" s="287"/>
       <c r="G385" s="36"/>
       <c r="H385" s="36" t="str">
         <f>VLOOKUP(B385,'Full Item list'!A:B,2,0)</f>
@@ -46544,7 +46618,7 @@
         <f t="shared" si="55"/>
         <v>4.8499999999999996</v>
       </c>
-      <c r="F386" s="291"/>
+      <c r="F386" s="288"/>
       <c r="G386" s="36"/>
       <c r="H386" s="36" t="str">
         <f>VLOOKUP(B386,'Full Item list'!A:B,2,0)</f>
@@ -46605,7 +46679,7 @@
         <f t="shared" ca="1" si="55"/>
         <v>16.573451957359456</v>
       </c>
-      <c r="F387" s="290"/>
+      <c r="F387" s="295"/>
       <c r="G387" s="36"/>
       <c r="H387" s="36" t="str">
         <f>VLOOKUP(B387,'Full Item list'!A:B,2,0)</f>
@@ -46659,7 +46733,7 @@
       <c r="C388" s="42" t="s">
         <v>312</v>
       </c>
-      <c r="D388" s="43">
+      <c r="D388" s="333">
         <f>G378/AA373</f>
         <v>0.34209999999999996</v>
       </c>
@@ -46667,7 +46741,9 @@
         <f t="shared" si="55"/>
         <v>167.99376083785037</v>
       </c>
-      <c r="F388" s="45"/>
+      <c r="F388" s="45" t="s">
+        <v>782</v>
+      </c>
       <c r="G388" s="32"/>
       <c r="H388" s="32" t="str">
         <f>VLOOKUP(B388,'Full Item list'!A:B,2,0)</f>
@@ -46757,13 +46833,13 @@
       <c r="B391" s="20" t="s">
         <v>583</v>
       </c>
-      <c r="C391" s="286" t="str">
+      <c r="C391" s="284" t="str">
         <f>VLOOKUP(A391,'All products'!A:B,2,0)</f>
         <v>TECNOGROUT-FIB (25KG)</v>
       </c>
-      <c r="D391" s="286"/>
-      <c r="E391" s="286"/>
-      <c r="F391" s="287"/>
+      <c r="D391" s="284"/>
+      <c r="E391" s="284"/>
+      <c r="F391" s="285"/>
       <c r="G391" s="21">
         <v>1</v>
       </c>
@@ -46970,13 +47046,13 @@
       <c r="B396" s="20" t="s">
         <v>584</v>
       </c>
-      <c r="C396" s="286" t="str">
+      <c r="C396" s="284" t="str">
         <f>VLOOKUP(A396,'All products'!A:B,2,0)</f>
         <v>TECNOGROUT-FIB (KG)</v>
       </c>
-      <c r="D396" s="286"/>
-      <c r="E396" s="286"/>
-      <c r="F396" s="287"/>
+      <c r="D396" s="284"/>
+      <c r="E396" s="284"/>
+      <c r="F396" s="285"/>
       <c r="G396" s="21">
         <f>Q396</f>
         <v>980.8</v>
@@ -47079,7 +47155,7 @@
         <f t="shared" ref="E398:E405" si="57">O398*D398</f>
         <v>5</v>
       </c>
-      <c r="F398" s="288"/>
+      <c r="F398" s="294"/>
       <c r="G398" s="32"/>
       <c r="H398" s="32" t="str">
         <f>VLOOKUP(B398,'Full Item list'!A:B,2,0)</f>
@@ -47138,7 +47214,7 @@
         <f t="shared" si="57"/>
         <v>63.552500000000002</v>
       </c>
-      <c r="F399" s="288"/>
+      <c r="F399" s="294"/>
       <c r="G399" s="32"/>
       <c r="H399" s="32" t="str">
         <f>VLOOKUP(B399,'Full Item list'!A:B,2,0)</f>
@@ -47197,7 +47273,7 @@
         <f t="shared" si="57"/>
         <v>7.8750000000000009</v>
       </c>
-      <c r="F400" s="289"/>
+      <c r="F400" s="287"/>
       <c r="G400" s="36"/>
       <c r="H400" s="36" t="str">
         <f>VLOOKUP(B400,'Full Item list'!A:B,2,0)</f>
@@ -47256,7 +47332,7 @@
         <f t="shared" si="57"/>
         <v>7.8750000000000009</v>
       </c>
-      <c r="F401" s="289"/>
+      <c r="F401" s="287"/>
       <c r="G401" s="36"/>
       <c r="H401" s="36" t="str">
         <f>VLOOKUP(B401,'Full Item list'!A:B,2,0)</f>
@@ -47321,7 +47397,7 @@
         <f t="shared" si="57"/>
         <v>6.4</v>
       </c>
-      <c r="F402" s="289"/>
+      <c r="F402" s="287"/>
       <c r="G402" s="36"/>
       <c r="H402" s="36" t="str">
         <f>VLOOKUP(B402,'Full Item list'!A:B,2,0)</f>
@@ -47383,7 +47459,7 @@
         <f t="shared" si="57"/>
         <v>5.58</v>
       </c>
-      <c r="F403" s="291"/>
+      <c r="F403" s="288"/>
       <c r="G403" s="36" t="s">
         <v>611</v>
       </c>
@@ -47456,7 +47532,7 @@
         <f t="shared" ca="1" si="57"/>
         <v>15.144706098966399</v>
       </c>
-      <c r="F404" s="290"/>
+      <c r="F404" s="295"/>
       <c r="G404" s="36"/>
       <c r="H404" s="36" t="str">
         <f>VLOOKUP(B404,'Full Item list'!A:B,2,0)</f>
@@ -47516,7 +47592,7 @@
       <c r="C405" s="42" t="s">
         <v>312</v>
       </c>
-      <c r="D405" s="43">
+      <c r="D405" s="333">
         <f>G396/AA391</f>
         <v>0.3269333333333333</v>
       </c>
@@ -47524,7 +47600,9 @@
         <f t="shared" si="57"/>
         <v>160.54592285858291</v>
       </c>
-      <c r="F405" s="45"/>
+      <c r="F405" s="45" t="s">
+        <v>782</v>
+      </c>
       <c r="G405" s="32"/>
       <c r="H405" s="32" t="str">
         <f>VLOOKUP(B405,'Full Item list'!A:B,2,0)</f>
@@ -47620,13 +47698,13 @@
       <c r="B408" s="66" t="s">
         <v>162</v>
       </c>
-      <c r="C408" s="286" t="str">
+      <c r="C408" s="284" t="str">
         <f>VLOOKUP(A408,'All products'!A:B,2,0)</f>
         <v>TECNOSTOP (25KG)</v>
       </c>
-      <c r="D408" s="286"/>
-      <c r="E408" s="286"/>
-      <c r="F408" s="287"/>
+      <c r="D408" s="284"/>
+      <c r="E408" s="284"/>
+      <c r="F408" s="285"/>
       <c r="G408" s="21">
         <v>1</v>
       </c>
@@ -47833,13 +47911,13 @@
       <c r="B413" s="66" t="s">
         <v>585</v>
       </c>
-      <c r="C413" s="286" t="str">
+      <c r="C413" s="284" t="str">
         <f>VLOOKUP(A413,'All products'!A:B,2,0)</f>
         <v>TECNOSTOP (KG)</v>
       </c>
-      <c r="D413" s="286"/>
-      <c r="E413" s="286"/>
-      <c r="F413" s="287"/>
+      <c r="D413" s="284"/>
+      <c r="E413" s="284"/>
+      <c r="F413" s="285"/>
       <c r="G413" s="21">
         <f>Q413</f>
         <v>997.6</v>
@@ -47942,7 +48020,7 @@
         <f t="shared" ref="E415:E423" si="59">O415*D415</f>
         <v>20</v>
       </c>
-      <c r="F415" s="288"/>
+      <c r="F415" s="294"/>
       <c r="G415" s="32"/>
       <c r="H415" s="32" t="str">
         <f>VLOOKUP(B415,'Full Item list'!A:B,2,0)</f>
@@ -48001,7 +48079,7 @@
         <f t="shared" si="59"/>
         <v>11.555</v>
       </c>
-      <c r="F416" s="288"/>
+      <c r="F416" s="294"/>
       <c r="G416" s="32"/>
       <c r="H416" s="32" t="str">
         <f>VLOOKUP(B416,'Full Item list'!A:B,2,0)</f>
@@ -48060,7 +48138,7 @@
         <f t="shared" si="59"/>
         <v>292.8</v>
       </c>
-      <c r="F417" s="288"/>
+      <c r="F417" s="294"/>
       <c r="G417" s="32"/>
       <c r="H417" s="32" t="str">
         <f>VLOOKUP(B417,'Full Item list'!A:B,2,0)</f>
@@ -48120,7 +48198,7 @@
         <f t="shared" si="59"/>
         <v>146.5</v>
       </c>
-      <c r="F418" s="288"/>
+      <c r="F418" s="294"/>
       <c r="G418" s="32"/>
       <c r="H418" s="32" t="str">
         <f>VLOOKUP(B418,'Full Item list'!A:B,2,0)</f>
@@ -48180,7 +48258,7 @@
         <f t="shared" si="59"/>
         <v>4.6000000000000005</v>
       </c>
-      <c r="F419" s="289"/>
+      <c r="F419" s="287"/>
       <c r="G419" s="36"/>
       <c r="H419" s="36" t="str">
         <f>VLOOKUP(B419,'Full Item list'!A:B,2,0)</f>
@@ -48239,7 +48317,7 @@
         <f t="shared" si="59"/>
         <v>1.7500000000000002</v>
       </c>
-      <c r="F420" s="289"/>
+      <c r="F420" s="287"/>
       <c r="G420" s="36"/>
       <c r="H420" s="36" t="str">
         <f>VLOOKUP(B420,'Full Item list'!A:B,2,0)</f>
@@ -48298,7 +48376,7 @@
         <f t="shared" si="59"/>
         <v>4.375</v>
       </c>
-      <c r="F421" s="289"/>
+      <c r="F421" s="287"/>
       <c r="G421" s="36"/>
       <c r="H421" s="36" t="str">
         <f>VLOOKUP(B421,'Full Item list'!A:B,2,0)</f>
@@ -48357,7 +48435,7 @@
         <f t="shared" ca="1" si="59"/>
         <v>32.14</v>
       </c>
-      <c r="F422" s="290"/>
+      <c r="F422" s="295"/>
       <c r="G422" s="36"/>
       <c r="H422" s="36" t="str">
         <f>VLOOKUP(B422,'Full Item list'!A:B,2,0)</f>
@@ -48411,7 +48489,7 @@
       <c r="C423" s="42" t="s">
         <v>312</v>
       </c>
-      <c r="D423" s="43">
+      <c r="D423" s="333">
         <f>G413/AA408</f>
         <v>0.99760000000000004</v>
       </c>
@@ -48419,7 +48497,9 @@
         <f t="shared" si="59"/>
         <v>489.887681414322</v>
       </c>
-      <c r="F423" s="45"/>
+      <c r="F423" s="45" t="s">
+        <v>782</v>
+      </c>
       <c r="G423" s="32"/>
       <c r="H423" s="32" t="str">
         <f>VLOOKUP(B423,'Full Item list'!A:B,2,0)</f>
@@ -48509,13 +48589,13 @@
       <c r="B426" s="66" t="s">
         <v>586</v>
       </c>
-      <c r="C426" s="286" t="str">
+      <c r="C426" s="284" t="str">
         <f>VLOOKUP(A426,'All products'!A:B,2,0)</f>
         <v>TECNOGROUT-N/PR RAPIDO (25KG)</v>
       </c>
-      <c r="D426" s="286"/>
-      <c r="E426" s="286"/>
-      <c r="F426" s="287"/>
+      <c r="D426" s="284"/>
+      <c r="E426" s="284"/>
+      <c r="F426" s="285"/>
       <c r="G426" s="21">
         <v>1</v>
       </c>
@@ -48722,13 +48802,13 @@
       <c r="B431" s="66" t="s">
         <v>587</v>
       </c>
-      <c r="C431" s="286" t="str">
+      <c r="C431" s="284" t="str">
         <f>VLOOKUP(A431,'All products'!A:B,2,0)</f>
         <v>TECNOGROUT-N/PR RAPIDO (KG)</v>
       </c>
-      <c r="D431" s="286"/>
-      <c r="E431" s="286"/>
-      <c r="F431" s="287"/>
+      <c r="D431" s="284"/>
+      <c r="E431" s="284"/>
+      <c r="F431" s="285"/>
       <c r="G431" s="21">
         <f>Q431</f>
         <v>1044.5999999999999</v>
@@ -48831,7 +48911,7 @@
         <f>O433*D433</f>
         <v>35</v>
       </c>
-      <c r="F433" s="288"/>
+      <c r="F433" s="294"/>
       <c r="G433" s="32"/>
       <c r="H433" s="32" t="str">
         <f>VLOOKUP(B433,'Full Item list'!A:B,2,0)</f>
@@ -48890,7 +48970,7 @@
         <f>O434*D434</f>
         <v>10.500000000000002</v>
       </c>
-      <c r="F434" s="288"/>
+      <c r="F434" s="294"/>
       <c r="G434" s="32"/>
       <c r="H434" s="32" t="str">
         <f>VLOOKUP(B434,'Full Item list'!A:B,2,0)</f>
@@ -48949,7 +49029,7 @@
         <f>O435*D435</f>
         <v>12.250000000000002</v>
       </c>
-      <c r="F435" s="288"/>
+      <c r="F435" s="294"/>
       <c r="G435" s="32"/>
       <c r="H435" s="32" t="str">
         <f>VLOOKUP(B435,'Full Item list'!A:B,2,0)</f>
@@ -49008,7 +49088,7 @@
         <f ca="1">O436*D436</f>
         <v>69.368832505543239</v>
       </c>
-      <c r="F436" s="290"/>
+      <c r="F436" s="295"/>
       <c r="G436" s="36"/>
       <c r="H436" s="36" t="str">
         <f>VLOOKUP(B436,'Full Item list'!A:B,2,0)</f>
@@ -49062,7 +49142,7 @@
       <c r="C437" s="42" t="s">
         <v>312</v>
       </c>
-      <c r="D437" s="43">
+      <c r="D437" s="333">
         <f>G431/AA426</f>
         <v>0.34819999999999995</v>
       </c>
@@ -49070,7 +49150,9 @@
         <f>O437*D437</f>
         <v>170.98926490423707</v>
       </c>
-      <c r="F437" s="45"/>
+      <c r="F437" s="45" t="s">
+        <v>782</v>
+      </c>
       <c r="G437" s="32"/>
       <c r="H437" s="32" t="str">
         <f>VLOOKUP(B437,'Full Item list'!A:B,2,0)</f>
@@ -49160,13 +49242,13 @@
       <c r="B440" s="66" t="s">
         <v>588</v>
       </c>
-      <c r="C440" s="286" t="str">
+      <c r="C440" s="284" t="str">
         <f>VLOOKUP(A440,'All products'!A:B,2,0)</f>
         <v>TECNOGROUT-N RAPIDO (25KG)</v>
       </c>
-      <c r="D440" s="286"/>
-      <c r="E440" s="286"/>
-      <c r="F440" s="287"/>
+      <c r="D440" s="284"/>
+      <c r="E440" s="284"/>
+      <c r="F440" s="285"/>
       <c r="G440" s="21">
         <v>1</v>
       </c>
@@ -49373,13 +49455,13 @@
       <c r="B445" s="66" t="s">
         <v>589</v>
       </c>
-      <c r="C445" s="286" t="str">
+      <c r="C445" s="284" t="str">
         <f>VLOOKUP(A445,'All products'!A:B,2,0)</f>
         <v>TECNOGROUT-N RAPIDO (KG)</v>
       </c>
-      <c r="D445" s="286"/>
-      <c r="E445" s="286"/>
-      <c r="F445" s="287"/>
+      <c r="D445" s="284"/>
+      <c r="E445" s="284"/>
+      <c r="F445" s="285"/>
       <c r="G445" s="21">
         <f>Q445</f>
         <v>1054.8</v>
@@ -49482,7 +49564,7 @@
         <f t="shared" ref="E447:E453" si="63">O447*D447</f>
         <v>36</v>
       </c>
-      <c r="F447" s="288"/>
+      <c r="F447" s="294"/>
       <c r="G447" s="32"/>
       <c r="H447" s="32" t="str">
         <f>VLOOKUP(B447,'Full Item list'!A:B,2,0)</f>
@@ -49541,7 +49623,7 @@
         <f t="shared" si="63"/>
         <v>5.2500000000000009</v>
       </c>
-      <c r="F448" s="288"/>
+      <c r="F448" s="294"/>
       <c r="G448" s="32"/>
       <c r="H448" s="32" t="str">
         <f>VLOOKUP(B448,'Full Item list'!A:B,2,0)</f>
@@ -49600,7 +49682,7 @@
         <f t="shared" si="63"/>
         <v>5.2500000000000009</v>
       </c>
-      <c r="F449" s="288"/>
+      <c r="F449" s="294"/>
       <c r="G449" s="32"/>
       <c r="H449" s="32" t="str">
         <f>VLOOKUP(B449,'Full Item list'!A:B,2,0)</f>
@@ -49659,7 +49741,7 @@
         <f t="shared" si="63"/>
         <v>4.8</v>
       </c>
-      <c r="F450" s="289"/>
+      <c r="F450" s="287"/>
       <c r="G450" s="36"/>
       <c r="H450" s="36" t="str">
         <f>VLOOKUP(B450,'Full Item list'!A:B,2,0)</f>
@@ -49718,7 +49800,7 @@
         <f t="shared" si="63"/>
         <v>7.0000000000000009</v>
       </c>
-      <c r="F451" s="289"/>
+      <c r="F451" s="287"/>
       <c r="G451" s="36"/>
       <c r="H451" s="36" t="str">
         <f>VLOOKUP(B451,'Full Item list'!A:B,2,0)</f>
@@ -49777,7 +49859,7 @@
         <f t="shared" ca="1" si="63"/>
         <v>69.679903503325946</v>
       </c>
-      <c r="F452" s="290"/>
+      <c r="F452" s="295"/>
       <c r="G452" s="36"/>
       <c r="H452" s="36" t="str">
         <f>VLOOKUP(B452,'Full Item list'!A:B,2,0)</f>
@@ -49831,7 +49913,7 @@
       <c r="C453" s="42" t="s">
         <v>312</v>
       </c>
-      <c r="D453" s="43">
+      <c r="D453" s="333">
         <f>G445/AA440</f>
         <v>0.35159999999999997</v>
       </c>
@@ -49839,7 +49921,9 @@
         <f t="shared" si="63"/>
         <v>172.65889012156737</v>
       </c>
-      <c r="F453" s="45"/>
+      <c r="F453" s="45" t="s">
+        <v>782</v>
+      </c>
       <c r="G453" s="32"/>
       <c r="H453" s="32" t="str">
         <f>VLOOKUP(B453,'Full Item list'!A:B,2,0)</f>
@@ -49929,13 +50013,13 @@
       <c r="B456" s="66" t="s">
         <v>590</v>
       </c>
-      <c r="C456" s="286" t="str">
+      <c r="C456" s="284" t="str">
         <f>VLOOKUP(A456,'All products'!A:B,2,0)</f>
         <v>FERROGROUT-A RÁPIDO (25KG)</v>
       </c>
-      <c r="D456" s="286"/>
-      <c r="E456" s="286"/>
-      <c r="F456" s="287"/>
+      <c r="D456" s="284"/>
+      <c r="E456" s="284"/>
+      <c r="F456" s="285"/>
       <c r="G456" s="21">
         <v>1</v>
       </c>
@@ -50142,13 +50226,13 @@
       <c r="B461" s="66" t="s">
         <v>591</v>
       </c>
-      <c r="C461" s="286" t="str">
+      <c r="C461" s="284" t="str">
         <f>VLOOKUP(A461,'All products'!A:B,2,0)</f>
         <v>FERROGROUT-A RÁPIDO (KG)</v>
       </c>
-      <c r="D461" s="286"/>
-      <c r="E461" s="286"/>
-      <c r="F461" s="287"/>
+      <c r="D461" s="284"/>
+      <c r="E461" s="284"/>
+      <c r="F461" s="285"/>
       <c r="G461" s="21">
         <f>Q461</f>
         <v>1074.8</v>
@@ -50251,7 +50335,7 @@
         <f t="shared" ref="E463:E470" si="66">O463*D463</f>
         <v>36</v>
       </c>
-      <c r="F463" s="288"/>
+      <c r="F463" s="294"/>
       <c r="G463" s="32"/>
       <c r="H463" s="32" t="str">
         <f>VLOOKUP(B463,'Full Item list'!A:B,2,0)</f>
@@ -50310,7 +50394,7 @@
         <f t="shared" si="66"/>
         <v>5.2500000000000009</v>
       </c>
-      <c r="F464" s="288"/>
+      <c r="F464" s="294"/>
       <c r="G464" s="32"/>
       <c r="H464" s="32" t="str">
         <f>VLOOKUP(B464,'Full Item list'!A:B,2,0)</f>
@@ -50369,7 +50453,7 @@
         <f t="shared" si="66"/>
         <v>5.2500000000000009</v>
       </c>
-      <c r="F465" s="288"/>
+      <c r="F465" s="294"/>
       <c r="G465" s="32"/>
       <c r="H465" s="32" t="str">
         <f>VLOOKUP(B465,'Full Item list'!A:B,2,0)</f>
@@ -50428,7 +50512,7 @@
         <f t="shared" si="66"/>
         <v>4.8</v>
       </c>
-      <c r="F466" s="289"/>
+      <c r="F466" s="287"/>
       <c r="G466" s="36"/>
       <c r="H466" s="36" t="str">
         <f>VLOOKUP(B466,'Full Item list'!A:B,2,0)</f>
@@ -50487,7 +50571,7 @@
         <f t="shared" si="66"/>
         <v>7.0000000000000009</v>
       </c>
-      <c r="F467" s="289"/>
+      <c r="F467" s="287"/>
       <c r="G467" s="36"/>
       <c r="H467" s="36" t="str">
         <f>VLOOKUP(B467,'Full Item list'!A:B,2,0)</f>
@@ -50546,7 +50630,7 @@
         <f t="shared" si="66"/>
         <v>26.400000000000002</v>
       </c>
-      <c r="F468" s="291"/>
+      <c r="F468" s="288"/>
       <c r="G468" s="36"/>
       <c r="H468" s="36" t="str">
         <f>VLOOKUP(B468,'Full Item list'!A:B,2,0)</f>
@@ -50606,7 +50690,7 @@
         <f t="shared" ca="1" si="66"/>
         <v>69.679903503325946</v>
       </c>
-      <c r="F469" s="290"/>
+      <c r="F469" s="295"/>
       <c r="G469" s="36"/>
       <c r="H469" s="36" t="str">
         <f>VLOOKUP(B469,'Full Item list'!A:B,2,0)</f>
@@ -50660,7 +50744,7 @@
       <c r="C470" s="42" t="s">
         <v>312</v>
       </c>
-      <c r="D470" s="43">
+      <c r="D470" s="333">
         <f>G461/AA456</f>
         <v>1.0748</v>
       </c>
@@ -50668,7 +50752,9 @@
         <f t="shared" si="66"/>
         <v>527.79799517252729</v>
       </c>
-      <c r="F470" s="45"/>
+      <c r="F470" s="45" t="s">
+        <v>782</v>
+      </c>
       <c r="G470" s="32"/>
       <c r="H470" s="32" t="str">
         <f>VLOOKUP(B470,'Full Item list'!A:B,2,0)</f>
@@ -50758,13 +50844,13 @@
       <c r="B473" s="66" t="s">
         <v>592</v>
       </c>
-      <c r="C473" s="286" t="str">
+      <c r="C473" s="284" t="str">
         <f>VLOOKUP(A473,'All products'!A:B,2,0)</f>
         <v>FERROGROUT-A RÁPIDO NEGRO (25KG)</v>
       </c>
-      <c r="D473" s="286"/>
-      <c r="E473" s="286"/>
-      <c r="F473" s="287"/>
+      <c r="D473" s="284"/>
+      <c r="E473" s="284"/>
+      <c r="F473" s="285"/>
       <c r="G473" s="21">
         <v>1</v>
       </c>
@@ -50971,13 +51057,13 @@
       <c r="B478" s="66" t="s">
         <v>593</v>
       </c>
-      <c r="C478" s="286" t="str">
+      <c r="C478" s="284" t="str">
         <f>VLOOKUP(A478,'All products'!A:B,2,0)</f>
         <v>FERROGROUT-A RÁPIDO NEGRO (KG)</v>
       </c>
-      <c r="D478" s="286"/>
-      <c r="E478" s="286"/>
-      <c r="F478" s="287"/>
+      <c r="D478" s="284"/>
+      <c r="E478" s="284"/>
+      <c r="F478" s="285"/>
       <c r="G478" s="21">
         <f>Q478</f>
         <v>1099.8</v>
@@ -51080,7 +51166,7 @@
         <f t="shared" ref="E480:E488" si="69">O480*D480</f>
         <v>36</v>
       </c>
-      <c r="F480" s="288"/>
+      <c r="F480" s="294"/>
       <c r="G480" s="32"/>
       <c r="H480" s="32" t="str">
         <f>VLOOKUP(B480,'Full Item list'!A:B,2,0)</f>
@@ -51139,7 +51225,7 @@
         <f t="shared" si="69"/>
         <v>5.2500000000000009</v>
       </c>
-      <c r="F481" s="288"/>
+      <c r="F481" s="294"/>
       <c r="G481" s="32"/>
       <c r="H481" s="32" t="str">
         <f>VLOOKUP(B481,'Full Item list'!A:B,2,0)</f>
@@ -51198,7 +51284,7 @@
         <f t="shared" si="69"/>
         <v>5.2500000000000009</v>
       </c>
-      <c r="F482" s="288"/>
+      <c r="F482" s="294"/>
       <c r="G482" s="32"/>
       <c r="H482" s="32" t="str">
         <f>VLOOKUP(B482,'Full Item list'!A:B,2,0)</f>
@@ -51257,7 +51343,7 @@
         <f t="shared" si="69"/>
         <v>4.8</v>
       </c>
-      <c r="F483" s="289"/>
+      <c r="F483" s="287"/>
       <c r="G483" s="36"/>
       <c r="H483" s="36" t="str">
         <f>VLOOKUP(B483,'Full Item list'!A:B,2,0)</f>
@@ -51316,7 +51402,7 @@
         <f t="shared" si="69"/>
         <v>7.0000000000000009</v>
       </c>
-      <c r="F484" s="289"/>
+      <c r="F484" s="287"/>
       <c r="G484" s="36"/>
       <c r="H484" s="36" t="str">
         <f>VLOOKUP(B484,'Full Item list'!A:B,2,0)</f>
@@ -51375,7 +51461,7 @@
         <f t="shared" si="69"/>
         <v>26.400000000000002</v>
       </c>
-      <c r="F485" s="291"/>
+      <c r="F485" s="288"/>
       <c r="G485" s="36"/>
       <c r="H485" s="36" t="str">
         <f>VLOOKUP(B485,'Full Item list'!A:B,2,0)</f>
@@ -51435,7 +51521,7 @@
         <f t="shared" si="69"/>
         <v>73.25</v>
       </c>
-      <c r="F486" s="291"/>
+      <c r="F486" s="288"/>
       <c r="G486" s="36"/>
       <c r="H486" s="36" t="str">
         <f>VLOOKUP(B486,'Full Item list'!A:B,2,0)</f>
@@ -51496,7 +51582,7 @@
         <f t="shared" ca="1" si="69"/>
         <v>69.679903503325946</v>
       </c>
-      <c r="F487" s="290"/>
+      <c r="F487" s="295"/>
       <c r="G487" s="36"/>
       <c r="H487" s="36" t="str">
         <f>VLOOKUP(B487,'Full Item list'!A:B,2,0)</f>
@@ -51550,7 +51636,7 @@
       <c r="C488" s="42" t="s">
         <v>312</v>
       </c>
-      <c r="D488" s="43">
+      <c r="D488" s="333">
         <f>G478/AA473</f>
         <v>1.0997999999999999</v>
       </c>
@@ -51558,7 +51644,9 @@
         <f t="shared" si="69"/>
         <v>540.0746511823088</v>
       </c>
-      <c r="F488" s="45"/>
+      <c r="F488" s="45" t="s">
+        <v>782</v>
+      </c>
       <c r="G488" s="32"/>
       <c r="H488" s="32" t="str">
         <f>VLOOKUP(B488,'Full Item list'!A:B,2,0)</f>
@@ -51648,13 +51736,13 @@
       <c r="B491" s="66" t="s">
         <v>594</v>
       </c>
-      <c r="C491" s="286" t="str">
+      <c r="C491" s="284" t="str">
         <f>VLOOKUP(A491,'All products'!A:B,2,0)</f>
         <v>TECNOIMPER-FLEX (A+B 28.4KG)</v>
       </c>
-      <c r="D491" s="286"/>
-      <c r="E491" s="286"/>
-      <c r="F491" s="287"/>
+      <c r="D491" s="284"/>
+      <c r="E491" s="284"/>
+      <c r="F491" s="285"/>
       <c r="G491" s="21">
         <v>1</v>
       </c>
@@ -51861,13 +51949,13 @@
       <c r="B496" s="66" t="s">
         <v>595</v>
       </c>
-      <c r="C496" s="286" t="str">
+      <c r="C496" s="284" t="str">
         <f>VLOOKUP(A496,'All products'!A:B,2,0)</f>
         <v>TECNOIMPER-FLEX (A+B KG)</v>
       </c>
-      <c r="D496" s="286"/>
-      <c r="E496" s="286"/>
-      <c r="F496" s="287"/>
+      <c r="D496" s="284"/>
+      <c r="E496" s="284"/>
+      <c r="F496" s="285"/>
       <c r="G496" s="121">
         <f>Q496</f>
         <v>28.4</v>
@@ -51970,7 +52058,7 @@
         <f t="shared" ref="E498:E506" si="72">O498*D498</f>
         <v>2.1261199999999998</v>
       </c>
-      <c r="F498" s="283"/>
+      <c r="F498" s="300"/>
       <c r="G498" s="32"/>
       <c r="H498" s="32" t="str">
         <f>VLOOKUP(B498,'Full Item list'!A:B,2,0)</f>
@@ -52002,6 +52090,10 @@
       <c r="Q498">
         <v>28.4</v>
       </c>
+      <c r="S498">
+        <f>E498/G$496</f>
+        <v>7.4863380281690137E-2</v>
+      </c>
       <c r="V498" t="s">
         <v>602</v>
       </c>
@@ -52027,7 +52119,7 @@
         <f t="shared" si="72"/>
         <v>0.40250000000000002</v>
       </c>
-      <c r="F499" s="284"/>
+      <c r="F499" s="302"/>
       <c r="G499" s="36"/>
       <c r="H499" s="36" t="str">
         <f>VLOOKUP(B499,'Full Item list'!A:B,2,0)</f>
@@ -52059,6 +52151,10 @@
       <c r="Q499">
         <v>28.4</v>
       </c>
+      <c r="S499">
+        <f t="shared" ref="S499:S506" si="74">E499/G$496</f>
+        <v>1.4172535211267608E-2</v>
+      </c>
       <c r="V499" t="s">
         <v>603</v>
       </c>
@@ -52084,7 +52180,7 @@
         <f t="shared" si="72"/>
         <v>8.0500000000000002E-2</v>
       </c>
-      <c r="F500" s="284"/>
+      <c r="F500" s="302"/>
       <c r="G500" s="36"/>
       <c r="H500" s="36" t="str">
         <f>VLOOKUP(B500,'Full Item list'!A:B,2,0)</f>
@@ -52116,6 +52212,10 @@
       <c r="Q500">
         <v>28.4</v>
       </c>
+      <c r="S500">
+        <f t="shared" si="74"/>
+        <v>2.8345070422535214E-3</v>
+      </c>
       <c r="V500" t="s">
         <v>602</v>
       </c>
@@ -52141,7 +52241,7 @@
         <f t="shared" si="72"/>
         <v>9.4500000000000001E-2</v>
       </c>
-      <c r="F501" s="284"/>
+      <c r="F501" s="302"/>
       <c r="G501" s="36"/>
       <c r="H501" s="36" t="str">
         <f>VLOOKUP(B501,'Full Item list'!A:B,2,0)</f>
@@ -52175,6 +52275,10 @@
       <c r="Q501">
         <v>28.4</v>
       </c>
+      <c r="S501">
+        <f t="shared" si="74"/>
+        <v>3.3274647887323945E-3</v>
+      </c>
       <c r="V501" t="s">
         <v>603</v>
       </c>
@@ -52200,7 +52304,7 @@
         <f t="shared" si="72"/>
         <v>0.31000000000000005</v>
       </c>
-      <c r="F502" s="284"/>
+      <c r="F502" s="302"/>
       <c r="G502" s="36"/>
       <c r="H502" s="36" t="str">
         <f>VLOOKUP(B502,'Full Item list'!A:B,2,0)</f>
@@ -52234,6 +52338,10 @@
       <c r="Q502">
         <v>28.4</v>
       </c>
+      <c r="S502">
+        <f t="shared" si="74"/>
+        <v>1.0915492957746482E-2</v>
+      </c>
       <c r="V502" t="s">
         <v>603</v>
       </c>
@@ -52259,7 +52367,7 @@
         <f t="shared" si="72"/>
         <v>0.18080000000000002</v>
       </c>
-      <c r="F503" s="284"/>
+      <c r="F503" s="302"/>
       <c r="G503" s="36"/>
       <c r="H503" s="36" t="str">
         <f>VLOOKUP(B503,'Full Item list'!A:B,2,0)</f>
@@ -52276,7 +52384,7 @@
       </c>
       <c r="L503" s="36"/>
       <c r="M503">
-        <f t="shared" ref="M503:M563" si="74">O503/P503</f>
+        <f t="shared" ref="M503:M563" si="75">O503/P503</f>
         <v>1.8079999999999999E-2</v>
       </c>
       <c r="N503" t="e">
@@ -52293,6 +52401,10 @@
       <c r="Q503">
         <v>28.4</v>
       </c>
+      <c r="S503">
+        <f t="shared" si="74"/>
+        <v>6.3661971830985924E-3</v>
+      </c>
       <c r="V503" t="s">
         <v>603</v>
       </c>
@@ -52318,7 +52430,7 @@
         <f t="shared" si="72"/>
         <v>4.3E-3</v>
       </c>
-      <c r="F504" s="284"/>
+      <c r="F504" s="302"/>
       <c r="G504" s="36"/>
       <c r="H504" s="36" t="str">
         <f>VLOOKUP(B504,'Full Item list'!A:B,2,0)</f>
@@ -52335,7 +52447,7 @@
       </c>
       <c r="L504" s="36"/>
       <c r="M504" s="22" t="e">
-        <f t="shared" si="74"/>
+        <f t="shared" si="75"/>
         <v>#DIV/0!</v>
       </c>
       <c r="N504" s="22" t="e">
@@ -52350,6 +52462,10 @@
       <c r="Q504">
         <v>28.4</v>
       </c>
+      <c r="S504">
+        <f t="shared" si="74"/>
+        <v>1.5140845070422536E-4</v>
+      </c>
       <c r="V504" t="s">
         <v>603</v>
       </c>
@@ -52375,7 +52491,7 @@
         <f t="shared" si="72"/>
         <v>14.134</v>
       </c>
-      <c r="F505" s="285"/>
+      <c r="F505" s="303"/>
       <c r="G505" s="37"/>
       <c r="H505" s="37" t="str">
         <f>VLOOKUP(B505,'Full Item list'!A:B,2,0)</f>
@@ -52392,7 +52508,7 @@
       </c>
       <c r="L505" s="37"/>
       <c r="M505" s="22" t="e">
-        <f t="shared" si="74"/>
+        <f t="shared" si="75"/>
         <v>#DIV/0!</v>
       </c>
       <c r="N505" s="22" t="e">
@@ -52407,6 +52523,10 @@
       <c r="Q505">
         <v>28.4</v>
       </c>
+      <c r="S505">
+        <f t="shared" si="74"/>
+        <v>0.49767605633802819</v>
+      </c>
       <c r="V505" t="s">
         <v>603</v>
       </c>
@@ -52425,7 +52545,7 @@
       <c r="C506" s="42" t="s">
         <v>312</v>
       </c>
-      <c r="D506" s="43">
+      <c r="D506" s="333">
         <f>G496/AA491</f>
         <v>4.9999999999999996E-2</v>
       </c>
@@ -52433,7 +52553,9 @@
         <f t="shared" si="72"/>
         <v>24.553312019563048</v>
       </c>
-      <c r="F506" s="45"/>
+      <c r="F506" s="45" t="s">
+        <v>782</v>
+      </c>
       <c r="G506" s="32"/>
       <c r="H506" s="32" t="str">
         <f>VLOOKUP(B506,'Full Item list'!A:B,2,0)</f>
@@ -52452,6 +52574,10 @@
       <c r="O506">
         <f>IFERROR(IF(J506="KG",VLOOKUP(H506,'Cost Price New'!D:E,2,0),VLOOKUP('BOMs setting'!H506,'Cost Price New'!D:I,6,0)),VLOOKUP(H506,A:R,18,0))</f>
         <v>491.06624039126103</v>
+      </c>
+      <c r="S506">
+        <f t="shared" si="74"/>
+        <v>0.86455324012545953</v>
       </c>
       <c r="V506" t="s">
         <v>603</v>
@@ -52523,13 +52649,13 @@
       <c r="B509" s="66" t="s">
         <v>598</v>
       </c>
-      <c r="C509" s="286" t="str">
+      <c r="C509" s="284" t="str">
         <f>VLOOKUP(A509,'All products'!A:B,2,0)</f>
         <v>TECNOIMPER (25KG)</v>
       </c>
-      <c r="D509" s="286"/>
-      <c r="E509" s="286"/>
-      <c r="F509" s="287"/>
+      <c r="D509" s="284"/>
+      <c r="E509" s="284"/>
+      <c r="F509" s="285"/>
       <c r="G509" s="21">
         <v>1</v>
       </c>
@@ -52736,13 +52862,13 @@
       <c r="B514" s="66" t="s">
         <v>599</v>
       </c>
-      <c r="C514" s="286" t="str">
+      <c r="C514" s="284" t="str">
         <f>VLOOKUP(A514,'All products'!A:B,2,0)</f>
         <v>TECNOIMPER (KG)</v>
       </c>
-      <c r="D514" s="286"/>
-      <c r="E514" s="286"/>
-      <c r="F514" s="287"/>
+      <c r="D514" s="284"/>
+      <c r="E514" s="284"/>
+      <c r="F514" s="285"/>
       <c r="G514" s="21">
         <f>Q514</f>
         <v>1002</v>
@@ -52762,7 +52888,7 @@
       </c>
       <c r="L514" s="21"/>
       <c r="M514">
-        <f t="shared" si="74"/>
+        <f t="shared" si="75"/>
         <v>0</v>
       </c>
       <c r="N514" t="e">
@@ -52845,10 +52971,10 @@
         <v>455</v>
       </c>
       <c r="E516" s="31">
-        <f t="shared" ref="E516:E523" si="75">O516*D516</f>
+        <f t="shared" ref="E516:E523" si="76">O516*D516</f>
         <v>105.15049999999999</v>
       </c>
-      <c r="F516" s="283"/>
+      <c r="F516" s="300"/>
       <c r="G516" s="32"/>
       <c r="H516" s="32" t="str">
         <f>VLOOKUP(B516,'Full Item list'!A:B,2,0)</f>
@@ -52856,7 +52982,7 @@
       </c>
       <c r="I516" s="32"/>
       <c r="J516" s="32" t="str">
-        <f t="shared" ref="J516:J523" si="76">K516</f>
+        <f t="shared" ref="J516:J523" si="77">K516</f>
         <v>KG</v>
       </c>
       <c r="K516" s="32" t="str">
@@ -52865,7 +52991,7 @@
       </c>
       <c r="L516" s="32"/>
       <c r="M516" s="22" t="e">
-        <f t="shared" si="74"/>
+        <f t="shared" si="75"/>
         <v>#DIV/0!</v>
       </c>
       <c r="N516" s="22" t="e">
@@ -52878,7 +53004,7 @@
       </c>
       <c r="P516" s="22"/>
       <c r="Q516">
-        <v>1000</v>
+        <v>1002</v>
       </c>
       <c r="V516" t="s">
         <v>602</v>
@@ -52902,10 +53028,10 @@
         <v>350</v>
       </c>
       <c r="E517" s="31">
-        <f t="shared" si="75"/>
+        <f t="shared" si="76"/>
         <v>20.125</v>
       </c>
-      <c r="F517" s="284"/>
+      <c r="F517" s="302"/>
       <c r="G517" s="36"/>
       <c r="H517" s="36" t="str">
         <f>VLOOKUP(B517,'Full Item list'!A:B,2,0)</f>
@@ -52913,7 +53039,7 @@
       </c>
       <c r="I517" s="36"/>
       <c r="J517" s="32" t="str">
-        <f t="shared" si="76"/>
+        <f t="shared" si="77"/>
         <v>KG</v>
       </c>
       <c r="K517" s="36" t="str">
@@ -52922,7 +53048,7 @@
       </c>
       <c r="L517" s="36"/>
       <c r="M517" s="22" t="e">
-        <f t="shared" si="74"/>
+        <f t="shared" si="75"/>
         <v>#DIV/0!</v>
       </c>
       <c r="N517" s="22" t="e">
@@ -52935,7 +53061,7 @@
       </c>
       <c r="P517" s="22"/>
       <c r="Q517">
-        <v>1000</v>
+        <v>1002</v>
       </c>
       <c r="V517" t="s">
         <v>603</v>
@@ -52959,10 +53085,10 @@
         <v>115</v>
       </c>
       <c r="E518" s="31">
-        <f t="shared" si="75"/>
+        <f t="shared" si="76"/>
         <v>4.0250000000000004</v>
       </c>
-      <c r="F518" s="284"/>
+      <c r="F518" s="302"/>
       <c r="G518" s="36"/>
       <c r="H518" s="36" t="str">
         <f>VLOOKUP(B518,'Full Item list'!A:B,2,0)</f>
@@ -52970,7 +53096,7 @@
       </c>
       <c r="I518" s="36"/>
       <c r="J518" s="32" t="str">
-        <f t="shared" si="76"/>
+        <f t="shared" si="77"/>
         <v>KG</v>
       </c>
       <c r="K518" s="36" t="str">
@@ -52979,7 +53105,7 @@
       </c>
       <c r="L518" s="36"/>
       <c r="M518" s="22" t="e">
-        <f t="shared" si="74"/>
+        <f t="shared" si="75"/>
         <v>#DIV/0!</v>
       </c>
       <c r="N518" s="22" t="e">
@@ -52992,7 +53118,7 @@
       </c>
       <c r="P518" s="22"/>
       <c r="Q518">
-        <v>1000</v>
+        <v>1002</v>
       </c>
       <c r="V518" t="s">
         <v>602</v>
@@ -53016,10 +53142,10 @@
         <v>50</v>
       </c>
       <c r="E519" s="31">
-        <f t="shared" si="75"/>
+        <f t="shared" si="76"/>
         <v>4.7249999999999996</v>
       </c>
-      <c r="F519" s="284"/>
+      <c r="F519" s="302"/>
       <c r="G519" s="36"/>
       <c r="H519" s="36" t="str">
         <f>VLOOKUP(B519,'Full Item list'!A:B,2,0)</f>
@@ -53027,7 +53153,7 @@
       </c>
       <c r="I519" s="36"/>
       <c r="J519" s="32" t="str">
-        <f t="shared" si="76"/>
+        <f t="shared" si="77"/>
         <v>KG</v>
       </c>
       <c r="K519" s="36" t="str">
@@ -53036,7 +53162,7 @@
       </c>
       <c r="L519" s="36"/>
       <c r="M519">
-        <f t="shared" si="74"/>
+        <f t="shared" si="75"/>
         <v>3.7799999999999999E-3</v>
       </c>
       <c r="N519" t="e">
@@ -53051,7 +53177,7 @@
         <v>25</v>
       </c>
       <c r="Q519">
-        <v>1000</v>
+        <v>1002</v>
       </c>
       <c r="V519" t="s">
         <v>603</v>
@@ -53075,10 +53201,10 @@
         <v>20</v>
       </c>
       <c r="E520" s="31">
-        <f t="shared" si="75"/>
+        <f t="shared" si="76"/>
         <v>9.0400000000000009</v>
       </c>
-      <c r="F520" s="284"/>
+      <c r="F520" s="302"/>
       <c r="G520" s="36"/>
       <c r="H520" s="36" t="str">
         <f>VLOOKUP(B520,'Full Item list'!A:B,2,0)</f>
@@ -53086,7 +53212,7 @@
       </c>
       <c r="I520" s="36"/>
       <c r="J520" s="32" t="str">
-        <f t="shared" si="76"/>
+        <f t="shared" si="77"/>
         <v>KG</v>
       </c>
       <c r="K520" s="36" t="str">
@@ -53095,7 +53221,7 @@
       </c>
       <c r="L520" s="36"/>
       <c r="M520">
-        <f t="shared" si="74"/>
+        <f t="shared" si="75"/>
         <v>1.8079999999999999E-2</v>
       </c>
       <c r="N520" t="e">
@@ -53110,7 +53236,7 @@
         <v>25</v>
       </c>
       <c r="Q520">
-        <v>1000</v>
+        <v>1002</v>
       </c>
       <c r="V520" t="s">
         <v>603</v>
@@ -53134,10 +53260,10 @@
         <v>5</v>
       </c>
       <c r="E521" s="31">
-        <f t="shared" si="75"/>
+        <f t="shared" si="76"/>
         <v>15.5</v>
       </c>
-      <c r="F521" s="284"/>
+      <c r="F521" s="302"/>
       <c r="G521" s="36"/>
       <c r="H521" s="36" t="str">
         <f>VLOOKUP(B521,'Full Item list'!A:B,2,0)</f>
@@ -53145,7 +53271,7 @@
       </c>
       <c r="I521" s="36"/>
       <c r="J521" s="32" t="str">
-        <f t="shared" si="76"/>
+        <f t="shared" si="77"/>
         <v>KG</v>
       </c>
       <c r="K521" s="36" t="str">
@@ -53154,7 +53280,7 @@
       </c>
       <c r="L521" s="36"/>
       <c r="M521">
-        <f t="shared" si="74"/>
+        <f t="shared" si="75"/>
         <v>0.124</v>
       </c>
       <c r="N521" t="e">
@@ -53169,7 +53295,7 @@
         <v>25</v>
       </c>
       <c r="Q521">
-        <v>1000</v>
+        <v>1002</v>
       </c>
       <c r="V521" t="s">
         <v>603</v>
@@ -53193,10 +53319,10 @@
         <v>7</v>
       </c>
       <c r="E522" s="31">
-        <f t="shared" si="75"/>
+        <f t="shared" si="76"/>
         <v>24.43</v>
       </c>
-      <c r="F522" s="285"/>
+      <c r="F522" s="303"/>
       <c r="G522" s="37"/>
       <c r="H522" s="37" t="str">
         <f>VLOOKUP(B522,'Full Item list'!A:B,2,0)</f>
@@ -53204,7 +53330,7 @@
       </c>
       <c r="I522" s="37"/>
       <c r="J522" s="32" t="str">
-        <f t="shared" si="76"/>
+        <f t="shared" si="77"/>
         <v>KG</v>
       </c>
       <c r="K522" s="37" t="str">
@@ -53213,7 +53339,7 @@
       </c>
       <c r="L522" s="37"/>
       <c r="M522">
-        <f t="shared" si="74"/>
+        <f t="shared" si="75"/>
         <v>0.1396</v>
       </c>
       <c r="N522" t="e">
@@ -53228,7 +53354,7 @@
         <v>25</v>
       </c>
       <c r="Q522">
-        <v>1000</v>
+        <v>1002</v>
       </c>
       <c r="V522" t="s">
         <v>603</v>
@@ -53248,15 +53374,17 @@
       <c r="C523" s="42" t="s">
         <v>312</v>
       </c>
-      <c r="D523" s="43">
+      <c r="D523" s="333">
         <f>G514/AA509</f>
         <v>0.501</v>
       </c>
       <c r="E523" s="31">
-        <f t="shared" si="75"/>
+        <f t="shared" si="76"/>
         <v>246.02418643602178</v>
       </c>
-      <c r="F523" s="45"/>
+      <c r="F523" s="45" t="s">
+        <v>782</v>
+      </c>
       <c r="G523" s="32"/>
       <c r="H523" s="32" t="str">
         <f>VLOOKUP(B523,'Full Item list'!A:B,2,0)</f>
@@ -53264,7 +53392,7 @@
       </c>
       <c r="I523" s="32"/>
       <c r="J523" s="32" t="str">
-        <f t="shared" si="76"/>
+        <f t="shared" si="77"/>
         <v>H</v>
       </c>
       <c r="K523" s="32" t="str">
@@ -53275,6 +53403,9 @@
       <c r="O523">
         <f>IFERROR(IF(J523="KG",VLOOKUP(H523,'Cost Price New'!D:E,2,0),VLOOKUP('BOMs setting'!H523,'Cost Price New'!D:I,6,0)),VLOOKUP(H523,A:R,18,0))</f>
         <v>491.06624039126103</v>
+      </c>
+      <c r="Q523">
+        <v>1002</v>
       </c>
       <c r="V523" t="s">
         <v>603</v>
@@ -53346,13 +53477,13 @@
       <c r="B526" s="66" t="s">
         <v>600</v>
       </c>
-      <c r="C526" s="286" t="str">
+      <c r="C526" s="284" t="str">
         <f>VLOOKUP(A526,'All products'!A:B,2,0)</f>
         <v>ADITIVO T-1</v>
       </c>
-      <c r="D526" s="286"/>
-      <c r="E526" s="286"/>
-      <c r="F526" s="287"/>
+      <c r="D526" s="284"/>
+      <c r="E526" s="284"/>
+      <c r="F526" s="285"/>
       <c r="G526" s="21">
         <v>451.85</v>
       </c>
@@ -53371,7 +53502,7 @@
       </c>
       <c r="L526" s="21"/>
       <c r="M526" t="e">
-        <f t="shared" si="74"/>
+        <f t="shared" si="75"/>
         <v>#N/A</v>
       </c>
       <c r="N526" t="e">
@@ -53458,7 +53589,7 @@
         <f>O528*D528</f>
         <v>1395</v>
       </c>
-      <c r="F528" s="283"/>
+      <c r="F528" s="300"/>
       <c r="G528" s="32"/>
       <c r="H528" s="32" t="str">
         <f>VLOOKUP(B528,'Full Item list'!A:B,2,0)</f>
@@ -53466,7 +53597,7 @@
       </c>
       <c r="I528" s="32"/>
       <c r="J528" s="32" t="str">
-        <f t="shared" ref="J528:J530" si="77">K528</f>
+        <f t="shared" ref="J528:J530" si="78">K528</f>
         <v>KG</v>
       </c>
       <c r="K528" s="32" t="str">
@@ -53475,7 +53606,7 @@
       </c>
       <c r="L528" s="32"/>
       <c r="M528">
-        <f t="shared" si="74"/>
+        <f t="shared" si="75"/>
         <v>0.124</v>
       </c>
       <c r="N528" t="e">
@@ -53517,7 +53648,7 @@
         <f>O529*D529</f>
         <v>20.590500000000002</v>
       </c>
-      <c r="F529" s="304"/>
+      <c r="F529" s="301"/>
       <c r="G529" s="32"/>
       <c r="H529" s="32" t="str">
         <f>VLOOKUP(B529,'Full Item list'!A:B,2,0)</f>
@@ -53525,7 +53656,7 @@
       </c>
       <c r="I529" s="32"/>
       <c r="J529" s="32" t="str">
-        <f t="shared" si="77"/>
+        <f t="shared" si="78"/>
         <v>KG</v>
       </c>
       <c r="K529" s="32" t="str">
@@ -53534,7 +53665,7 @@
       </c>
       <c r="L529" s="32"/>
       <c r="M529">
-        <f t="shared" si="74"/>
+        <f t="shared" si="75"/>
         <v>0.22260000000000002</v>
       </c>
       <c r="N529" t="e">
@@ -53579,7 +53710,7 @@
       </c>
       <c r="I530" s="32"/>
       <c r="J530" s="32" t="str">
-        <f t="shared" si="77"/>
+        <f t="shared" si="78"/>
         <v>H</v>
       </c>
       <c r="K530" s="32" t="str">
@@ -53661,13 +53792,13 @@
       <c r="B533" s="66" t="s">
         <v>242</v>
       </c>
-      <c r="C533" s="286" t="str">
+      <c r="C533" s="284" t="str">
         <f>VLOOKUP(A533,'All products'!A:B,2,0)</f>
         <v>ADITIVO T-2</v>
       </c>
-      <c r="D533" s="286"/>
-      <c r="E533" s="286"/>
-      <c r="F533" s="287"/>
+      <c r="D533" s="284"/>
+      <c r="E533" s="284"/>
+      <c r="F533" s="285"/>
       <c r="G533" s="121">
         <f>SUM(D535:D540)</f>
         <v>222.13600000000002</v>
@@ -53687,7 +53818,7 @@
       </c>
       <c r="L533" s="21"/>
       <c r="M533" t="e">
-        <f t="shared" si="74"/>
+        <f t="shared" si="75"/>
         <v>#N/A</v>
       </c>
       <c r="N533" t="e">
@@ -53771,10 +53902,10 @@
         <v>25.2</v>
       </c>
       <c r="E535" s="31">
-        <f t="shared" ref="E535:E540" si="78">O535*D535</f>
+        <f t="shared" ref="E535:E540" si="79">O535*D535</f>
         <v>74.289599999999993</v>
       </c>
-      <c r="F535" s="283"/>
+      <c r="F535" s="300"/>
       <c r="G535" s="32"/>
       <c r="H535" s="32" t="str">
         <f>VLOOKUP(B535,'Full Item list'!A:B,2,0)</f>
@@ -53782,7 +53913,7 @@
       </c>
       <c r="I535" s="32"/>
       <c r="J535" s="32" t="str">
-        <f t="shared" ref="J535:J541" si="79">K535</f>
+        <f t="shared" ref="J535:J541" si="80">K535</f>
         <v>KG</v>
       </c>
       <c r="K535" s="32" t="str">
@@ -53791,7 +53922,7 @@
       </c>
       <c r="L535" s="32"/>
       <c r="M535">
-        <f t="shared" si="74"/>
+        <f t="shared" si="75"/>
         <v>0.11792</v>
       </c>
       <c r="N535" t="e">
@@ -53830,10 +53961,10 @@
         <v>14.7</v>
       </c>
       <c r="E536" s="31">
-        <f t="shared" si="78"/>
+        <f t="shared" si="79"/>
         <v>5.5124999999999993</v>
       </c>
-      <c r="F536" s="284"/>
+      <c r="F536" s="302"/>
       <c r="G536" s="36"/>
       <c r="H536" s="36" t="str">
         <f>VLOOKUP(B536,'Full Item list'!A:B,2,0)</f>
@@ -53841,7 +53972,7 @@
       </c>
       <c r="I536" s="36"/>
       <c r="J536" s="32" t="str">
-        <f t="shared" si="79"/>
+        <f t="shared" si="80"/>
         <v>KG</v>
       </c>
       <c r="K536" s="36" t="str">
@@ -53850,7 +53981,7 @@
       </c>
       <c r="L536" s="36"/>
       <c r="M536">
-        <f t="shared" si="74"/>
+        <f t="shared" si="75"/>
         <v>1.4999999999999999E-2</v>
       </c>
       <c r="N536" t="e">
@@ -53889,10 +54020,10 @@
         <v>142.80000000000001</v>
       </c>
       <c r="E537" s="31">
-        <f t="shared" si="78"/>
+        <f t="shared" si="79"/>
         <v>314.16000000000003</v>
       </c>
-      <c r="F537" s="284"/>
+      <c r="F537" s="302"/>
       <c r="G537" s="36"/>
       <c r="H537" s="36" t="str">
         <f>VLOOKUP(B537,'Full Item list'!A:B,2,0)</f>
@@ -53900,7 +54031,7 @@
       </c>
       <c r="I537" s="36"/>
       <c r="J537" s="32" t="str">
-        <f t="shared" si="79"/>
+        <f t="shared" si="80"/>
         <v>KG</v>
       </c>
       <c r="K537" s="36" t="str">
@@ -53909,7 +54040,7 @@
       </c>
       <c r="L537" s="36"/>
       <c r="M537">
-        <f t="shared" si="74"/>
+        <f t="shared" si="75"/>
         <v>8.8000000000000009E-2</v>
       </c>
       <c r="N537" t="e">
@@ -53948,10 +54079,10 @@
         <v>21</v>
       </c>
       <c r="E538" s="31">
-        <f t="shared" si="78"/>
+        <f t="shared" si="79"/>
         <v>65.100000000000009</v>
       </c>
-      <c r="F538" s="284"/>
+      <c r="F538" s="302"/>
       <c r="G538" s="36"/>
       <c r="H538" s="36" t="str">
         <f>VLOOKUP(B538,'Full Item list'!A:B,2,0)</f>
@@ -53959,7 +54090,7 @@
       </c>
       <c r="I538" s="36"/>
       <c r="J538" s="32" t="str">
-        <f t="shared" si="79"/>
+        <f t="shared" si="80"/>
         <v>KG</v>
       </c>
       <c r="K538" s="36" t="str">
@@ -53968,7 +54099,7 @@
       </c>
       <c r="L538" s="36"/>
       <c r="M538">
-        <f t="shared" si="74"/>
+        <f t="shared" si="75"/>
         <v>0.124</v>
       </c>
       <c r="N538" t="e">
@@ -54007,10 +54138,10 @@
         <v>18.100000000000001</v>
       </c>
       <c r="E539" s="31">
-        <f t="shared" si="78"/>
+        <f t="shared" si="79"/>
         <v>171.95000000000002</v>
       </c>
-      <c r="F539" s="284"/>
+      <c r="F539" s="302"/>
       <c r="G539" s="36"/>
       <c r="H539" s="36" t="str">
         <f>VLOOKUP(B539,'Full Item list'!A:B,2,0)</f>
@@ -54018,7 +54149,7 @@
       </c>
       <c r="I539" s="36"/>
       <c r="J539" s="32" t="str">
-        <f t="shared" si="79"/>
+        <f t="shared" si="80"/>
         <v>KG</v>
       </c>
       <c r="K539" s="36" t="str">
@@ -54027,7 +54158,7 @@
       </c>
       <c r="L539" s="36"/>
       <c r="M539">
-        <f t="shared" si="74"/>
+        <f t="shared" si="75"/>
         <v>0.47499999999999998</v>
       </c>
       <c r="N539" t="e">
@@ -54066,10 +54197,10 @@
         <v>0.33600000000000002</v>
       </c>
       <c r="E540" s="31">
-        <f t="shared" si="78"/>
+        <f t="shared" si="79"/>
         <v>3.7396800000000003</v>
       </c>
-      <c r="F540" s="285"/>
+      <c r="F540" s="303"/>
       <c r="G540" s="37"/>
       <c r="H540" s="37" t="str">
         <f>VLOOKUP(B540,'Full Item list'!A:B,2,0)</f>
@@ -54077,7 +54208,7 @@
       </c>
       <c r="I540" s="37"/>
       <c r="J540" s="32" t="str">
-        <f t="shared" si="79"/>
+        <f t="shared" si="80"/>
         <v>KG</v>
       </c>
       <c r="K540" s="37" t="str">
@@ -54086,7 +54217,7 @@
       </c>
       <c r="L540" s="37"/>
       <c r="M540">
-        <f t="shared" si="74"/>
+        <f t="shared" si="75"/>
         <v>0.22260000000000002</v>
       </c>
       <c r="N540" t="e">
@@ -54131,7 +54262,7 @@
       </c>
       <c r="I541" s="32"/>
       <c r="J541" s="32" t="str">
-        <f t="shared" si="79"/>
+        <f t="shared" si="80"/>
         <v>H</v>
       </c>
       <c r="K541" s="32" t="str">
@@ -54213,13 +54344,13 @@
       <c r="B544" s="66" t="s">
         <v>244</v>
       </c>
-      <c r="C544" s="286" t="str">
+      <c r="C544" s="284" t="str">
         <f>VLOOKUP(A544,'All products'!A:B,2,0)</f>
         <v>ADITIVO T-3</v>
       </c>
-      <c r="D544" s="286"/>
-      <c r="E544" s="286"/>
-      <c r="F544" s="287"/>
+      <c r="D544" s="284"/>
+      <c r="E544" s="284"/>
+      <c r="F544" s="285"/>
       <c r="G544" s="122">
         <f>SUM(D546:D547)</f>
         <v>5.1429999999999998</v>
@@ -54239,7 +54370,7 @@
       </c>
       <c r="L544" s="21"/>
       <c r="M544" t="e">
-        <f t="shared" si="74"/>
+        <f t="shared" si="75"/>
         <v>#N/A</v>
       </c>
       <c r="N544" t="e">
@@ -54326,7 +54457,7 @@
         <f>O546*D546</f>
         <v>13.514999999999999</v>
       </c>
-      <c r="F546" s="283"/>
+      <c r="F546" s="300"/>
       <c r="G546" s="32"/>
       <c r="H546" s="32" t="str">
         <f>VLOOKUP(B546,'Full Item list'!A:B,2,0)</f>
@@ -54334,7 +54465,7 @@
       </c>
       <c r="I546" s="32"/>
       <c r="J546" s="32" t="str">
-        <f t="shared" ref="J546:J548" si="80">K546</f>
+        <f t="shared" ref="J546:J548" si="81">K546</f>
         <v>KG</v>
       </c>
       <c r="K546" s="32" t="str">
@@ -54343,7 +54474,7 @@
       </c>
       <c r="L546" s="32"/>
       <c r="M546">
-        <f t="shared" si="74"/>
+        <f t="shared" si="75"/>
         <v>0.13250000000000001</v>
       </c>
       <c r="N546" t="e">
@@ -54385,7 +54516,7 @@
         <f>O547*D547</f>
         <v>0.47859000000000002</v>
       </c>
-      <c r="F547" s="304"/>
+      <c r="F547" s="301"/>
       <c r="G547" s="32"/>
       <c r="H547" s="32" t="str">
         <f>VLOOKUP(B547,'Full Item list'!A:B,2,0)</f>
@@ -54393,7 +54524,7 @@
       </c>
       <c r="I547" s="32"/>
       <c r="J547" s="32" t="str">
-        <f t="shared" si="80"/>
+        <f t="shared" si="81"/>
         <v>KG</v>
       </c>
       <c r="K547" s="32" t="str">
@@ -54402,7 +54533,7 @@
       </c>
       <c r="L547" s="32"/>
       <c r="M547">
-        <f t="shared" si="74"/>
+        <f t="shared" si="75"/>
         <v>0.22260000000000002</v>
       </c>
       <c r="N547" t="e">
@@ -54447,7 +54578,7 @@
       </c>
       <c r="I548" s="32"/>
       <c r="J548" s="32" t="str">
-        <f t="shared" si="80"/>
+        <f t="shared" si="81"/>
         <v>H</v>
       </c>
       <c r="K548" s="32" t="str">
@@ -54529,13 +54660,13 @@
       <c r="B551" s="20" t="s">
         <v>246</v>
       </c>
-      <c r="C551" s="286" t="str">
+      <c r="C551" s="284" t="str">
         <f>VLOOKUP(A551,'All products'!A:B,2,0)</f>
         <v>ADITIVO T-6</v>
       </c>
-      <c r="D551" s="286"/>
-      <c r="E551" s="286"/>
-      <c r="F551" s="287"/>
+      <c r="D551" s="284"/>
+      <c r="E551" s="284"/>
+      <c r="F551" s="285"/>
       <c r="G551" s="122">
         <f>SUM(D553:D556)</f>
         <v>45.1</v>
@@ -54555,7 +54686,7 @@
       </c>
       <c r="L551" s="21"/>
       <c r="M551" t="e">
-        <f t="shared" si="74"/>
+        <f t="shared" si="75"/>
         <v>#N/A</v>
       </c>
       <c r="N551" t="e">
@@ -54642,7 +54773,7 @@
         <f>O553*D553</f>
         <v>12.657300000000001</v>
       </c>
-      <c r="F553" s="283"/>
+      <c r="F553" s="300"/>
       <c r="G553" s="32"/>
       <c r="H553" s="32" t="str">
         <f>VLOOKUP(B553,'Full Item list'!A:B,2,0)</f>
@@ -54650,7 +54781,7 @@
       </c>
       <c r="I553" s="32"/>
       <c r="J553" s="32" t="str">
-        <f t="shared" ref="J553:J557" si="81">K553</f>
+        <f t="shared" ref="J553:J557" si="82">K553</f>
         <v>KG</v>
       </c>
       <c r="K553" s="32" t="str">
@@ -54659,7 +54790,7 @@
       </c>
       <c r="L553" s="32"/>
       <c r="M553">
-        <f t="shared" si="74"/>
+        <f t="shared" si="75"/>
         <v>0.124</v>
       </c>
       <c r="N553" t="e">
@@ -54701,7 +54832,7 @@
         <f>O554*D554</f>
         <v>0.18921000000000002</v>
       </c>
-      <c r="F554" s="284"/>
+      <c r="F554" s="302"/>
       <c r="G554" s="36"/>
       <c r="H554" s="36" t="str">
         <f>VLOOKUP(B554,'Full Item list'!A:B,2,0)</f>
@@ -54709,7 +54840,7 @@
       </c>
       <c r="I554" s="36"/>
       <c r="J554" s="32" t="str">
-        <f t="shared" si="81"/>
+        <f t="shared" si="82"/>
         <v>KG</v>
       </c>
       <c r="K554" s="36" t="str">
@@ -54718,7 +54849,7 @@
       </c>
       <c r="L554" s="36"/>
       <c r="M554">
-        <f t="shared" si="74"/>
+        <f t="shared" si="75"/>
         <v>0.22260000000000002</v>
       </c>
       <c r="N554" t="e">
@@ -54760,7 +54891,7 @@
         <f>O555*D555</f>
         <v>48.8</v>
       </c>
-      <c r="F555" s="284"/>
+      <c r="F555" s="302"/>
       <c r="G555" s="36"/>
       <c r="H555" s="36" t="str">
         <f>VLOOKUP(B555,'Full Item list'!A:B,2,0)</f>
@@ -54776,7 +54907,7 @@
       </c>
       <c r="L555" s="36"/>
       <c r="M555">
-        <f t="shared" si="74"/>
+        <f t="shared" si="75"/>
         <v>6.0999999999999999E-2</v>
       </c>
       <c r="N555" t="e">
@@ -54818,7 +54949,7 @@
         <f>O556*D556</f>
         <v>8.5</v>
       </c>
-      <c r="F556" s="305"/>
+      <c r="F556" s="304"/>
       <c r="G556" s="36"/>
       <c r="H556" s="36" t="str">
         <f>VLOOKUP(B556,'Full Item list'!A:B,2,0)</f>
@@ -54826,7 +54957,7 @@
       </c>
       <c r="I556" s="36"/>
       <c r="J556" s="32" t="str">
-        <f t="shared" si="81"/>
+        <f t="shared" si="82"/>
         <v>KG</v>
       </c>
       <c r="K556" s="36" t="str">
@@ -54835,7 +54966,7 @@
       </c>
       <c r="L556" s="36"/>
       <c r="M556">
-        <f t="shared" si="74"/>
+        <f t="shared" si="75"/>
         <v>0.34</v>
       </c>
       <c r="N556" t="e">
@@ -54880,7 +55011,7 @@
       </c>
       <c r="I557" s="32"/>
       <c r="J557" s="32" t="str">
-        <f t="shared" si="81"/>
+        <f t="shared" si="82"/>
         <v>H</v>
       </c>
       <c r="K557" s="32" t="str">
@@ -54962,13 +55093,13 @@
       <c r="B560" s="20" t="s">
         <v>248</v>
       </c>
-      <c r="C560" s="286" t="str">
+      <c r="C560" s="284" t="str">
         <f>VLOOKUP(A560,'All products'!A:B,2,0)</f>
         <v>ADITIVO T-8</v>
       </c>
-      <c r="D560" s="286"/>
-      <c r="E560" s="286"/>
-      <c r="F560" s="287"/>
+      <c r="D560" s="284"/>
+      <c r="E560" s="284"/>
+      <c r="F560" s="285"/>
       <c r="G560" s="121">
         <f>SUM(D562:D563)</f>
         <v>2.6</v>
@@ -54988,7 +55119,7 @@
       </c>
       <c r="L560" s="21"/>
       <c r="M560" t="e">
-        <f t="shared" si="74"/>
+        <f t="shared" si="75"/>
         <v>#N/A</v>
       </c>
       <c r="N560" t="e">
@@ -55075,7 +55206,7 @@
         <f>O562*D562</f>
         <v>22.64</v>
       </c>
-      <c r="F562" s="283"/>
+      <c r="F562" s="300"/>
       <c r="G562" s="32"/>
       <c r="H562" s="32" t="str">
         <f>VLOOKUP(B562,'Full Item list'!A:B,2,0)</f>
@@ -55083,7 +55214,7 @@
       </c>
       <c r="I562" s="32"/>
       <c r="J562" s="32" t="str">
-        <f t="shared" ref="J562:J564" si="82">K562</f>
+        <f t="shared" ref="J562:J564" si="83">K562</f>
         <v>KG</v>
       </c>
       <c r="K562" s="32" t="str">
@@ -55092,7 +55223,7 @@
       </c>
       <c r="L562" s="32"/>
       <c r="M562">
-        <f t="shared" si="74"/>
+        <f t="shared" si="75"/>
         <v>0.70750000000000002</v>
       </c>
       <c r="N562" t="e">
@@ -55134,7 +55265,7 @@
         <f>O563*D563</f>
         <v>9.5</v>
       </c>
-      <c r="F563" s="304"/>
+      <c r="F563" s="301"/>
       <c r="G563" s="32"/>
       <c r="H563" s="32" t="str">
         <f>VLOOKUP(B563,'Full Item list'!A:B,2,0)</f>
@@ -55142,7 +55273,7 @@
       </c>
       <c r="I563" s="32"/>
       <c r="J563" s="32" t="str">
-        <f t="shared" si="82"/>
+        <f t="shared" si="83"/>
         <v>KG</v>
       </c>
       <c r="K563" s="32" t="str">
@@ -55151,7 +55282,7 @@
       </c>
       <c r="L563" s="32"/>
       <c r="M563">
-        <f t="shared" si="74"/>
+        <f t="shared" si="75"/>
         <v>0.47499999999999998</v>
       </c>
       <c r="N563" t="e">
@@ -55196,7 +55327,7 @@
       </c>
       <c r="I564" s="32"/>
       <c r="J564" s="32" t="str">
-        <f t="shared" si="82"/>
+        <f t="shared" si="83"/>
         <v>H</v>
       </c>
       <c r="K564" s="32" t="str">
@@ -55234,11 +55365,81 @@
   </sheetData>
   <autoFilter ref="A1:AB565"/>
   <mergeCells count="96">
-    <mergeCell ref="C134:F134"/>
-    <mergeCell ref="C162:F162"/>
-    <mergeCell ref="C176:F176"/>
-    <mergeCell ref="C141:F141"/>
-    <mergeCell ref="C148:F148"/>
+    <mergeCell ref="F498:F505"/>
+    <mergeCell ref="C413:F413"/>
+    <mergeCell ref="F415:F422"/>
+    <mergeCell ref="C431:F431"/>
+    <mergeCell ref="F433:F436"/>
+    <mergeCell ref="C445:F445"/>
+    <mergeCell ref="F447:F452"/>
+    <mergeCell ref="C461:F461"/>
+    <mergeCell ref="F463:F469"/>
+    <mergeCell ref="C478:F478"/>
+    <mergeCell ref="F480:F487"/>
+    <mergeCell ref="C496:F496"/>
+    <mergeCell ref="C491:F491"/>
+    <mergeCell ref="C408:F408"/>
+    <mergeCell ref="C426:F426"/>
+    <mergeCell ref="C440:F440"/>
+    <mergeCell ref="C456:F456"/>
+    <mergeCell ref="C473:F473"/>
+    <mergeCell ref="C306:F306"/>
+    <mergeCell ref="C323:F323"/>
+    <mergeCell ref="C336:F336"/>
+    <mergeCell ref="C354:F354"/>
+    <mergeCell ref="C373:F373"/>
+    <mergeCell ref="C291:F291"/>
+    <mergeCell ref="C155:F155"/>
+    <mergeCell ref="C169:F169"/>
+    <mergeCell ref="C252:F252"/>
+    <mergeCell ref="C207:F207"/>
+    <mergeCell ref="F209:F210"/>
+    <mergeCell ref="C280:F280"/>
+    <mergeCell ref="F282:F287"/>
+    <mergeCell ref="C296:F296"/>
+    <mergeCell ref="C2:F2"/>
+    <mergeCell ref="C50:F50"/>
+    <mergeCell ref="F52:F60"/>
+    <mergeCell ref="C89:F89"/>
+    <mergeCell ref="F91:F93"/>
+    <mergeCell ref="C65:F65"/>
+    <mergeCell ref="F67:F75"/>
+    <mergeCell ref="C34:F34"/>
+    <mergeCell ref="C80:F80"/>
+    <mergeCell ref="F82:F84"/>
+    <mergeCell ref="C18:F18"/>
+    <mergeCell ref="C258:F258"/>
+    <mergeCell ref="C274:F274"/>
+    <mergeCell ref="C98:F98"/>
+    <mergeCell ref="F100:F105"/>
+    <mergeCell ref="F380:F387"/>
+    <mergeCell ref="C396:F396"/>
+    <mergeCell ref="C391:F391"/>
+    <mergeCell ref="F298:F302"/>
+    <mergeCell ref="F190:F197"/>
+    <mergeCell ref="C201:F201"/>
+    <mergeCell ref="C214:F214"/>
+    <mergeCell ref="F216:F217"/>
+    <mergeCell ref="C240:F240"/>
+    <mergeCell ref="C246:F246"/>
+    <mergeCell ref="C221:F221"/>
+    <mergeCell ref="F223:F224"/>
+    <mergeCell ref="C228:F228"/>
+    <mergeCell ref="C234:F234"/>
+    <mergeCell ref="C263:F263"/>
+    <mergeCell ref="F265:F270"/>
+    <mergeCell ref="F562:F563"/>
+    <mergeCell ref="C514:F514"/>
+    <mergeCell ref="F516:F522"/>
+    <mergeCell ref="C526:F526"/>
+    <mergeCell ref="F528:F529"/>
+    <mergeCell ref="C533:F533"/>
+    <mergeCell ref="F535:F540"/>
+    <mergeCell ref="C544:F544"/>
+    <mergeCell ref="F546:F547"/>
+    <mergeCell ref="C551:F551"/>
+    <mergeCell ref="F553:F556"/>
+    <mergeCell ref="C560:F560"/>
     <mergeCell ref="C509:F509"/>
     <mergeCell ref="C110:F110"/>
     <mergeCell ref="F112:F117"/>
@@ -55255,81 +55456,11 @@
     <mergeCell ref="C359:F359"/>
     <mergeCell ref="F361:F369"/>
     <mergeCell ref="C378:F378"/>
-    <mergeCell ref="F562:F563"/>
-    <mergeCell ref="C514:F514"/>
-    <mergeCell ref="F516:F522"/>
-    <mergeCell ref="C526:F526"/>
-    <mergeCell ref="F528:F529"/>
-    <mergeCell ref="C533:F533"/>
-    <mergeCell ref="F535:F540"/>
-    <mergeCell ref="C544:F544"/>
-    <mergeCell ref="F546:F547"/>
-    <mergeCell ref="C551:F551"/>
-    <mergeCell ref="F553:F556"/>
-    <mergeCell ref="C560:F560"/>
-    <mergeCell ref="F380:F387"/>
-    <mergeCell ref="C396:F396"/>
-    <mergeCell ref="C391:F391"/>
-    <mergeCell ref="F298:F302"/>
-    <mergeCell ref="F190:F197"/>
-    <mergeCell ref="C201:F201"/>
-    <mergeCell ref="C214:F214"/>
-    <mergeCell ref="F216:F217"/>
-    <mergeCell ref="C240:F240"/>
-    <mergeCell ref="C246:F246"/>
-    <mergeCell ref="C221:F221"/>
-    <mergeCell ref="F223:F224"/>
-    <mergeCell ref="C228:F228"/>
-    <mergeCell ref="C234:F234"/>
-    <mergeCell ref="C263:F263"/>
-    <mergeCell ref="F265:F270"/>
-    <mergeCell ref="C296:F296"/>
-    <mergeCell ref="C2:F2"/>
-    <mergeCell ref="C50:F50"/>
-    <mergeCell ref="F52:F60"/>
-    <mergeCell ref="C89:F89"/>
-    <mergeCell ref="F91:F93"/>
-    <mergeCell ref="C65:F65"/>
-    <mergeCell ref="F67:F75"/>
-    <mergeCell ref="C34:F34"/>
-    <mergeCell ref="C80:F80"/>
-    <mergeCell ref="F82:F84"/>
-    <mergeCell ref="C18:F18"/>
-    <mergeCell ref="C258:F258"/>
-    <mergeCell ref="C274:F274"/>
-    <mergeCell ref="C98:F98"/>
-    <mergeCell ref="F100:F105"/>
-    <mergeCell ref="C291:F291"/>
-    <mergeCell ref="C155:F155"/>
-    <mergeCell ref="C169:F169"/>
-    <mergeCell ref="C252:F252"/>
-    <mergeCell ref="C207:F207"/>
-    <mergeCell ref="F209:F210"/>
-    <mergeCell ref="C280:F280"/>
-    <mergeCell ref="F282:F287"/>
-    <mergeCell ref="C306:F306"/>
-    <mergeCell ref="C323:F323"/>
-    <mergeCell ref="C336:F336"/>
-    <mergeCell ref="C354:F354"/>
-    <mergeCell ref="C373:F373"/>
-    <mergeCell ref="C408:F408"/>
-    <mergeCell ref="C426:F426"/>
-    <mergeCell ref="C440:F440"/>
-    <mergeCell ref="C456:F456"/>
-    <mergeCell ref="C473:F473"/>
-    <mergeCell ref="F498:F505"/>
-    <mergeCell ref="C413:F413"/>
-    <mergeCell ref="F415:F422"/>
-    <mergeCell ref="C431:F431"/>
-    <mergeCell ref="F433:F436"/>
-    <mergeCell ref="C445:F445"/>
-    <mergeCell ref="F447:F452"/>
-    <mergeCell ref="C461:F461"/>
-    <mergeCell ref="F463:F469"/>
-    <mergeCell ref="C478:F478"/>
-    <mergeCell ref="F480:F487"/>
-    <mergeCell ref="C496:F496"/>
-    <mergeCell ref="C491:F491"/>
+    <mergeCell ref="C134:F134"/>
+    <mergeCell ref="C162:F162"/>
+    <mergeCell ref="C176:F176"/>
+    <mergeCell ref="C141:F141"/>
+    <mergeCell ref="C148:F148"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -55873,12 +56004,12 @@
       <c r="A1" s="20" t="s">
         <v>155</v>
       </c>
-      <c r="B1" s="286" t="s">
+      <c r="B1" s="284" t="s">
         <v>468</v>
       </c>
-      <c r="C1" s="286"/>
-      <c r="D1" s="286"/>
-      <c r="E1" s="287"/>
+      <c r="C1" s="284"/>
+      <c r="D1" s="284"/>
+      <c r="E1" s="285"/>
       <c r="F1" s="21">
         <v>40</v>
       </c>
@@ -55929,7 +56060,7 @@
         <f t="shared" ref="D3:D8" si="0">C3*K3</f>
         <v>0</v>
       </c>
-      <c r="E3" s="288"/>
+      <c r="E3" s="294"/>
       <c r="F3">
         <f t="shared" ref="F3:F8" si="1">C3/$C$11*1000</f>
         <v>355.09962517261789</v>
@@ -55959,7 +56090,7 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="E4" s="289"/>
+      <c r="E4" s="287"/>
       <c r="F4">
         <f t="shared" si="1"/>
         <v>147.95817715525743</v>
@@ -55989,7 +56120,7 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="E5" s="289"/>
+      <c r="E5" s="287"/>
       <c r="F5">
         <f t="shared" si="1"/>
         <v>147.95817715525743</v>
@@ -56019,7 +56150,7 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="E6" s="289"/>
+      <c r="E6" s="287"/>
       <c r="F6">
         <f t="shared" si="1"/>
         <v>147.95817715525743</v>
@@ -56049,7 +56180,7 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="E7" s="289"/>
+      <c r="E7" s="287"/>
       <c r="F7">
         <f t="shared" si="1"/>
         <v>197.27756954034328</v>
@@ -56079,7 +56210,7 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="E8" s="290"/>
+      <c r="E8" s="295"/>
       <c r="F8">
         <f t="shared" si="1"/>
         <v>3.7482738212665221</v>
@@ -56242,30 +56373,30 @@
       <c r="A19" s="66" t="s">
         <v>239</v>
       </c>
-      <c r="B19" s="286" t="s">
+      <c r="B19" s="284" t="s">
         <v>479</v>
       </c>
-      <c r="C19" s="286"/>
-      <c r="D19" s="286"/>
-      <c r="E19" s="287"/>
+      <c r="C19" s="284"/>
+      <c r="D19" s="284"/>
+      <c r="E19" s="285"/>
       <c r="I19" s="20" t="s">
         <v>480</v>
       </c>
-      <c r="J19" s="286" t="s">
+      <c r="J19" s="284" t="s">
         <v>482</v>
       </c>
-      <c r="K19" s="286"/>
-      <c r="L19" s="286"/>
-      <c r="M19" s="287"/>
+      <c r="K19" s="284"/>
+      <c r="L19" s="284"/>
+      <c r="M19" s="285"/>
       <c r="P19" s="20" t="s">
         <v>155</v>
       </c>
-      <c r="Q19" s="286" t="s">
+      <c r="Q19" s="284" t="s">
         <v>468</v>
       </c>
-      <c r="R19" s="286"/>
-      <c r="S19" s="286"/>
-      <c r="T19" s="287"/>
+      <c r="R19" s="284"/>
+      <c r="S19" s="284"/>
+      <c r="T19" s="285"/>
       <c r="U19" t="s">
         <v>483</v>
       </c>
@@ -56331,7 +56462,7 @@
         <f>C21*K21</f>
         <v>162000</v>
       </c>
-      <c r="E21" s="283"/>
+      <c r="E21" s="300"/>
       <c r="I21" s="71" t="s">
         <v>343</v>
       </c>
@@ -56375,7 +56506,7 @@
         <f>C22*K22</f>
         <v>277.5</v>
       </c>
-      <c r="E22" s="304"/>
+      <c r="E22" s="301"/>
       <c r="I22" s="67" t="s">
         <v>338</v>
       </c>
@@ -74272,8 +74403,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:T55"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I7" sqref="I7"/>
+    <sheetView topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="I48" sqref="I48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
